--- a/Deliverables/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1190497_isep_ipp_pt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEI\MEI\desofs2024_M1A_1201461_1190497_1191053_1191061\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D87AF82-4FB9-46F4-80F5-5C9BEE7EF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D7C824-35B7-4D8F-92FC-F063D1A0B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="735">
   <si>
     <t>Security Category</t>
   </si>
@@ -2227,12 +2227,81 @@
   <si>
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
   </si>
+  <si>
+    <t>Repo</t>
+  </si>
+  <si>
+    <t>Mention the dotnet secrets to have the database connection for example</t>
+  </si>
+  <si>
+    <t>SecureDataEncryptionHelper,SecureDataEncryptorConvertor</t>
+  </si>
+  <si>
+    <t>Mention the classes used to ensure data is encrypted before being store (for example user address)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PasswordEncryptor and  SecureDataEncryptionHelper</t>
+  </si>
+  <si>
+    <t>PasswordEncryptor uses a Sha256 with salt, pepper and multiple iterations. Secure DataEncryptionHelper uses Aes cipher with mode CBC and PCK#7 padding</t>
+  </si>
+  <si>
+    <t>Use of Dotnet secrets to store secrets like the password pepper and sensitive data encryption key</t>
+  </si>
+  <si>
+    <t>SecureDataEncryptionHelper and SecureDataEncryptorConvertor</t>
+  </si>
+  <si>
+    <t>Used to store sensitive data safely by encrypting it with the Aes cipher before storing it in the database</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/.github/workflows/codeSecurityCheck.yml</t>
+  </si>
+  <si>
+    <t>We have a github action to automatically detect common vulnerability and coding errors on our client app code and server side code. This action runs when a new pull request to the master branch is created and every Monday and Friday at 1am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github Actions, in particular the codeql-action </t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/.github/workflows/build.yml</t>
+  </si>
+  <si>
+    <t>We have a pipeline to build, test and lint the client side and server side code. Runs when a pull request is made to the master branch. We will need another pipeline to do deployment when the pull request is closed</t>
+  </si>
+  <si>
+    <t>Github Action</t>
+  </si>
+  <si>
+    <t>128 bit hash https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
+  </si>
+  <si>
+    <t>1000 iterations</t>
+  </si>
+  <si>
+    <t>Non-valid</t>
+  </si>
+  <si>
+    <t>We have a rate limiter based on the IP or user id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only generated numbers are guids </t>
+  </si>
+  <si>
+    <t>Anti denial of service - request timeout filter based on ips</t>
+  </si>
+  <si>
+    <t>WS-Security is applyable to SOAP and not REST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2336,8 +2405,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2384,6 +2460,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF0F4F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3010,7 +3092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3331,6 +3413,14 @@
     <xf numFmtId="10" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3340,12 +3430,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3432,7 +3519,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3526,7 +3613,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3606,46 +3693,46 @@
                   <c:v>0.45714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.32727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8394160583941604E-2</c:v>
+                  <c:v>0.32954545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3705,7 +3792,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74048637"/>
@@ -3756,7 +3843,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17923522"/>
@@ -3793,7 +3880,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3859,6 +3946,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4180,18 +4271,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="163" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.85546875" style="4"/>
+    <col min="6" max="1024" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1">
@@ -4235,15 +4326,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="123">
         <f t="shared" ref="D3:D16" si="0">(B3/C3)</f>
-        <v>0</v>
+        <v>0.32727272727272727</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -4271,7 +4362,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4279,7 +4370,7 @@
       </c>
       <c r="D5" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -4289,7 +4380,7 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
@@ -4297,7 +4388,7 @@
       </c>
       <c r="D6" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -4307,15 +4398,15 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
@@ -4326,7 +4417,7 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
@@ -4334,7 +4425,7 @@
       </c>
       <c r="D8" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -4344,15 +4435,15 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -4362,7 +4453,7 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF(Communication!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4370,7 +4461,7 @@
       </c>
       <c r="D10" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -4380,15 +4471,15 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -4398,7 +4489,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4406,7 +4497,7 @@
       </c>
       <c r="D12" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -4416,15 +4507,15 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -4434,15 +4525,15 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -4452,7 +4543,7 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
@@ -4460,7 +4551,7 @@
       </c>
       <c r="D15" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -4470,15 +4561,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D16" s="123">
         <f t="shared" si="0"/>
-        <v>5.8394160583941604E-2</v>
+        <v>0.32954545454545453</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -4497,21 +4588,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" zoomScale="158" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="88.85546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="25"/>
-    <col min="8" max="8" width="28.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="37.33203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="25"/>
+    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="88.77734375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="25"/>
+    <col min="8" max="8" width="28.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -4547,7 +4638,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>529</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4563,13 +4654,15 @@
       <c r="F2" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="31.15">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="31.2">
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>532</v>
       </c>
@@ -4588,8 +4681,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="31.2">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>534</v>
       </c>
@@ -4603,13 +4696,15 @@
       <c r="F4" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="129" t="s">
         <v>536</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -4630,8 +4725,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="62.45">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="62.4">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>539</v>
       </c>
@@ -4645,13 +4740,15 @@
       <c r="F6" s="80" t="s">
         <v>540</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="31.2">
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>541</v>
       </c>
@@ -4670,8 +4767,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="31.2">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>543</v>
       </c>
@@ -4691,7 +4788,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="125"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>545</v>
       </c>
@@ -4705,7 +4802,9 @@
       <c r="F9" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="37"/>
@@ -4734,21 +4833,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D2" zoomScale="188" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="88.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="25"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="31.44140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="25"/>
+    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="88.44140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -4783,7 +4882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.15">
+    <row r="2" spans="1:10" ht="156">
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
@@ -4800,13 +4899,21 @@
       <c r="F2" s="79" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="65"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>722</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="129" t="s">
         <v>550</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -4827,8 +4934,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="31.2">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>553</v>
       </c>
@@ -4842,13 +4949,15 @@
       <c r="F4" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="78">
-      <c r="A5" s="125"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>555</v>
       </c>
@@ -4867,8 +4976,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="31.15">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="31.2">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>557</v>
       </c>
@@ -4887,8 +4996,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="31.2">
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>559</v>
       </c>
@@ -4902,13 +5011,15 @@
       <c r="F7" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="31.2">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>561</v>
       </c>
@@ -4922,13 +5033,15 @@
       <c r="F8" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="129" t="s">
         <v>563</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -4944,13 +5057,15 @@
       <c r="F9" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="62.4">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>566</v>
       </c>
@@ -4964,13 +5079,15 @@
       <c r="F10" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="93.6">
-      <c r="A11" s="125"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>568</v>
       </c>
@@ -5013,21 +5130,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="D1" zoomScale="179" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="71.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="25"/>
+    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="71.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="25" customWidth="1"/>
     <col min="10" max="10" width="37" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -5063,7 +5180,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>570</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5079,13 +5196,15 @@
       <c r="F2" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="46.8">
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>573</v>
       </c>
@@ -5104,8 +5223,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="31.2">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>575</v>
       </c>
@@ -5124,8 +5243,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="46.8">
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>577</v>
       </c>
@@ -5139,13 +5258,17 @@
       <c r="F5" s="80" t="s">
         <v>578</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30" t="s">
+        <v>733</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="46.8">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>579</v>
       </c>
@@ -5165,7 +5288,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>581</v>
       </c>
@@ -5185,7 +5308,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="125"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>583</v>
       </c>
@@ -5204,8 +5327,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="31.15">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="31.2">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>585</v>
       </c>
@@ -5247,21 +5370,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="78.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="33.44140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="78.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="31.77734375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -5297,7 +5420,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>587</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5313,13 +5436,15 @@
       <c r="F2" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="46.8">
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>590</v>
       </c>
@@ -5333,13 +5458,15 @@
       <c r="F3" s="80" t="s">
         <v>591</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.9">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="46.8">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>592</v>
       </c>
@@ -5358,7 +5485,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="31.15">
+    <row r="5" spans="1:10" ht="31.2">
       <c r="A5" s="1" t="s">
         <v>594</v>
       </c>
@@ -5375,13 +5502,15 @@
       <c r="F5" s="80" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="129" t="s">
         <v>597</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -5397,13 +5526,15 @@
       <c r="F6" s="80" t="s">
         <v>599</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="31.2">
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>600</v>
       </c>
@@ -5422,8 +5553,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="46.8">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>602</v>
       </c>
@@ -5442,8 +5573,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="62.45">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="62.4">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>604</v>
       </c>
@@ -5462,8 +5593,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="31.2">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>606</v>
       </c>
@@ -5482,8 +5613,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="46.9">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="46.8">
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>608</v>
       </c>
@@ -5503,7 +5634,7 @@
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="129" t="s">
         <v>610</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -5524,8 +5655,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="31.15">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="31.2">
+      <c r="A13" s="129"/>
       <c r="B13" s="62" t="s">
         <v>613</v>
       </c>
@@ -5539,13 +5670,15 @@
       <c r="F13" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="129" t="s">
         <v>615</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -5561,13 +5694,15 @@
       <c r="F14" s="80" t="s">
         <v>617</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="31.2">
+      <c r="A15" s="129"/>
       <c r="B15" s="62" t="s">
         <v>618</v>
       </c>
@@ -5581,12 +5716,14 @@
       <c r="F15" s="80" t="s">
         <v>619</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="46.9">
+    <row r="16" spans="1:10" ht="46.8">
       <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
@@ -5635,19 +5772,19 @@
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="72" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="25"/>
-    <col min="6" max="6" width="84.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="2" max="5" width="8.77734375" style="25"/>
+    <col min="6" max="6" width="84.44140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.77734375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -5683,7 +5820,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>623</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5705,7 +5842,7 @@
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="125"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>626</v>
       </c>
@@ -5726,8 +5863,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="31.2">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>628</v>
       </c>
@@ -5746,8 +5883,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="46.8">
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>630</v>
       </c>
@@ -5761,13 +5898,15 @@
       <c r="F5" s="80" t="s">
         <v>631</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="46.8">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>632</v>
       </c>
@@ -5781,13 +5920,15 @@
       <c r="F6" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="129" t="s">
         <v>634</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -5809,7 +5950,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="125"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>637</v>
       </c>
@@ -5823,13 +5964,15 @@
       <c r="F8" s="80" t="s">
         <v>638</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="46.9">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="46.8">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>639</v>
       </c>
@@ -5849,7 +5992,7 @@
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="125"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>641</v>
       </c>
@@ -5870,8 +6013,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="31.2">
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>643</v>
       </c>
@@ -5885,13 +6028,15 @@
       <c r="F11" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="125"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="62" t="s">
         <v>645</v>
       </c>
@@ -5911,7 +6056,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="129" t="s">
         <v>647</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -5932,8 +6077,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="31.15">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="31.2">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>650</v>
       </c>
@@ -5947,13 +6092,17 @@
       <c r="F14" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="I14" s="30" t="s">
+        <v>734</v>
+      </c>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="129" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -5969,13 +6118,15 @@
       <c r="F15" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="31.15">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" ht="31.2">
+      <c r="A16" s="129"/>
       <c r="B16" s="62" t="s">
         <v>655</v>
       </c>
@@ -5989,7 +6140,9 @@
       <c r="F16" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="35" t="s">
+        <v>730</v>
+      </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="37"/>
@@ -6020,21 +6173,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="D12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="25"/>
-    <col min="6" max="6" width="88.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="40.77734375" style="72" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="25"/>
+    <col min="6" max="6" width="88.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -6069,8 +6222,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:10" ht="81.45" customHeight="1">
+      <c r="A2" s="130" t="s">
         <v>657</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -6084,13 +6237,21 @@
       <c r="F2" s="103" t="s">
         <v>659</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="105"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="126"/>
+      <c r="G2" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>724</v>
+      </c>
+      <c r="I2" s="125" t="s">
+        <v>725</v>
+      </c>
+      <c r="J2" s="105" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="46.8">
+      <c r="A3" s="130"/>
       <c r="B3" s="62" t="s">
         <v>660</v>
       </c>
@@ -6109,8 +6270,8 @@
       <c r="I3" s="110"/>
       <c r="J3" s="111"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="126"/>
+    <row r="4" spans="1:10" ht="31.8" thickBot="1">
+      <c r="A4" s="130"/>
       <c r="B4" s="62" t="s">
         <v>662</v>
       </c>
@@ -6129,8 +6290,8 @@
       <c r="I4" s="110"/>
       <c r="J4" s="111"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="126"/>
+    <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1">
+      <c r="A5" s="130"/>
       <c r="B5" s="62" t="s">
         <v>664</v>
       </c>
@@ -6142,13 +6303,19 @@
       <c r="F5" s="109" t="s">
         <v>665</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="G5" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>724</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>725</v>
+      </c>
       <c r="J5" s="111"/>
     </row>
-    <row r="6" spans="1:10" ht="31.15">
-      <c r="A6" s="126"/>
+    <row r="6" spans="1:10" ht="31.8" thickBot="1">
+      <c r="A6" s="130"/>
       <c r="B6" s="62" t="s">
         <v>666</v>
       </c>
@@ -6165,8 +6332,8 @@
       <c r="I6" s="110"/>
       <c r="J6" s="111"/>
     </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" s="125" t="s">
+    <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A7" s="129" t="s">
         <v>668</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -6182,13 +6349,15 @@
       <c r="F7" s="109" t="s">
         <v>670</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
       <c r="J7" s="111"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="31.8" thickBot="1">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>671</v>
       </c>
@@ -6202,13 +6371,15 @@
       <c r="F8" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="G8" s="110"/>
+      <c r="G8" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
       <c r="J8" s="111"/>
     </row>
-    <row r="9" spans="1:10" ht="46.9">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="46.8">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>673</v>
       </c>
@@ -6227,8 +6398,8 @@
       <c r="I9" s="110"/>
       <c r="J9" s="111"/>
     </row>
-    <row r="10" spans="1:10" ht="46.9">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="46.8">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>675</v>
       </c>
@@ -6247,8 +6418,8 @@
       <c r="I10" s="110"/>
       <c r="J10" s="111"/>
     </row>
-    <row r="11" spans="1:10" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="31.2">
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>677</v>
       </c>
@@ -6265,8 +6436,8 @@
       <c r="I11" s="110"/>
       <c r="J11" s="111"/>
     </row>
-    <row r="12" spans="1:10" ht="46.9">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" ht="46.8">
+      <c r="A12" s="129"/>
       <c r="B12" s="62" t="s">
         <v>679</v>
       </c>
@@ -6286,7 +6457,7 @@
       <c r="J12" s="111"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="129" t="s">
         <v>681</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -6309,8 +6480,8 @@
       <c r="I13" s="110"/>
       <c r="J13" s="111"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="46.8">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>684</v>
       </c>
@@ -6329,8 +6500,8 @@
       <c r="I14" s="110"/>
       <c r="J14" s="111"/>
     </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="31.2">
+      <c r="A15" s="129"/>
       <c r="B15" s="62" t="s">
         <v>686</v>
       </c>
@@ -6350,7 +6521,7 @@
       <c r="J15" s="111"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="129" t="s">
         <v>688</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -6366,13 +6537,15 @@
       <c r="F16" s="109" t="s">
         <v>690</v>
       </c>
-      <c r="G16" s="110"/>
+      <c r="G16" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="110"/>
       <c r="I16" s="110"/>
       <c r="J16" s="111"/>
     </row>
-    <row r="17" spans="1:10" ht="31.15">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="31.2">
+      <c r="A17" s="129"/>
       <c r="B17" s="62" t="s">
         <v>691</v>
       </c>
@@ -6391,8 +6564,8 @@
       <c r="I17" s="110"/>
       <c r="J17" s="111"/>
     </row>
-    <row r="18" spans="1:10" ht="31.15">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" ht="31.2">
+      <c r="A18" s="129"/>
       <c r="B18" s="62" t="s">
         <v>693</v>
       </c>
@@ -6412,7 +6585,7 @@
       <c r="J18" s="111"/>
     </row>
     <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="125"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="62" t="s">
         <v>695</v>
       </c>
@@ -6431,8 +6604,8 @@
       <c r="I19" s="110"/>
       <c r="J19" s="111"/>
     </row>
-    <row r="20" spans="1:10" ht="31.15">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:10" ht="31.2">
+      <c r="A20" s="129"/>
       <c r="B20" s="62" t="s">
         <v>697</v>
       </c>
@@ -6451,8 +6624,8 @@
       <c r="I20" s="110"/>
       <c r="J20" s="111"/>
     </row>
-    <row r="21" spans="1:10" ht="31.15">
-      <c r="A21" s="125"/>
+    <row r="21" spans="1:10" ht="31.2">
+      <c r="A21" s="129"/>
       <c r="B21" s="62" t="s">
         <v>699</v>
       </c>
@@ -6471,8 +6644,8 @@
       <c r="I21" s="110"/>
       <c r="J21" s="111"/>
     </row>
-    <row r="22" spans="1:10" ht="62.45">
-      <c r="A22" s="125"/>
+    <row r="22" spans="1:10" ht="62.4">
+      <c r="A22" s="129"/>
       <c r="B22" s="62" t="s">
         <v>701</v>
       </c>
@@ -6492,7 +6665,7 @@
       <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="129" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -6513,8 +6686,8 @@
       <c r="I23" s="110"/>
       <c r="J23" s="111"/>
     </row>
-    <row r="24" spans="1:10" ht="31.15">
-      <c r="A24" s="125"/>
+    <row r="24" spans="1:10" ht="31.2">
+      <c r="A24" s="129"/>
       <c r="B24" s="62" t="s">
         <v>706</v>
       </c>
@@ -6533,8 +6706,8 @@
       <c r="I24" s="110"/>
       <c r="J24" s="111"/>
     </row>
-    <row r="25" spans="1:10" ht="46.9">
-      <c r="A25" s="125"/>
+    <row r="25" spans="1:10" ht="46.8">
+      <c r="A25" s="129"/>
       <c r="B25" s="62" t="s">
         <v>708</v>
       </c>
@@ -6553,8 +6726,8 @@
       <c r="I25" s="110"/>
       <c r="J25" s="111"/>
     </row>
-    <row r="26" spans="1:10" ht="31.15">
-      <c r="A26" s="125"/>
+    <row r="26" spans="1:10" ht="31.2">
+      <c r="A26" s="129"/>
       <c r="B26" s="62" t="s">
         <v>710</v>
       </c>
@@ -6568,7 +6741,9 @@
       <c r="F26" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="G26" s="118"/>
+      <c r="G26" s="118" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
       <c r="J26" s="119"/>
@@ -6600,22 +6775,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A42" zoomScale="136" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="14"/>
-    <col min="3" max="3" width="10.7109375" style="14" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="14"/>
-    <col min="6" max="6" width="60.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="14"/>
+    <col min="3" max="3" width="10.6640625" style="14" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="14"/>
+    <col min="6" max="6" width="60.77734375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="14" customWidth="1"/>
     <col min="8" max="8" width="36" style="14" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="14"/>
+    <col min="9" max="9" width="52.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" style="14" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="42.6" thickBot="1">
@@ -6651,7 +6826,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="128" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -6668,7 +6843,7 @@
       <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -6678,8 +6853,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="96.75">
-      <c r="A3" s="124"/>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A3" s="128"/>
       <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
@@ -6696,7 +6871,7 @@
       <c r="G3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="30" t="s">
@@ -6706,8 +6881,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="64.5">
-      <c r="A4" s="124"/>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A4" s="128"/>
       <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
@@ -6724,7 +6899,7 @@
       <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -6735,7 +6910,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A5" s="124"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
@@ -6752,7 +6927,7 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -6763,7 +6938,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="196.5" customHeight="1" thickBot="1">
-      <c r="A6" s="124"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -6780,7 +6955,7 @@
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -6791,7 +6966,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="A7" s="124"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
@@ -6818,8 +6993,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A8" s="124"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A8" s="128"/>
       <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
@@ -6839,7 +7014,7 @@
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="84" customHeight="1" thickBot="1">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="128" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -6863,7 +7038,7 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="213.75" customHeight="1">
-      <c r="A10" s="124"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
@@ -6880,7 +7055,7 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="30" t="s">
@@ -6891,7 +7066,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="25" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A11" s="124"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
@@ -6908,14 +7083,14 @@
       <c r="G11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A12" s="124"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A12" s="128"/>
       <c r="B12" s="18" t="s">
         <v>62</v>
       </c>
@@ -6957,7 +7132,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="128" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -6979,7 +7154,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" s="25" customFormat="1" ht="15.6">
-      <c r="A15" s="124"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
@@ -7004,8 +7179,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="16.149999999999999" thickBot="1">
-      <c r="A16" s="124"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A16" s="128"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
@@ -7030,8 +7205,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="146.25">
-      <c r="A17" s="124"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="140.4">
+      <c r="A17" s="128"/>
       <c r="B17" s="18" t="s">
         <v>73</v>
       </c>
@@ -7048,7 +7223,7 @@
       <c r="G17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="30" t="s">
@@ -7058,8 +7233,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="96.75">
-      <c r="A18" s="124"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A18" s="128"/>
       <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
@@ -7076,7 +7251,7 @@
       <c r="G18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="30" t="s">
@@ -7087,7 +7262,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="128" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7110,8 +7285,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="94.15" thickBot="1">
-      <c r="A20" s="124"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="94.2" thickBot="1">
+      <c r="A20" s="128"/>
       <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
@@ -7137,7 +7312,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="207.75" customHeight="1" thickBot="1">
-      <c r="A21" s="124"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="18" t="s">
         <v>85</v>
       </c>
@@ -7162,8 +7337,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="203.45" thickBot="1">
-      <c r="A22" s="124"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="187.8" thickBot="1">
+      <c r="A22" s="128"/>
       <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
@@ -7189,7 +7364,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="128" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -7210,8 +7385,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A24" s="124"/>
+    <row r="24" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A24" s="128"/>
       <c r="B24" s="18" t="s">
         <v>94</v>
       </c>
@@ -7230,8 +7405,8 @@
       <c r="I24" s="28"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A25" s="124"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="31.8" thickBot="1">
+      <c r="A25" s="128"/>
       <c r="B25" s="18" t="s">
         <v>96</v>
       </c>
@@ -7251,7 +7426,7 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1" ht="190.5" customHeight="1" thickBot="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="18" t="s">
         <v>98</v>
       </c>
@@ -7275,7 +7450,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="25" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="128" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -7300,8 +7475,8 @@
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A28" s="124"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A28" s="128"/>
       <c r="B28" s="18" t="s">
         <v>106</v>
       </c>
@@ -7319,7 +7494,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="128" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -7339,7 +7514,7 @@
       <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1" ht="78">
-      <c r="A30" s="124"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="18" t="s">
         <v>111</v>
       </c>
@@ -7357,7 +7532,7 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="128" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -7379,7 +7554,7 @@
       <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A32" s="124"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="18" t="s">
         <v>116</v>
       </c>
@@ -7398,7 +7573,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="109.9" thickBot="1">
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="109.8" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
@@ -7427,7 +7602,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="128" t="s">
         <v>123</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -7448,8 +7623,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A35" s="124"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A35" s="128"/>
       <c r="B35" s="18" t="s">
         <v>126</v>
       </c>
@@ -7468,8 +7643,8 @@
       <c r="I35" s="28"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A36" s="124"/>
+    <row r="36" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A36" s="128"/>
       <c r="B36" s="18" t="s">
         <v>128</v>
       </c>
@@ -7489,7 +7664,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="124" t="s">
+      <c r="A37" s="128" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -7519,7 +7694,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A38" s="124"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="18" t="s">
         <v>133</v>
       </c>
@@ -7562,8 +7737,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="58.9" customHeight="1">
-      <c r="A40" s="124" t="s">
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="58.95" customHeight="1">
+      <c r="A40" s="128" t="s">
         <v>136</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -7585,7 +7760,7 @@
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" s="25" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A41" s="124"/>
+      <c r="A41" s="128"/>
       <c r="B41" s="18" t="s">
         <v>139</v>
       </c>
@@ -7613,7 +7788,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1" thickBot="1">
-      <c r="A42" s="124"/>
+      <c r="A42" s="128"/>
       <c r="B42" s="18" t="s">
         <v>142</v>
       </c>
@@ -7639,7 +7814,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A43" s="124"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="18" t="s">
         <v>146</v>
       </c>
@@ -7656,8 +7831,8 @@
       <c r="I43" s="28"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="109.9" thickBot="1">
-      <c r="A44" s="124"/>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="109.8" thickBot="1">
+      <c r="A44" s="128"/>
       <c r="B44" s="18" t="s">
         <v>148</v>
       </c>
@@ -7681,7 +7856,7 @@
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A45" s="124"/>
+      <c r="A45" s="128"/>
       <c r="B45" s="18" t="s">
         <v>151</v>
       </c>
@@ -7723,17 +7898,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7765,22 +7940,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="C32" zoomScale="189" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="38"/>
-    <col min="3" max="3" width="14.85546875" style="39" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="39"/>
+    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="38"/>
+    <col min="3" max="3" width="14.77734375" style="39" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="39"/>
     <col min="6" max="6" width="73" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" style="14" customWidth="1"/>
     <col min="10" max="10" width="29" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="14"/>
+    <col min="11" max="1024" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1">
@@ -7816,7 +7991,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -7834,13 +8009,15 @@
       <c r="F2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A3" s="129"/>
       <c r="B3" s="44" t="s">
         <v>158</v>
       </c>
@@ -7856,13 +8033,15 @@
       <c r="F3" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A4" s="129"/>
       <c r="B4" s="44" t="s">
         <v>160</v>
       </c>
@@ -7878,13 +8057,15 @@
       <c r="F4" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A5" s="129"/>
       <c r="B5" s="44" t="s">
         <v>162</v>
       </c>
@@ -7900,13 +8081,15 @@
       <c r="F5" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="15.6">
-      <c r="A6" s="125"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="44" t="s">
         <v>164</v>
       </c>
@@ -7922,13 +8105,15 @@
       <c r="F6" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A7" s="129"/>
       <c r="B7" s="44" t="s">
         <v>166</v>
       </c>
@@ -7944,13 +8129,15 @@
       <c r="F7" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="140.44999999999999">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="140.4">
+      <c r="A8" s="129"/>
       <c r="B8" s="44" t="s">
         <v>168</v>
       </c>
@@ -7966,13 +8153,15 @@
       <c r="F8" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A9" s="129"/>
       <c r="B9" s="44" t="s">
         <v>170</v>
       </c>
@@ -7993,8 +8182,8 @@
       <c r="I9" s="30"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A10" s="129"/>
       <c r="B10" s="44" t="s">
         <v>172</v>
       </c>
@@ -8010,13 +8199,15 @@
       <c r="F10" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A11" s="129"/>
       <c r="B11" s="44" t="s">
         <v>174</v>
       </c>
@@ -8032,13 +8223,15 @@
       <c r="F11" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A12" s="129"/>
       <c r="B12" s="44" t="s">
         <v>176</v>
       </c>
@@ -8059,8 +8252,8 @@
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A13" s="129"/>
       <c r="B13" s="44" t="s">
         <v>178</v>
       </c>
@@ -8082,7 +8275,7 @@
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="129" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -8105,8 +8298,8 @@
       <c r="I14" s="30"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="78">
+      <c r="A15" s="129"/>
       <c r="B15" s="44" t="s">
         <v>184</v>
       </c>
@@ -8128,7 +8321,7 @@
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A16" s="125"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="44" t="s">
         <v>187</v>
       </c>
@@ -8147,8 +8340,8 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A17" s="129"/>
       <c r="B17" s="44" t="s">
         <v>189</v>
       </c>
@@ -8169,8 +8362,8 @@
       <c r="I17" s="30"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A18" s="129"/>
       <c r="B18" s="44" t="s">
         <v>192</v>
       </c>
@@ -8191,8 +8384,8 @@
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A19" s="125"/>
+    <row r="19" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A19" s="129"/>
       <c r="B19" s="44" t="s">
         <v>195</v>
       </c>
@@ -8213,8 +8406,8 @@
       <c r="I19" s="30"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A20" s="129"/>
       <c r="B20" s="44" t="s">
         <v>198</v>
       </c>
@@ -8236,7 +8429,7 @@
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="129" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -8254,13 +8447,15 @@
       <c r="F21" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A22" s="125"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A22" s="129"/>
       <c r="B22" s="44" t="s">
         <v>205</v>
       </c>
@@ -8276,13 +8471,15 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>730</v>
+      </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A23" s="125"/>
+    <row r="23" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A23" s="129"/>
       <c r="B23" s="44" t="s">
         <v>208</v>
       </c>
@@ -8304,7 +8501,7 @@
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="129" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -8322,13 +8519,17 @@
       <c r="F24" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>728</v>
+      </c>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A25" s="125"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A25" s="129"/>
       <c r="B25" s="44" t="s">
         <v>214</v>
       </c>
@@ -8344,13 +8545,17 @@
       <c r="F25" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30" t="s">
+        <v>727</v>
+      </c>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A26" s="125"/>
+    <row r="26" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A26" s="129"/>
       <c r="B26" s="44" t="s">
         <v>216</v>
       </c>
@@ -8366,13 +8571,17 @@
       <c r="F26" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30" t="s">
+        <v>729</v>
+      </c>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A27" s="125"/>
+    <row r="27" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A27" s="129"/>
       <c r="B27" s="44" t="s">
         <v>218</v>
       </c>
@@ -8388,13 +8597,15 @@
       <c r="F27" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="109.15">
-      <c r="A28" s="125"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="109.2">
+      <c r="A28" s="129"/>
       <c r="B28" s="44" t="s">
         <v>220</v>
       </c>
@@ -8416,7 +8627,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="129" t="s">
         <v>222</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -8439,8 +8650,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A30" s="125"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A30" s="129"/>
       <c r="B30" s="44" t="s">
         <v>225</v>
       </c>
@@ -8456,13 +8667,15 @@
       <c r="F30" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A31" s="125"/>
+    <row r="31" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A31" s="129"/>
       <c r="B31" s="44" t="s">
         <v>227</v>
       </c>
@@ -8483,8 +8696,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A32" s="125"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A32" s="129"/>
       <c r="B32" s="44" t="s">
         <v>229</v>
       </c>
@@ -8500,13 +8713,15 @@
       <c r="F32" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A33" s="125"/>
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A33" s="129"/>
       <c r="B33" s="44" t="s">
         <v>231</v>
       </c>
@@ -8527,8 +8742,8 @@
       <c r="I33" s="28"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A34" s="125"/>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="62.4">
+      <c r="A34" s="129"/>
       <c r="B34" s="44" t="s">
         <v>234</v>
       </c>
@@ -8549,8 +8764,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A35" s="125"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A35" s="129"/>
       <c r="B35" s="44" t="s">
         <v>236</v>
       </c>
@@ -8572,7 +8787,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="129" t="s">
         <v>238</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -8595,8 +8810,8 @@
       <c r="I36" s="28"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A37" s="125"/>
+    <row r="37" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A37" s="129"/>
       <c r="B37" s="44" t="s">
         <v>242</v>
       </c>
@@ -8617,8 +8832,8 @@
       <c r="I37" s="28"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A38" s="125"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A38" s="129"/>
       <c r="B38" s="44" t="s">
         <v>244</v>
       </c>
@@ -8640,7 +8855,7 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="129" t="s">
         <v>246</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -8663,8 +8878,8 @@
       <c r="I39" s="28"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A40" s="125"/>
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A40" s="129"/>
       <c r="B40" s="44" t="s">
         <v>250</v>
       </c>
@@ -8685,8 +8900,8 @@
       <c r="I40" s="28"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A41" s="125"/>
+    <row r="41" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A41" s="129"/>
       <c r="B41" s="44" t="s">
         <v>252</v>
       </c>
@@ -8707,8 +8922,8 @@
       <c r="I41" s="28"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A42" s="125"/>
+    <row r="42" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A42" s="129"/>
       <c r="B42" s="44" t="s">
         <v>254</v>
       </c>
@@ -8729,8 +8944,8 @@
       <c r="I42" s="28"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A43" s="125"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A43" s="129"/>
       <c r="B43" s="44" t="s">
         <v>256</v>
       </c>
@@ -8751,8 +8966,8 @@
       <c r="I43" s="28"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A44" s="125"/>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A44" s="129"/>
       <c r="B44" s="44" t="s">
         <v>258</v>
       </c>
@@ -8774,7 +8989,7 @@
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="129" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="44" t="s">
@@ -8797,8 +9012,8 @@
       <c r="I45" s="28"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A46" s="125"/>
+    <row r="46" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A46" s="129"/>
       <c r="B46" s="44" t="s">
         <v>264</v>
       </c>
@@ -8819,8 +9034,8 @@
       <c r="I46" s="28"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A47" s="125"/>
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A47" s="129"/>
       <c r="B47" s="44" t="s">
         <v>266</v>
       </c>
@@ -8841,8 +9056,8 @@
       <c r="I47" s="28"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A48" s="125"/>
+    <row r="48" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A48" s="129"/>
       <c r="B48" s="44" t="s">
         <v>268</v>
       </c>
@@ -8863,8 +9078,8 @@
       <c r="I48" s="28"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A49" s="125"/>
+    <row r="49" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A49" s="129"/>
       <c r="B49" s="44" t="s">
         <v>270</v>
       </c>
@@ -8885,8 +9100,8 @@
       <c r="I49" s="28"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A50" s="125"/>
+    <row r="50" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A50" s="129"/>
       <c r="B50" s="44" t="s">
         <v>273</v>
       </c>
@@ -8907,8 +9122,8 @@
       <c r="I50" s="28"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A51" s="125"/>
+    <row r="51" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A51" s="129"/>
       <c r="B51" s="44" t="s">
         <v>276</v>
       </c>
@@ -8930,7 +9145,7 @@
       <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" s="25" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="129" t="s">
         <v>279</v>
       </c>
       <c r="B52" s="44" t="s">
@@ -8953,8 +9168,8 @@
       <c r="I52" s="28"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A53" s="125"/>
+    <row r="53" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A53" s="129"/>
       <c r="B53" s="44" t="s">
         <v>283</v>
       </c>
@@ -8975,8 +9190,8 @@
       <c r="I53" s="28"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A54" s="125"/>
+    <row r="54" spans="1:10" s="25" customFormat="1" ht="31.2">
+      <c r="A54" s="129"/>
       <c r="B54" s="44" t="s">
         <v>285</v>
       </c>
@@ -8992,13 +9207,15 @@
       <c r="F54" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
       <c r="J54" s="32"/>
     </row>
     <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="125" t="s">
+      <c r="A55" s="129" t="s">
         <v>287</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -9021,8 +9238,8 @@
       <c r="I55" s="28"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A56" s="125"/>
+    <row r="56" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A56" s="129"/>
       <c r="B56" s="44" t="s">
         <v>292</v>
       </c>
@@ -9038,13 +9255,15 @@
       <c r="F56" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="G56" s="28"/>
+      <c r="G56" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A57" s="125"/>
+    <row r="57" spans="1:10" s="25" customFormat="1" ht="46.8">
+      <c r="A57" s="129"/>
       <c r="B57" s="44" t="s">
         <v>294</v>
       </c>
@@ -9060,13 +9279,15 @@
       <c r="F57" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="G57" s="28"/>
+      <c r="G57" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A58" s="125"/>
+    <row r="58" spans="1:10" s="25" customFormat="1" ht="78">
+      <c r="A58" s="129"/>
       <c r="B58" s="44" t="s">
         <v>296</v>
       </c>
@@ -9080,23 +9301,29 @@
       <c r="F58" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="G58" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>712</v>
+      </c>
+      <c r="I58" s="120" t="s">
+        <v>713</v>
+      </c>
       <c r="J58" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9117,22 +9344,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
+    <col min="1" max="1" width="40.77734375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="59"/>
     <col min="6" max="6" width="70" style="25" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="7" max="7" width="20.44140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.77734375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -9190,7 +9417,7 @@
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="129" t="s">
         <v>301</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -9213,8 +9440,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.9">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="46.8">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>304</v>
       </c>
@@ -9235,8 +9462,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="46.8">
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>306</v>
       </c>
@@ -9257,8 +9484,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="62.45">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="62.4">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>308</v>
       </c>
@@ -9280,7 +9507,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="129" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -9303,8 +9530,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="109.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="109.2">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>313</v>
       </c>
@@ -9325,8 +9552,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="62.45">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="62.4">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>315</v>
       </c>
@@ -9345,8 +9572,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="31.2">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>317</v>
       </c>
@@ -9368,7 +9595,7 @@
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="129" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -9391,8 +9618,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="46.9">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" ht="46.8">
+      <c r="A12" s="129"/>
       <c r="B12" s="62" t="s">
         <v>323</v>
       </c>
@@ -9413,8 +9640,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="62.45">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="62.4">
+      <c r="A13" s="129"/>
       <c r="B13" s="62" t="s">
         <v>325</v>
       </c>
@@ -9435,8 +9662,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="31.15">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="31.2">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>327</v>
       </c>
@@ -9457,8 +9684,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="93.6">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="78">
+      <c r="A15" s="129"/>
       <c r="B15" s="62" t="s">
         <v>329</v>
       </c>
@@ -9480,7 +9707,7 @@
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="129" t="s">
         <v>331</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -9503,8 +9730,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="31.15">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="31.2">
+      <c r="A17" s="129"/>
       <c r="B17" s="62" t="s">
         <v>335</v>
       </c>
@@ -9523,8 +9750,8 @@
       <c r="I17" s="28"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="46.9">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" ht="46.8">
+      <c r="A18" s="129"/>
       <c r="B18" s="62" t="s">
         <v>337</v>
       </c>
@@ -9544,7 +9771,7 @@
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="129" t="s">
         <v>339</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -9567,8 +9794,8 @@
       <c r="I19" s="28"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="46.9">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:10" ht="46.8">
+      <c r="A20" s="129"/>
       <c r="B20" s="62" t="s">
         <v>343</v>
       </c>
@@ -9589,7 +9816,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="46.9">
+    <row r="21" spans="1:10" ht="46.8">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -9647,22 +9874,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="68.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="38.44140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="68.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="76" customFormat="1">
@@ -9698,7 +9925,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="77" t="s">
@@ -9714,13 +9941,15 @@
       <c r="F2" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="46.8">
+      <c r="A3" s="129"/>
       <c r="B3" s="77" t="s">
         <v>351</v>
       </c>
@@ -9740,7 +9969,7 @@
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="93.6">
-      <c r="A4" s="125"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="77" t="s">
         <v>353</v>
       </c>
@@ -9760,7 +9989,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="125"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="77" t="s">
         <v>355</v>
       </c>
@@ -9781,8 +10010,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="46.8">
+      <c r="A6" s="129"/>
       <c r="B6" s="77" t="s">
         <v>356</v>
       </c>
@@ -9802,7 +10031,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="129" t="s">
         <v>358</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -9823,8 +10052,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="46.8">
+      <c r="A8" s="129"/>
       <c r="B8" s="77" t="s">
         <v>361</v>
       </c>
@@ -9844,7 +10073,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="129" t="s">
         <v>363</v>
       </c>
       <c r="B9" s="77" t="s">
@@ -9865,8 +10094,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="62.4">
+      <c r="A10" s="129"/>
       <c r="B10" s="77" t="s">
         <v>366</v>
       </c>
@@ -9885,8 +10114,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="62.45">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="62.4">
+      <c r="A11" s="129"/>
       <c r="B11" s="77" t="s">
         <v>368</v>
       </c>
@@ -9930,21 +10159,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A23" zoomScale="136" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="60.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="60.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="25" customWidth="1"/>
     <col min="10" max="10" width="29" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -9980,7 +10209,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -9996,13 +10225,15 @@
       <c r="F2" s="79" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="93.6">
-      <c r="A3" s="125"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>373</v>
       </c>
@@ -10022,7 +10253,7 @@
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="78">
-      <c r="A4" s="125"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>375</v>
       </c>
@@ -10041,8 +10272,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="109.15">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="109.2">
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>377</v>
       </c>
@@ -10056,13 +10287,15 @@
       <c r="F5" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="46.8">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>379</v>
       </c>
@@ -10082,7 +10315,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="129" t="s">
         <v>381</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -10103,8 +10336,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="31.2">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>383</v>
       </c>
@@ -10123,8 +10356,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="31.15">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="31.2">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>277</v>
       </c>
@@ -10143,8 +10376,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="62.4">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>386</v>
       </c>
@@ -10163,8 +10396,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="46.9">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="46.8">
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>190</v>
       </c>
@@ -10183,8 +10416,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="62.45">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" ht="62.4">
+      <c r="A12" s="129"/>
       <c r="B12" s="62" t="s">
         <v>193</v>
       </c>
@@ -10203,8 +10436,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="62.45">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="62.4">
+      <c r="A13" s="129"/>
       <c r="B13" s="62" t="s">
         <v>390</v>
       </c>
@@ -10223,8 +10456,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="62.45">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="62.4">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>196</v>
       </c>
@@ -10244,7 +10477,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="129" t="s">
         <v>393</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -10265,8 +10498,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="78">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" ht="62.4">
+      <c r="A16" s="129"/>
       <c r="B16" s="62" t="s">
         <v>396</v>
       </c>
@@ -10285,8 +10518,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="62.45">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="62.4">
+      <c r="A17" s="129"/>
       <c r="B17" s="62" t="s">
         <v>398</v>
       </c>
@@ -10306,7 +10539,7 @@
       <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" ht="78">
-      <c r="A18" s="125"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="62" t="s">
         <v>400</v>
       </c>
@@ -10325,8 +10558,8 @@
       <c r="I18" s="28"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="93.6">
-      <c r="A19" s="125"/>
+    <row r="19" spans="1:10" ht="78">
+      <c r="A19" s="129"/>
       <c r="B19" s="62" t="s">
         <v>402</v>
       </c>
@@ -10345,8 +10578,8 @@
       <c r="I19" s="28"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="62.45">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:10" ht="62.4">
+      <c r="A20" s="129"/>
       <c r="B20" s="62" t="s">
         <v>404</v>
       </c>
@@ -10366,7 +10599,7 @@
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" ht="78">
-      <c r="A21" s="125"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="62" t="s">
         <v>406</v>
       </c>
@@ -10386,7 +10619,7 @@
       <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10" ht="78">
-      <c r="A22" s="125"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="62" t="s">
         <v>408</v>
       </c>
@@ -10405,8 +10638,8 @@
       <c r="I22" s="28"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="31.15">
-      <c r="A23" s="125"/>
+    <row r="23" spans="1:10" ht="31.2">
+      <c r="A23" s="129"/>
       <c r="B23" s="62" t="s">
         <v>410</v>
       </c>
@@ -10425,8 +10658,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="46.9">
-      <c r="A24" s="125"/>
+    <row r="24" spans="1:10" ht="46.8">
+      <c r="A24" s="129"/>
       <c r="B24" s="62" t="s">
         <v>412</v>
       </c>
@@ -10446,7 +10679,7 @@
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="129" t="s">
         <v>414</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -10462,13 +10695,15 @@
       <c r="F25" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="31.15">
-      <c r="A26" s="125"/>
+    <row r="26" spans="1:10" ht="31.2">
+      <c r="A26" s="129"/>
       <c r="B26" s="62" t="s">
         <v>417</v>
       </c>
@@ -10487,8 +10722,8 @@
       <c r="I26" s="28"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="31.15">
-      <c r="A27" s="125"/>
+    <row r="27" spans="1:10" ht="31.2">
+      <c r="A27" s="129"/>
       <c r="B27" s="62" t="s">
         <v>419</v>
       </c>
@@ -10502,13 +10737,15 @@
       <c r="F27" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="129" t="s">
         <v>421</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -10529,8 +10766,8 @@
       <c r="I28" s="28"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="62.45">
-      <c r="A29" s="125"/>
+    <row r="29" spans="1:10" ht="62.4">
+      <c r="A29" s="129"/>
       <c r="B29" s="62" t="s">
         <v>424</v>
       </c>
@@ -10549,8 +10786,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="46.9">
-      <c r="A30" s="125"/>
+    <row r="30" spans="1:10" ht="46.8">
+      <c r="A30" s="129"/>
       <c r="B30" s="62" t="s">
         <v>426</v>
       </c>
@@ -10569,8 +10806,8 @@
       <c r="I30" s="28"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" ht="46.9">
-      <c r="A31" s="125"/>
+    <row r="31" spans="1:10" ht="46.8">
+      <c r="A31" s="129"/>
       <c r="B31" s="62" t="s">
         <v>428</v>
       </c>
@@ -10616,22 +10853,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A5" zoomScale="132" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="97.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="18" style="25" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="35.33203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="97.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -10667,7 +10904,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>430</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -10683,13 +10920,19 @@
       <c r="F2" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>715</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="31.15">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="31.2">
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>433</v>
       </c>
@@ -10703,13 +10946,15 @@
       <c r="F3" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.9">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="46.8">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>206</v>
       </c>
@@ -10729,7 +10974,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="129" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -10750,8 +10995,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="46.8">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>439</v>
       </c>
@@ -10765,13 +11010,15 @@
       <c r="F6" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="31.2">
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>441</v>
       </c>
@@ -10790,8 +11037,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="46.8">
+      <c r="A8" s="129"/>
       <c r="B8" s="62" t="s">
         <v>443</v>
       </c>
@@ -10810,8 +11057,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="46.9">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="93.6">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>445</v>
       </c>
@@ -10825,13 +11072,19 @@
       <c r="F9" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>717</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="46.9">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="46.8">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>447</v>
       </c>
@@ -10845,13 +11098,17 @@
       <c r="F10" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>716</v>
+      </c>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="31.2">
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>449</v>
       </c>
@@ -10870,8 +11127,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="31.15">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" ht="31.2">
+      <c r="A12" s="129"/>
       <c r="B12" s="62" t="s">
         <v>451</v>
       </c>
@@ -10891,7 +11148,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="129" t="s">
         <v>453</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -10907,13 +11164,15 @@
       <c r="F13" s="80" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="46.8">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>456</v>
       </c>
@@ -10927,13 +11186,15 @@
       <c r="F14" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="31.2">
+      <c r="A15" s="129"/>
       <c r="B15" s="62" t="s">
         <v>458</v>
       </c>
@@ -10947,13 +11208,17 @@
       <c r="F15" s="80" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>732</v>
+      </c>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="129" t="s">
         <v>460</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -10969,13 +11234,17 @@
       <c r="F16" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="I16" s="30" t="s">
+        <v>718</v>
+      </c>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="46.9">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="46.8">
+      <c r="A17" s="129"/>
       <c r="B17" s="62" t="s">
         <v>463</v>
       </c>
@@ -11020,22 +11289,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="E8" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="80.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.77734375" style="59"/>
+    <col min="6" max="6" width="80.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="25" customWidth="1"/>
     <col min="8" max="8" width="31" style="25" customWidth="1"/>
     <col min="9" max="9" width="24" style="25" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="10" max="10" width="35.109375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="87" customFormat="1">
@@ -11071,7 +11340,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>465</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11087,13 +11356,15 @@
       <c r="F2" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="G2" s="92"/>
+      <c r="G2" s="92" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="92"/>
       <c r="I2" s="92"/>
       <c r="J2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="46.8">
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>333</v>
       </c>
@@ -11107,13 +11378,15 @@
       <c r="F3" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="62.45">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="62.4">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>468</v>
       </c>
@@ -11127,13 +11400,15 @@
       <c r="F4" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="46.8">
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>470</v>
       </c>
@@ -11147,13 +11422,15 @@
       <c r="F5" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="129" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -11169,13 +11446,15 @@
       <c r="F6" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="46.9">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="46.8">
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>474</v>
       </c>
@@ -11195,7 +11474,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="129" t="s">
         <v>476</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -11217,7 +11496,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="125"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>479</v>
       </c>
@@ -11238,8 +11517,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="31.2">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>481</v>
       </c>
@@ -11258,8 +11537,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="62.45">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="62.4">
+      <c r="A11" s="129"/>
       <c r="B11" s="62" t="s">
         <v>483</v>
       </c>
@@ -11271,13 +11550,15 @@
       <c r="F11" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="126" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="129" t="s">
         <v>485</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -11293,13 +11574,15 @@
       <c r="F12" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="127" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="46.9">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="46.8">
+      <c r="A13" s="129"/>
       <c r="B13" s="62" t="s">
         <v>488</v>
       </c>
@@ -11313,13 +11596,15 @@
       <c r="F13" s="80" t="s">
         <v>489</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="46.8">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>490</v>
       </c>
@@ -11333,7 +11618,9 @@
       <c r="F14" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="35"/>
+      <c r="G14" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="37"/>
@@ -11364,21 +11651,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="157" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="1" max="1" width="30.6640625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="25"/>
+    <col min="3" max="5" width="8.77734375" style="59"/>
     <col min="6" max="6" width="93" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="7" max="7" width="12.44140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
@@ -11414,7 +11701,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="129" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11430,13 +11717,15 @@
       <c r="F2" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="46.8">
+      <c r="A3" s="129"/>
       <c r="B3" s="62" t="s">
         <v>495</v>
       </c>
@@ -11455,8 +11744,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="31.2">
+      <c r="A4" s="129"/>
       <c r="B4" s="62" t="s">
         <v>497</v>
       </c>
@@ -11475,8 +11764,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="31.15">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="46.8">
+      <c r="A5" s="129"/>
       <c r="B5" s="62" t="s">
         <v>499</v>
       </c>
@@ -11490,13 +11779,17 @@
       <c r="F5" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30" t="s">
+        <v>731</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="31.15">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="31.2">
+      <c r="A6" s="129"/>
       <c r="B6" s="62" t="s">
         <v>501</v>
       </c>
@@ -11516,7 +11809,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="125"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="62" t="s">
         <v>503</v>
       </c>
@@ -11530,13 +11823,15 @@
       <c r="F7" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="129" t="s">
         <v>505</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -11552,13 +11847,15 @@
       <c r="F8" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="31.15">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="31.2">
+      <c r="A9" s="129"/>
       <c r="B9" s="62" t="s">
         <v>508</v>
       </c>
@@ -11577,8 +11874,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="31.2">
+      <c r="A10" s="129"/>
       <c r="B10" s="62" t="s">
         <v>510</v>
       </c>
@@ -11598,7 +11895,7 @@
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="129" t="s">
         <v>512</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -11614,13 +11911,15 @@
       <c r="F11" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="125"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="62" t="s">
         <v>515</v>
       </c>
@@ -11639,8 +11938,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="46.9">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="46.8">
+      <c r="A13" s="129"/>
       <c r="B13" s="62" t="s">
         <v>517</v>
       </c>
@@ -11659,8 +11958,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="46.8">
+      <c r="A14" s="129"/>
       <c r="B14" s="62" t="s">
         <v>519</v>
       </c>
@@ -11679,8 +11978,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="31.2">
+      <c r="A15" s="129"/>
       <c r="B15" s="62" t="s">
         <v>521</v>
       </c>
@@ -11694,13 +11993,15 @@
       <c r="F15" s="80" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="31.15">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" ht="31.2">
+      <c r="A16" s="129"/>
       <c r="B16" s="62" t="s">
         <v>523</v>
       </c>
@@ -11719,8 +12020,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="46.9">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="109.2">
+      <c r="A17" s="129"/>
       <c r="B17" s="62" t="s">
         <v>525</v>
       </c>
@@ -11734,13 +12035,19 @@
       <c r="F17" s="80" t="s">
         <v>526</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>720</v>
+      </c>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="31.15">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" ht="31.2">
+      <c r="A18" s="129"/>
       <c r="B18" s="62" t="s">
         <v>527</v>
       </c>

--- a/Deliverables/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1190497_isep_ipp_pt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide.clemente/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D87AF82-4FB9-46F4-80F5-5C9BEE7EF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB44A6D-4231-F34F-A602-F9F1462B532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="API and Web Service" sheetId="14" r:id="rId14"/>
     <sheet name="Configuration" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,8 +52,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="868">
   <si>
     <t>Security Category</t>
   </si>
@@ -2227,12 +2249,505 @@
   <si>
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
   </si>
+  <si>
+    <t>Repo</t>
+  </si>
+  <si>
+    <t>Mention the dotnet secrets to have the database connection for example</t>
+  </si>
+  <si>
+    <t>SecureDataEncryptionHelper,SecureDataEncryptorConvertor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PasswordEncryptor and  SecureDataEncryptionHelper</t>
+  </si>
+  <si>
+    <t>SecureDataEncryptionHelper and SecureDataEncryptorConvertor</t>
+  </si>
+  <si>
+    <t>Used to store sensitive data safely by encrypting it with the Aes cipher before storing it in the database</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/.github/workflows/codeSecurityCheck.yml</t>
+  </si>
+  <si>
+    <t>We have a github action to automatically detect common vulnerability and coding errors on our client app code and server side code. This action runs when a new pull request to the master branch is created and every Monday and Friday at 1am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github Actions, in particular the codeql-action </t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/.github/workflows/build.yml</t>
+  </si>
+  <si>
+    <t>We have a pipeline to build, test and lint the client side and server side code. Runs when a pull request is made to the master branch. We will need another pipeline to do deployment when the pull request is closed</t>
+  </si>
+  <si>
+    <t>Github Action</t>
+  </si>
+  <si>
+    <t>128 bit hash https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
+  </si>
+  <si>
+    <t>Non-valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only generated numbers are guids </t>
+  </si>
+  <si>
+    <t>Anti denial of service - request timeout filter based on ips</t>
+  </si>
+  <si>
+    <t>WS-Security is applyable to SOAP and not REST</t>
+  </si>
+  <si>
+    <t>The file upload by a user can at most have  5500000 bytes (5.5 megabytes). The max size is configurable and can be updated</t>
+  </si>
+  <si>
+    <t>The type of files uploaded by the user is restricted to only be of type mp3, m4A or wav</t>
+  </si>
+  <si>
+    <t>The path of the file is constructed within the method and the metadata is not directly used. This path is constructed with information not disponibilized to the user (for example userId)</t>
+  </si>
+  <si>
+    <t>Before storing the file in the server we execute a antivirus scanner (Clam AV) to ensure that the file does not have any virus. The file is only stored if Clam AV indicates the file is clean</t>
+  </si>
+  <si>
+    <t>File name is not directly used and is sanitized before the utilization with method IsValidFilename (validates the size, checks if there are invalid chars). The final file path is also modified to include a unique identifier generated in the CreateSong and not available for the user</t>
+  </si>
+  <si>
+    <t>File name is not directly used and is sanitized before the utilization with method IsValidFilename (validates the size, checks if there are invalid chars). The final file path is also modified to include a unique identifier generated in the CreateSong and not available for the user. On the download endpoint file path is not provided in the query param but it's retrieved from the database (path is encrypted in the database with the SecureDataEncryptionHelper)</t>
+  </si>
+  <si>
+    <t>We have a pipeline that  uses Sonarcloud to do  static code analysis where we could detect the use of dlls and libraries vulnerable to this type of issue. Additionaly we can use dependabot to also track problems like this</t>
+  </si>
+  <si>
+    <t>In the Program the file server middleware is configured to serve only audio files with the specified extensions (MP3, WAV, and M4A and Txt, with txt being used to confirm that Clam AV is working)</t>
+  </si>
+  <si>
+    <t>In the Program the file server middleware is configured to serve only audio files with the specified extensions (MP3, WAV, and M4A and txt, with txt onlt being specified to ensure that the Clam AV works properly)</t>
+  </si>
+  <si>
+    <t>Files are not directly stored within the web root folder and only authenticated users can access and upload files</t>
+  </si>
+  <si>
+    <t>To ensure this does not happen we validate the filename to ensure it does not contain invalid characters or exceed length limits, we replace  any invalid characters in the filename with hyphens to prevent path traversal and other injection attacks and we scan the uploaded file for viruses, ensuring the integrity of the files being saved.</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/tree/develop/Backend/StreamingPlatform/Dtos/Contract</t>
+  </si>
+  <si>
+    <t>We have DTO classes to map the objects provided in the requests to model objects and ensure they are properly validated</t>
+  </si>
+  <si>
+    <t>Aspnet core</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/tree/develop/Backend/StreamingPlatform/Models</t>
+  </si>
+  <si>
+    <t>We make use of the model binding annotations from Aspnet core to enforce validations rules in our model classes. This validations can be the type of characters or number of characters acepted on a specific parameter.</t>
+  </si>
+  <si>
+    <t>We have a rate limiter based on the IP or user id. This rate limiter blocks user from executing requests on a threshold above what is acepted by the application. Furthermore, information is logged on the middleware to ensure that admins can check which user made more users than expected</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Controllers/AuthController.cs</t>
+  </si>
+  <si>
+    <t>When sensitive information is returned then we do not allow users to cache information. This is done with the ResponseCache directive by setting no store as true which indicates to the client that the response should not be cached</t>
+  </si>
+  <si>
+    <t>Aspnet Core</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Program.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Controllers/SongController.cs</t>
+  </si>
+  <si>
+    <t>For example for the SongController requests 415 Unsupported Media is returned when the user uploads a file that is not a mp3, m4a or wav file.</t>
+  </si>
+  <si>
+    <t>We make use of the model binding annotations from Aspnet core to enforce validations rules in our model classes. This validations can be the type of characters or number of characters acepted on a specific parameter. This was done for example for the Plan Name and User Name</t>
+  </si>
+  <si>
+    <t>We do not leverage SMTP or IMAP in our application for now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InputSanitizationMiddleware.cs </t>
+  </si>
+  <si>
+    <t>We have a middleware that was added to the our application builder that sanitizes the content provided to the user in the body to ensure. This middleware makes use of a sanitization library available for Aspnet Core.</t>
+  </si>
+  <si>
+    <t>Aspnet core and Ganss.Xss</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Services/SongService.cs</t>
+  </si>
+  <si>
+    <t>The code of the class provided validates on the CreateSong method that the uploaded file (music) for invalid characters and length using IsValidFilename. This helps prevent basic path traversal attacks where an attacker might try to inject malicious characters into the filename to access unintended locations on the server.</t>
+  </si>
+  <si>
+    <t>Dotnet secrets</t>
+  </si>
+  <si>
+    <t>Use of Dotnet secrets to store secrets like the sensitive data encryption key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secure DataEncryptionHelper uses Aes cipher with mode CBC and PCK#7 padding</t>
+  </si>
+  <si>
+    <t>Currently we do not have a functionality for users to upload SVG. We only allow users to upload audio files with the specified extensions (MP3, WAV, and M4A)  and Txt, with txt being used to confirm that Clam AV is working</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Dao/Repositories/GenericRepository.cs</t>
+  </si>
+  <si>
+    <t>For Database Queries we are using Entity Framework to make sure that queries are protected from database injection attacks.  This leverages LINQ and this abstraction generates the SQL for us and deals with escaping and parametize the inputs</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>We do not allow the server to serve zip files and we also do not allow users to upload this type of files</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L36</t>
+  </si>
+  <si>
+    <t>Passwords are enforced by validation to have a minimum 12 characters of lenght</t>
+  </si>
+  <si>
+    <t>Passwords are allowed a maximum of 128 characters long</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L40</t>
+  </si>
+  <si>
+    <t>System.ComponentModel.DataAnnotations</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L47</t>
+  </si>
+  <si>
+    <t>With the help of regex, when receiving the password, multiple spaces are replaced with just one</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Controllers/AuthController.cs#L72</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Controllers/AuthController.cs#L90</t>
+  </si>
+  <si>
+    <t>Password are checked agains a dataset of breached passwords with the help of the haveibeenpwned api. https://haveibeenpwned.com/Passwords. Details on how we keep the password anonym can be checked in the haveibeenpwned api documentation.</t>
+  </si>
+  <si>
+    <t>Microsoft Identity Ensures all the security of the passwords</t>
+  </si>
+  <si>
+    <t>No default credentials are used</t>
+  </si>
+  <si>
+    <t>Identity uses secure password hashing techniques to store user passwords. It employs industry-standard algorithms like PBKDF2 with HMAC-SHA256.</t>
+  </si>
+  <si>
+    <t>All Unique Ids are generated using the industry standard UUIDv4</t>
+  </si>
+  <si>
+    <t>System is not world wide distributted</t>
+  </si>
+  <si>
+    <t>If an unexpected exception is thrown, a generic error message will be sent</t>
+  </si>
+  <si>
+    <t>All susceptible code is surrounded by a try catch block</t>
+  </si>
+  <si>
+    <t>No sensitive information is logged</t>
+  </si>
+  <si>
+    <t>The application logs both successfull and failed attempts to perform actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All relevant information for a review of the past events is logged </t>
+  </si>
+  <si>
+    <t>Github dependabot performs a check on all dependencies to allert for possible vulnerabillities.</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/16471a3c7012c1168a7479fbef5323acc7132191</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/16471a3c7012c1168a7479fbef5323acc7132191#diff-c8d0d0461876ffe23df30ee785a5e8e2be3b098b08ddf32d36b6ae59bc0147e9</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality). Additionaly,  these cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks.</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality).</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. These cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks.</t>
+  </si>
+  <si>
+    <t>In  the AuthController.cs class we have a login method where a new JWT token is generated for the user and the expiration date of this token is set. This token is sent in the cookies, with the cookies having the flags Secure and HttpOnly in order to ensure that they are not read and manipulated by the client</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Services/AuthService.cs</t>
+  </si>
+  <si>
+    <t>In the AuthService.cs, a new JWT Token is generated with JWT Security Token library with a key of 256 bits and the user claims and this ensure that the JWT session tokens possess at least 64 bits of entropy</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/5f694f46540edc6d70b22ebdb39a2419a873ce86</t>
+  </si>
+  <si>
+    <t>In the AuthController login method cookies use the __Host- prefix, which increases the security of your session tokens by ensuring they are only sent to the host that initially set them</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Controllers/AuthController.cs</t>
+  </si>
+  <si>
+    <t>In the logout method the server invalidates the JWT access token and the expiration date token by setting them to empty string and setting the expiration date to the previous day. The cookie is sent with the Http Only and Secure flags to ensure that it cannot be tempered by an attacker.</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Services/AuthService.cs</t>
+  </si>
+  <si>
+    <t>In the AuthService.cs GenerateJwtToken method the JWT token is generated by using te HMAC-SHA256 algorithm for signing, which is an approved cryptographic algorithm.</t>
+  </si>
+  <si>
+    <t>For Authentication on the API, in the AuthSerive a JWT token is generated based on the user name and user claims. This token is then on the AuthController used to set the cookies with the autorization token that is sent to all requests in order to ensure that the user has the necessary permissions for each functionality</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Services/SongService.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Controllers/SongController.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Program.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/master/.github/workflows/sonarcloud.yml</t>
+  </si>
+  <si>
+    <t>ClamAV</t>
+  </si>
+  <si>
+    <t>Sonarcloud</t>
+  </si>
+  <si>
+    <t>Dvelopment Checklist
+-Input Validation
+	Validate and sanitize all user inputs.
+-Authentication and Authorization
+	Use strong passwords.
+-Data Protection
+	Encrypt sensitive data in transit and at rest.
+-Error Handling
+	Avoid exposing detailed error messages.
+	Log errors securely.
+-Security Configuration
+	Disable unnecessary services.
+	Apply the principle of least privilege.
+	Regularly update dependencies.
+-Access Control
+	Define and enforce user roles and permissions.
+-Secure Communication
+	Use HTTPS for all communications.
+-Security Testing
+	Conduct regular security testing and integrate it into the CI/CD pipeline.
+-Secure Coding Practices
+	Follow OWASP Top Ten recommendations. (https://owasp.org/www-project-top-ten/)
+-General Policy
+	Integrate security into every phase of development.
+	Security is a shared responsibility.</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.StaticFiles and Microsoft.Extensions.FileProviders;</t>
+  </si>
+  <si>
+    <t>Aspnet core System.ComponentModel.DataAnnotations</t>
+  </si>
+  <si>
+    <t>Aspnet core and System.ComponentModel.DataAnnotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System.IdentityModel.Tokens.Jwt; Microsoft.IdentityModel.Tokens;System.Security.Claims; System.Security.Cryptography ; Microsoft.AspNetCore.Identity and icrosoft.IdentityModel.JsonWebTokens.JwtRegisteredClaimNames;</t>
+  </si>
+  <si>
+    <t>System.Security.Cryptography;</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/79ca3918aaf433cedabd9915a65306fa9aeea087</t>
+  </si>
+  <si>
+    <t>In the login.component.html and register.component.html on the password input fields there is a button that allows a user to temporarily unmask the field in order to see the password value. The password is only unmasked while the user is pressing the button</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/e799d99e08f390ba979999e297e23fe05ff57c07</t>
+  </si>
+  <si>
+    <t>In the login.component.html and register.component.html  we provide the autocomplete attribute for the username and password which will allow password managers to identify these elements.  Password can also be pasted as this is the default behaviour on a input field and has not be removed</t>
+  </si>
+  <si>
+    <t>All sensitive endpoint are protected with authorization using JWT tokens aswell as role enforcement</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.Authorization
+Microsoft.AspNetCore.Identity</t>
+  </si>
+  <si>
+    <t>Endpoints related to changing user data are protected with authorization</t>
+  </si>
+  <si>
+    <t>Users are only given the required minimal roles to perform the actions that diferentiate them</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/5167c594e2ab07479cea282b6e39f668e44300a4/Backend/StreamingPlatform/Controllers/AuthController.cs#L67</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/6ba424d1aa0c25e723023cd012d7318ea841af34/Backend/StreamingPlatform/Controllers/SongController.cs#L22</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Client/streaming-service/package/src/app/pages/extra/password-stength-meter/password-strength.component.ts</t>
+  </si>
+  <si>
+    <t>We develop a component that it´s used in the Register component that allows an user to see what is the password strenght. This password strength is based in the rules applied by the system : minimum 12 chars, at least an uppercase letter, a lowercase letter, a special character and a number</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/master/.github/workflows/docker-image.yml</t>
+  </si>
+  <si>
+    <t>In the github action used to push the docker image to the docker hub we are generating the SBOM with the image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> docker/build-push-action@v4</t>
+  </si>
+  <si>
+    <t>Aspnet Core Middlewares/Services</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/2f93db53f2146c83633f1fbbe5a40d61ba90f2d5/Backend/StreamingPlatform/Controllers/Middleware/ExceptionHandlerMiddleware.cs#L10</t>
+  </si>
+  <si>
+    <t>RequestDelegate</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/2f93db53f2146c83633f1fbbe5a40d61ba90f2d5/Backend/StreamingPlatform/Controllers/AuthController.cs#L37</t>
+  </si>
+  <si>
+    <t>Microsoft.Extensions.Logging</t>
+  </si>
+  <si>
+    <t>The built-in json library for dotnet, provides features to handle json data securely, such as input validation, type safety and escaping.</t>
+  </si>
+  <si>
+    <t>System.Text.Json</t>
+  </si>
+  <si>
+    <t>In order to perform account modifications, for example, changing password, the user must introduce again his old password, as well as having a valid session by means of a jwt token</t>
+  </si>
+  <si>
+    <t>Microsoft Identity</t>
+  </si>
+  <si>
+    <t>We are only using approved cryptographic algorithms given by the dotnet framework, such as HMAC-SHA256</t>
+  </si>
+  <si>
+    <t>We did not create any default accounts</t>
+  </si>
+  <si>
+    <t>The business logic flow is squencial as always the same for one user</t>
+  </si>
+  <si>
+    <t>The application processes logic at a normal rate</t>
+  </si>
+  <si>
+    <t>One user cannot abuse the system due to request timeouts based on ips</t>
+  </si>
+  <si>
+    <t>The application does not have any flow where the gap from checking to using the resource is relevant for this attacks. Data retrieved from the database, our only source of truth, is right away returned.</t>
+  </si>
+  <si>
+    <t>Most of these measures are already implemented in the dotnet framework at the time of compiling</t>
+  </si>
+  <si>
+    <t>Most if not all our external components come from long lived and trusted repositories, trusted by real big compannies</t>
+  </si>
+  <si>
+    <t>When pushed to product, the server in run in a production environment, disabling any features only present in development environment</t>
+  </si>
+  <si>
+    <t>We do not introduce any headers that might compromise detailed system information</t>
+  </si>
+  <si>
+    <t>Retrieved header from server: application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>The pipeline builds, analyses and, if all goes right, publishes a docker image that will also be analysed.</t>
+  </si>
+  <si>
+    <t>In the Program.cs is defined from lines 168 to 176 a middleware that injects the nosniff header in all the responses provided by the server</t>
+  </si>
+  <si>
+    <t>In the Program.cs is defined from lines 168 to 176 the HST policies added to the middleware with include subdomains as true and max age of 182 days</t>
+  </si>
+  <si>
+    <t>WebApplicationBuilder services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft.AspNetCore.Mvc.ConsumeAttribute</t>
+  </si>
+  <si>
+    <t>We make use of the Consume annotation from AspnetNetCore to indicate the content-type expected by the endpoint</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/6d488201fdc0273704b83d64895ab76a7fa03975</t>
+  </si>
+  <si>
+    <t>In the Program.cs file method AddCors Policy (lines 169 to 184) we define the Cors Policy for the application restricting the requests to requests with origin from our frontend app. This is then applied to the application in line 130</t>
+  </si>
+  <si>
+    <t>Aspnet Core Application Builder and Aspnet Core Services</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/aspnet/core/security/authentication/identity-configuration?view=aspnetcore-8.0</t>
+  </si>
+  <si>
+    <t>We are using the default configuration from the Password Hasher which is 100000 iterations</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality). Additionaly,  these cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks. Since the token is send as an HTTP only Cookie is never exposed in the url parameters</t>
+  </si>
+  <si>
+    <t>The backend service uses HTTPs</t>
+  </si>
+  <si>
+    <t>The backend service uses HTTPs which in turn uses the recommended version of tls</t>
+  </si>
+  <si>
+    <t>ASPT NET CORE</t>
+  </si>
+  <si>
+    <t>Code analysis do not report any of theses kinks of vulnerabillities</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2336,8 +2851,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2384,6 +2918,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF0F4F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFA4C1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC7EA8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3010,7 +3574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3331,6 +3895,59 @@
     <xf numFmtId="10" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3339,9 +3956,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3603,49 +4217,49 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.45714285714285713</c:v>
+                  <c:v>0.51428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.40740740740740738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.63157894736842102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.60869565217391308</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8394160583941604E-2</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4180,21 +4794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A21" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="64.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.85546875" style="4"/>
+    <col min="6" max="1024" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +4831,7 @@
       </c>
       <c r="B2" s="9">
         <f>0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10">
         <f>COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
@@ -4225,7 +4839,7 @@
       </c>
       <c r="D2" s="123">
         <f>(B2/C2)</f>
-        <v>0.45714285714285713</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -4235,15 +4849,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="123">
         <f t="shared" ref="D3:D16" si="0">(B3/C3)</f>
-        <v>0</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -4253,15 +4867,15 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -4271,7 +4885,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4279,7 +4893,7 @@
       </c>
       <c r="D5" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -4289,15 +4903,15 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -4307,15 +4921,15 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
@@ -4326,15 +4940,15 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -4344,15 +4958,15 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -4362,7 +4976,7 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF(Communication!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4370,7 +4984,7 @@
       </c>
       <c r="D10" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -4380,15 +4994,15 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -4398,7 +5012,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4406,7 +5020,7 @@
       </c>
       <c r="D12" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -4416,15 +5030,15 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -4434,15 +5048,15 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -4452,15 +5066,15 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -4470,15 +5084,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D16" s="123">
         <f t="shared" si="0"/>
-        <v>5.8394160583941604E-2</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -4497,24 +5111,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="88.85546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="25"/>
-    <col min="8" max="8" width="28.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="37.33203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="88.83203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="25"/>
+    <col min="8" max="8" width="28.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -4547,7 +5162,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>529</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4563,13 +5178,17 @@
       <c r="F2" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="50" t="s">
+        <v>864</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="31.15">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="35" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>532</v>
       </c>
@@ -4588,8 +5207,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="52" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>534</v>
       </c>
@@ -4603,13 +5222,19 @@
       <c r="F4" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="I4" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A5" s="146" t="s">
         <v>536</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -4630,8 +5255,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="62.45">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>539</v>
       </c>
@@ -4645,13 +5270,15 @@
       <c r="F6" s="80" t="s">
         <v>540</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>541</v>
       </c>
@@ -4670,8 +5297,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>543</v>
       </c>
@@ -4690,8 +5317,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>545</v>
       </c>
@@ -4705,7 +5332,9 @@
       <c r="F9" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="37"/>
@@ -4734,24 +5363,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="88.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="25"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="31.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="88.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="96" t="s">
         <v>20</v>
       </c>
@@ -4783,7 +5413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.15">
+    <row r="2" spans="1:10" ht="153">
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
@@ -4800,13 +5430,21 @@
       <c r="F2" s="79" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="65"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>719</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="146" t="s">
         <v>550</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -4827,8 +5465,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>553</v>
       </c>
@@ -4842,13 +5480,15 @@
       <c r="F4" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="78">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="68">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>555</v>
       </c>
@@ -4862,13 +5502,17 @@
       <c r="F5" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="31.15">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>557</v>
       </c>
@@ -4884,11 +5528,13 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="51">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>559</v>
       </c>
@@ -4902,13 +5548,17 @@
       <c r="F7" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>561</v>
       </c>
@@ -4922,13 +5572,17 @@
       <c r="F8" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="146" t="s">
         <v>563</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -4944,13 +5598,15 @@
       <c r="F9" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>566</v>
       </c>
@@ -4964,13 +5620,15 @@
       <c r="F10" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="93.6">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="85">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>568</v>
       </c>
@@ -5013,24 +5671,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="75" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="71.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="71.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="25" customWidth="1"/>
     <col min="10" max="10" width="37" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5063,7 +5722,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>570</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5079,13 +5738,17 @@
       <c r="F2" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="50" t="s">
+        <v>843</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>573</v>
       </c>
@@ -5099,13 +5762,17 @@
       <c r="F3" s="80" t="s">
         <v>574</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="I3" s="30" t="s">
+        <v>844</v>
+      </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>575</v>
       </c>
@@ -5119,13 +5786,17 @@
       <c r="F4" s="80" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="30" t="s">
+        <v>845</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>577</v>
       </c>
@@ -5139,13 +5810,17 @@
       <c r="F5" s="80" t="s">
         <v>578</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30" t="s">
+        <v>728</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="52" thickBot="1">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>579</v>
       </c>
@@ -5164,8 +5839,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="133.75" customHeight="1" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>581</v>
       </c>
@@ -5179,13 +5854,17 @@
       <c r="F7" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="30" t="s">
+        <v>846</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="66.75" customHeight="1" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>583</v>
       </c>
@@ -5204,8 +5883,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="31.15">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>585</v>
       </c>
@@ -5247,24 +5926,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="54" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="78.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="33.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="78.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="45" thickBot="1">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5296,8 +5976,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+    <row r="2" spans="1:10" ht="177.5" customHeight="1" thickBot="1">
+      <c r="A2" s="146" t="s">
         <v>587</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5313,13 +5993,19 @@
       <c r="F2" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>730</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="86" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>590</v>
       </c>
@@ -5333,13 +6019,19 @@
       <c r="F3" s="80" t="s">
         <v>591</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.9">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="86" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>592</v>
       </c>
@@ -5353,12 +6045,18 @@
       <c r="F4" s="80" t="s">
         <v>593</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>730</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="31.15">
+    <row r="5" spans="1:10" ht="172.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>594</v>
       </c>
@@ -5375,13 +6073,19 @@
       <c r="F5" s="80" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>731</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="125" t="s">
+    <row r="6" spans="1:10" ht="96" customHeight="1" thickBot="1">
+      <c r="A6" s="146" t="s">
         <v>597</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -5397,13 +6101,19 @@
       <c r="F6" s="80" t="s">
         <v>599</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>732</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="171" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>600</v>
       </c>
@@ -5417,13 +6127,19 @@
       <c r="F7" s="80" t="s">
         <v>601</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>734</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="171" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>602</v>
       </c>
@@ -5437,13 +6153,19 @@
       <c r="F8" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>734</v>
+      </c>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="62.45">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="290" thickBot="1">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>604</v>
       </c>
@@ -5457,13 +6179,19 @@
       <c r="F9" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>735</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="222" thickBot="1">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>606</v>
       </c>
@@ -5477,13 +6205,21 @@
       <c r="F10" s="80" t="s">
         <v>607</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="46.9">
-      <c r="A11" s="125"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="137" thickBot="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>608</v>
       </c>
@@ -5497,19 +6233,27 @@
       <c r="F11" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="148.25" customHeight="1" thickBot="1">
+      <c r="A12" s="146" t="s">
         <v>610</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>611</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="127">
         <v>1</v>
       </c>
       <c r="D12" s="27">
@@ -5519,13 +6263,19 @@
       <c r="F12" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>739</v>
+      </c>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="31.15">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="120" thickBot="1">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>613</v>
       </c>
@@ -5539,13 +6289,21 @@
       <c r="F13" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="125" t="s">
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="145.75" customHeight="1" thickBot="1">
+      <c r="A14" s="146" t="s">
         <v>615</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -5561,13 +6319,21 @@
       <c r="F14" s="80" t="s">
         <v>617</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+      <c r="G14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="137" thickBot="1">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>618</v>
       </c>
@@ -5581,12 +6347,20 @@
       <c r="F15" s="80" t="s">
         <v>619</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" ht="46.9">
+      <c r="G15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
@@ -5604,8 +6378,8 @@
         <v>622</v>
       </c>
       <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="37"/>
     </row>
   </sheetData>
@@ -5621,6 +6395,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{4B7E7F4E-EBE1-4FB3-9181-092BB1513B5D}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{6CFA0C7F-B6D0-4760-9AE6-30E1885DD60A}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{EC3A836D-044F-4894-B022-1BF632DB3535}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -5634,23 +6413,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="D1" zoomScale="108" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="72" customWidth="1"/>
-    <col min="2" max="5" width="8.85546875" style="25"/>
-    <col min="6" max="6" width="84.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="2" max="5" width="8.83203125" style="25"/>
+    <col min="6" max="6" width="84.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5683,7 +6464,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>623</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5704,8 +6485,8 @@
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>626</v>
       </c>
@@ -5726,8 +6507,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="357" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>628</v>
       </c>
@@ -5741,13 +6522,17 @@
       <c r="F4" s="80" t="s">
         <v>629</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="30" t="s">
+        <v>863</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>630</v>
       </c>
@@ -5761,13 +6546,15 @@
       <c r="F5" s="80" t="s">
         <v>631</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="102">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>632</v>
       </c>
@@ -5781,13 +6568,19 @@
       <c r="F6" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>752</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="146" t="s">
         <v>634</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -5808,8 +6601,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="119">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>637</v>
       </c>
@@ -5823,13 +6616,21 @@
       <c r="F8" s="80" t="s">
         <v>638</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="46.9">
-      <c r="A9" s="125"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>639</v>
       </c>
@@ -5848,8 +6649,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>641</v>
       </c>
@@ -5870,8 +6671,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>643</v>
       </c>
@@ -5885,13 +6686,19 @@
       <c r="F11" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="125"/>
+      <c r="I11" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="85">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>645</v>
       </c>
@@ -5911,7 +6718,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="146" t="s">
         <v>647</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -5927,13 +6734,15 @@
       <c r="F13" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="31.15">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>650</v>
       </c>
@@ -5947,13 +6756,17 @@
       <c r="F14" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="I14" s="30" t="s">
+        <v>729</v>
+      </c>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="146" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -5969,13 +6782,15 @@
       <c r="F15" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="31.15">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="146"/>
       <c r="B16" s="62" t="s">
         <v>655</v>
       </c>
@@ -5989,7 +6804,9 @@
       <c r="F16" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="37"/>
@@ -6020,24 +6837,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="25"/>
-    <col min="6" max="6" width="88.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="40.83203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="25"/>
+    <col min="6" max="6" width="88.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="98" t="s">
         <v>20</v>
       </c>
@@ -6069,8 +6888,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="126" t="s">
+    <row r="2" spans="1:10" ht="81.5" customHeight="1" thickBot="1">
+      <c r="A2" s="147" t="s">
         <v>657</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -6084,13 +6903,21 @@
       <c r="F2" s="103" t="s">
         <v>659</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="105"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="126"/>
+      <c r="G2" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>721</v>
+      </c>
+      <c r="I2" s="125" t="s">
+        <v>722</v>
+      </c>
+      <c r="J2" s="105" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="147"/>
       <c r="B3" s="62" t="s">
         <v>660</v>
       </c>
@@ -6104,13 +6931,17 @@
       <c r="F3" s="109" t="s">
         <v>661</v>
       </c>
-      <c r="G3" s="110"/>
+      <c r="G3" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="I3" s="139" t="s">
+        <v>847</v>
+      </c>
       <c r="J3" s="111"/>
     </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="126"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="147"/>
       <c r="B4" s="62" t="s">
         <v>662</v>
       </c>
@@ -6129,8 +6960,8 @@
       <c r="I4" s="110"/>
       <c r="J4" s="111"/>
     </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="126"/>
+    <row r="5" spans="1:10" ht="86" thickBot="1">
+      <c r="A5" s="147"/>
       <c r="B5" s="62" t="s">
         <v>664</v>
       </c>
@@ -6142,13 +6973,19 @@
       <c r="F5" s="109" t="s">
         <v>665</v>
       </c>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="G5" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>721</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>722</v>
+      </c>
       <c r="J5" s="111"/>
     </row>
-    <row r="6" spans="1:10" ht="31.15">
-      <c r="A6" s="126"/>
+    <row r="6" spans="1:10" ht="35" thickBot="1">
+      <c r="A6" s="147"/>
       <c r="B6" s="62" t="s">
         <v>666</v>
       </c>
@@ -6165,8 +7002,8 @@
       <c r="I6" s="110"/>
       <c r="J6" s="111"/>
     </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" s="125" t="s">
+    <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A7" s="146" t="s">
         <v>668</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -6182,13 +7019,17 @@
       <c r="F7" s="109" t="s">
         <v>670</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="G7" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125" t="s">
+        <v>789</v>
+      </c>
       <c r="J7" s="111"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="35" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>671</v>
       </c>
@@ -6202,13 +7043,15 @@
       <c r="F8" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="G8" s="110"/>
+      <c r="G8" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
       <c r="J8" s="111"/>
     </row>
-    <row r="9" spans="1:10" ht="46.9">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="52" thickBot="1">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>673</v>
       </c>
@@ -6227,8 +7070,8 @@
       <c r="I9" s="110"/>
       <c r="J9" s="111"/>
     </row>
-    <row r="10" spans="1:10" ht="46.9">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="52" thickBot="1">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>675</v>
       </c>
@@ -6242,13 +7085,17 @@
       <c r="F10" s="109" t="s">
         <v>676</v>
       </c>
-      <c r="G10" s="110"/>
+      <c r="G10" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="I10" s="139" t="s">
+        <v>848</v>
+      </c>
       <c r="J10" s="111"/>
     </row>
-    <row r="11" spans="1:10" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="52" thickBot="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>677</v>
       </c>
@@ -6260,13 +7107,21 @@
       <c r="F11" s="109" t="s">
         <v>678</v>
       </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.9">
-      <c r="A12" s="125"/>
+      <c r="G11" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="139" t="s">
+        <v>829</v>
+      </c>
+      <c r="I11" s="139" t="s">
+        <v>830</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="52" thickBot="1">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>679</v>
       </c>
@@ -6285,8 +7140,8 @@
       <c r="I12" s="110"/>
       <c r="J12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="125" t="s">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="146" t="s">
         <v>681</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -6309,8 +7164,8 @@
       <c r="I13" s="110"/>
       <c r="J13" s="111"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="52" thickBot="1">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>684</v>
       </c>
@@ -6324,13 +7179,19 @@
       <c r="F14" s="109" t="s">
         <v>685</v>
       </c>
-      <c r="G14" s="110"/>
+      <c r="G14" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+      <c r="I14" s="139" t="s">
+        <v>849</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35" thickBot="1">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>686</v>
       </c>
@@ -6344,13 +7205,17 @@
       <c r="F15" s="109" t="s">
         <v>687</v>
       </c>
-      <c r="G15" s="110"/>
+      <c r="G15" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="I15" s="139" t="s">
+        <v>850</v>
+      </c>
       <c r="J15" s="111"/>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="125" t="s">
+    <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A16" s="146" t="s">
         <v>688</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -6366,13 +7231,17 @@
       <c r="F16" s="109" t="s">
         <v>690</v>
       </c>
-      <c r="G16" s="110"/>
+      <c r="G16" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="I16" s="139" t="s">
+        <v>851</v>
+      </c>
       <c r="J16" s="111"/>
     </row>
-    <row r="17" spans="1:10" ht="31.15">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="35" thickBot="1">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>691</v>
       </c>
@@ -6391,8 +7260,8 @@
       <c r="I17" s="110"/>
       <c r="J17" s="111"/>
     </row>
-    <row r="18" spans="1:10" ht="31.15">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" ht="35" thickBot="1">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>693</v>
       </c>
@@ -6411,8 +7280,8 @@
       <c r="I18" s="110"/>
       <c r="J18" s="111"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="125"/>
+    <row r="19" spans="1:10" ht="52" thickBot="1">
+      <c r="A19" s="146"/>
       <c r="B19" s="62" t="s">
         <v>695</v>
       </c>
@@ -6426,13 +7295,21 @@
       <c r="F19" s="109" t="s">
         <v>696</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.15">
-      <c r="A20" s="125"/>
+      <c r="G19" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="140" t="s">
+        <v>750</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>853</v>
+      </c>
+      <c r="J19" s="141" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="69" thickBot="1">
+      <c r="A20" s="146"/>
       <c r="B20" s="62" t="s">
         <v>697</v>
       </c>
@@ -6446,13 +7323,21 @@
       <c r="F20" s="109" t="s">
         <v>698</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.15">
-      <c r="A21" s="125"/>
+      <c r="G20" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="140" t="s">
+        <v>750</v>
+      </c>
+      <c r="I20" s="139" t="s">
+        <v>854</v>
+      </c>
+      <c r="J20" s="111" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="52" thickBot="1">
+      <c r="A21" s="146"/>
       <c r="B21" s="62" t="s">
         <v>699</v>
       </c>
@@ -6463,16 +7348,24 @@
         <v>116</v>
       </c>
       <c r="E21" s="108"/>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="144" t="s">
         <v>700</v>
       </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="1:10" ht="62.45">
-      <c r="A22" s="125"/>
+      <c r="G21" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="139" t="s">
+        <v>750</v>
+      </c>
+      <c r="I21" s="139" t="s">
+        <v>853</v>
+      </c>
+      <c r="J21" s="141" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52" thickBot="1">
+      <c r="A22" s="146"/>
       <c r="B22" s="62" t="s">
         <v>701</v>
       </c>
@@ -6483,7 +7376,7 @@
         <v>1021</v>
       </c>
       <c r="E22" s="108"/>
-      <c r="F22" s="109" t="s">
+      <c r="F22" s="142" t="s">
         <v>702</v>
       </c>
       <c r="G22" s="110"/>
@@ -6492,7 +7385,7 @@
       <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="146" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -6505,7 +7398,7 @@
         <v>749</v>
       </c>
       <c r="E23" s="108"/>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="142" t="s">
         <v>705</v>
       </c>
       <c r="G23" s="110"/>
@@ -6513,8 +7406,8 @@
       <c r="I23" s="110"/>
       <c r="J23" s="111"/>
     </row>
-    <row r="24" spans="1:10" ht="31.15">
-      <c r="A24" s="125"/>
+    <row r="24" spans="1:10" ht="35" thickBot="1">
+      <c r="A24" s="146"/>
       <c r="B24" s="62" t="s">
         <v>706</v>
       </c>
@@ -6533,8 +7426,8 @@
       <c r="I24" s="110"/>
       <c r="J24" s="111"/>
     </row>
-    <row r="25" spans="1:10" ht="46.9">
-      <c r="A25" s="125"/>
+    <row r="25" spans="1:10" ht="86" thickBot="1">
+      <c r="A25" s="146"/>
       <c r="B25" s="62" t="s">
         <v>708</v>
       </c>
@@ -6545,16 +7438,24 @@
         <v>346</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="144" t="s">
         <v>709</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.15">
-      <c r="A26" s="125"/>
+      <c r="G25" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>858</v>
+      </c>
+      <c r="I25" s="139" t="s">
+        <v>859</v>
+      </c>
+      <c r="J25" s="141" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="35" thickBot="1">
+      <c r="A26" s="146"/>
       <c r="B26" s="62" t="s">
         <v>710</v>
       </c>
@@ -6568,7 +7469,9 @@
       <c r="F26" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="G26" s="118"/>
+      <c r="G26" s="118" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
       <c r="J26" s="119"/>
@@ -6587,6 +7490,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1" xr:uid="{D3B363A7-52E8-423D-BE60-D81DEF234F75}"/>
+    <hyperlink ref="H20" r:id="rId2" xr:uid="{7CBB8B2F-83D4-4EC6-B358-E06F47FCF245}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -6600,25 +7507,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="14"/>
-    <col min="3" max="3" width="10.7109375" style="14" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="14"/>
-    <col min="6" max="6" width="60.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="14"/>
+    <col min="3" max="3" width="10.6640625" style="14" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="14"/>
+    <col min="6" max="6" width="60.83203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="36" style="14" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="14"/>
+    <col min="9" max="9" width="52.1640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" style="14" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="45" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -6651,7 +7559,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -6668,7 +7576,7 @@
       <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -6678,8 +7586,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="96.75">
-      <c r="A3" s="124"/>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A3" s="145"/>
       <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
@@ -6696,7 +7604,7 @@
       <c r="G3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="30" t="s">
@@ -6706,8 +7614,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="64.5">
-      <c r="A4" s="124"/>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A4" s="145"/>
       <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
@@ -6724,7 +7632,7 @@
       <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -6735,7 +7643,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A5" s="124"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
@@ -6752,7 +7660,7 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -6763,7 +7671,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="196.5" customHeight="1" thickBot="1">
-      <c r="A6" s="124"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -6780,7 +7688,7 @@
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -6791,7 +7699,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="A7" s="124"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
@@ -6818,8 +7726,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="47.45" thickBot="1">
-      <c r="A8" s="124"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="409.6" thickBot="1">
+      <c r="A8" s="145"/>
       <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
@@ -6833,13 +7741,17 @@
       <c r="F8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30" t="s">
+        <v>811</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="84" customHeight="1" thickBot="1">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="145" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -6863,7 +7775,7 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="213.75" customHeight="1">
-      <c r="A10" s="124"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
@@ -6880,7 +7792,7 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="127" t="s">
+      <c r="H10" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="30" t="s">
@@ -6891,7 +7803,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="25" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A11" s="124"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
@@ -6908,14 +7820,14 @@
       <c r="G11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A12" s="124"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A12" s="145"/>
       <c r="B12" s="18" t="s">
         <v>62</v>
       </c>
@@ -6934,7 +7846,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="42">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="44">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -6957,7 +7869,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="145" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -6978,8 +7890,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="15.6">
-      <c r="A15" s="124"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="17">
+      <c r="A15" s="145"/>
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
@@ -7004,8 +7916,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="16.149999999999999" thickBot="1">
-      <c r="A16" s="124"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="18" thickBot="1">
+      <c r="A16" s="145"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
@@ -7030,8 +7942,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="146.25">
-      <c r="A17" s="124"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="153">
+      <c r="A17" s="145"/>
       <c r="B17" s="18" t="s">
         <v>73</v>
       </c>
@@ -7048,7 +7960,7 @@
       <c r="G17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="30" t="s">
@@ -7058,8 +7970,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="96.75">
-      <c r="A18" s="124"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A18" s="145"/>
       <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
@@ -7076,7 +7988,7 @@
       <c r="G18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="124" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="30" t="s">
@@ -7087,7 +7999,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="145" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7110,8 +8022,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="94.15" thickBot="1">
-      <c r="A20" s="124"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
+      <c r="A20" s="145"/>
       <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
@@ -7137,7 +8049,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="207.75" customHeight="1" thickBot="1">
-      <c r="A21" s="124"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="18" t="s">
         <v>85</v>
       </c>
@@ -7162,8 +8074,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="203.45" thickBot="1">
-      <c r="A22" s="124"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="188" thickBot="1">
+      <c r="A22" s="145"/>
       <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
@@ -7189,7 +8101,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="145" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -7210,8 +8122,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A24" s="124"/>
+    <row r="24" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A24" s="145"/>
       <c r="B24" s="18" t="s">
         <v>94</v>
       </c>
@@ -7230,8 +8142,8 @@
       <c r="I24" s="28"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="31.9" thickBot="1">
-      <c r="A25" s="124"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="35" thickBot="1">
+      <c r="A25" s="145"/>
       <c r="B25" s="18" t="s">
         <v>96</v>
       </c>
@@ -7251,7 +8163,7 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1" ht="190.5" customHeight="1" thickBot="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="18" t="s">
         <v>98</v>
       </c>
@@ -7275,7 +8187,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="25" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="145" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -7300,8 +8212,8 @@
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A28" s="124"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A28" s="145"/>
       <c r="B28" s="18" t="s">
         <v>106</v>
       </c>
@@ -7319,7 +8231,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="124" t="s">
+      <c r="A29" s="145" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -7338,8 +8250,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="78">
-      <c r="A30" s="124"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A30" s="145"/>
       <c r="B30" s="18" t="s">
         <v>111</v>
       </c>
@@ -7357,7 +8269,7 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="124" t="s">
+      <c r="A31" s="145" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -7378,8 +8290,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A32" s="124"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+      <c r="A32" s="145"/>
       <c r="B32" s="18" t="s">
         <v>116</v>
       </c>
@@ -7398,7 +8310,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="109.9" thickBot="1">
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
@@ -7427,7 +8339,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A34" s="124" t="s">
+      <c r="A34" s="145" t="s">
         <v>123</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -7448,8 +8360,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A35" s="124"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A35" s="145"/>
       <c r="B35" s="18" t="s">
         <v>126</v>
       </c>
@@ -7468,8 +8380,8 @@
       <c r="I35" s="28"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A36" s="124"/>
+    <row r="36" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A36" s="145"/>
       <c r="B36" s="18" t="s">
         <v>128</v>
       </c>
@@ -7489,7 +8401,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="124" t="s">
+      <c r="A37" s="145" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -7518,8 +8430,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A38" s="124"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A38" s="145"/>
       <c r="B38" s="18" t="s">
         <v>133</v>
       </c>
@@ -7538,7 +8450,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" s="25" customFormat="1">
+    <row r="39" spans="1:10" s="25" customFormat="1" ht="22">
       <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
@@ -7562,8 +8474,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="58.9" customHeight="1">
-      <c r="A40" s="124" t="s">
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="59" customHeight="1">
+      <c r="A40" s="145" t="s">
         <v>136</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -7585,7 +8497,7 @@
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" s="25" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A41" s="124"/>
+      <c r="A41" s="145"/>
       <c r="B41" s="18" t="s">
         <v>139</v>
       </c>
@@ -7613,7 +8525,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1" thickBot="1">
-      <c r="A42" s="124"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="18" t="s">
         <v>142</v>
       </c>
@@ -7638,8 +8550,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A43" s="124"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+      <c r="A43" s="145"/>
       <c r="B43" s="18" t="s">
         <v>146</v>
       </c>
@@ -7651,13 +8563,19 @@
       <c r="F43" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="109.9" thickBot="1">
-      <c r="A44" s="124"/>
+      <c r="I43" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
+      <c r="A44" s="145"/>
       <c r="B44" s="18" t="s">
         <v>148</v>
       </c>
@@ -7680,8 +8598,8 @@
       </c>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A45" s="124"/>
+    <row r="45" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A45" s="145"/>
       <c r="B45" s="18" t="s">
         <v>151</v>
       </c>
@@ -7711,29 +8629,29 @@
     <row r="46" spans="1:10">
       <c r="G46" s="14">
         <f>COUNTIF(G2:G45,"")</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="G47" s="14">
         <f>COUNTIF(G2:G45,"*")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J47" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7765,25 +8683,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="38"/>
-    <col min="3" max="3" width="14.85546875" style="39" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="39"/>
+    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="38"/>
+    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="39"/>
     <col min="6" max="6" width="73" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="29" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="14"/>
+    <col min="7" max="7" width="25.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="63.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" style="14" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="23" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -7815,8 +8735,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+    <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="146" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -7834,13 +8754,21 @@
       <c r="F2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A3" s="125"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>769</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A3" s="146"/>
       <c r="B3" s="44" t="s">
         <v>158</v>
       </c>
@@ -7856,13 +8784,21 @@
       <c r="F3" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A4" s="125"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A4" s="146"/>
       <c r="B4" s="44" t="s">
         <v>160</v>
       </c>
@@ -7878,13 +8814,21 @@
       <c r="F4" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A5" s="125"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A5" s="146"/>
       <c r="B5" s="44" t="s">
         <v>162</v>
       </c>
@@ -7900,13 +8844,15 @@
       <c r="F5" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="15.6">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A6" s="146"/>
       <c r="B6" s="44" t="s">
         <v>164</v>
       </c>
@@ -7922,13 +8868,17 @@
       <c r="F6" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="30"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>776</v>
+      </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="44" t="s">
         <v>166</v>
       </c>
@@ -7944,13 +8894,17 @@
       <c r="F7" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>776</v>
+      </c>
       <c r="I7" s="30"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="140.44999999999999">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="137" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="44" t="s">
         <v>168</v>
       </c>
@@ -7966,13 +8920,19 @@
       <c r="F8" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>778</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
+      <c r="A9" s="146"/>
       <c r="B9" s="44" t="s">
         <v>170</v>
       </c>
@@ -7988,13 +8948,19 @@
       <c r="F9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>828</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+      <c r="A10" s="146"/>
       <c r="B10" s="44" t="s">
         <v>172</v>
       </c>
@@ -8010,13 +8976,15 @@
       <c r="F10" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="38" customHeight="1" thickBot="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="44" t="s">
         <v>174</v>
       </c>
@@ -8032,13 +9000,15 @@
       <c r="F11" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="137" thickBot="1">
+      <c r="A12" s="146"/>
       <c r="B12" s="44" t="s">
         <v>176</v>
       </c>
@@ -8054,13 +9024,19 @@
       <c r="F12" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>820</v>
+      </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
+      <c r="A13" s="146"/>
       <c r="B13" s="44" t="s">
         <v>178</v>
       </c>
@@ -8076,13 +9052,19 @@
       <c r="F13" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>818</v>
+      </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="125" t="s">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
+      <c r="A14" s="146" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -8101,12 +9083,15 @@
         <v>183</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="30" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">E13:H14</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="30"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="85">
+      <c r="A15" s="146"/>
       <c r="B15" s="44" t="s">
         <v>184</v>
       </c>
@@ -8122,13 +9107,19 @@
       <c r="F15" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="85">
+      <c r="A16" s="146"/>
       <c r="B16" s="44" t="s">
         <v>187</v>
       </c>
@@ -8147,8 +9138,8 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A17" s="146"/>
       <c r="B17" s="44" t="s">
         <v>189</v>
       </c>
@@ -8169,8 +9160,8 @@
       <c r="I17" s="30"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A18" s="146"/>
       <c r="B18" s="44" t="s">
         <v>192</v>
       </c>
@@ -8191,8 +9182,8 @@
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A19" s="125"/>
+    <row r="19" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A19" s="146"/>
       <c r="B19" s="44" t="s">
         <v>195</v>
       </c>
@@ -8213,8 +9204,8 @@
       <c r="I19" s="30"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A20" s="146"/>
       <c r="B20" s="44" t="s">
         <v>198</v>
       </c>
@@ -8236,7 +9227,7 @@
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="146" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -8254,13 +9245,15 @@
       <c r="F21" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A22" s="125"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A22" s="146"/>
       <c r="B22" s="44" t="s">
         <v>205</v>
       </c>
@@ -8276,13 +9269,15 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>726</v>
+      </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A23" s="125"/>
+    <row r="23" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A23" s="146"/>
       <c r="B23" s="44" t="s">
         <v>208</v>
       </c>
@@ -8304,7 +9299,7 @@
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="146" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -8322,13 +9317,19 @@
       <c r="F24" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="G24" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>725</v>
+      </c>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A25" s="125"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="86" thickBot="1">
+      <c r="A25" s="146"/>
       <c r="B25" s="44" t="s">
         <v>214</v>
       </c>
@@ -8344,13 +9345,19 @@
       <c r="F25" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="G25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>724</v>
+      </c>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A26" s="125"/>
+    <row r="26" spans="1:10" s="25" customFormat="1" ht="130.75" customHeight="1" thickBot="1">
+      <c r="A26" s="146"/>
       <c r="B26" s="44" t="s">
         <v>216</v>
       </c>
@@ -8366,13 +9373,19 @@
       <c r="F26" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="G26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="I26" s="143" t="s">
+        <v>862</v>
+      </c>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A27" s="125"/>
+    <row r="27" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A27" s="146"/>
       <c r="B27" s="44" t="s">
         <v>218</v>
       </c>
@@ -8388,13 +9401,15 @@
       <c r="F27" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="109.15">
-      <c r="A28" s="125"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A28" s="146"/>
       <c r="B28" s="44" t="s">
         <v>220</v>
       </c>
@@ -8416,7 +9431,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="146" t="s">
         <v>222</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -8439,8 +9454,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A30" s="125"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A30" s="146"/>
       <c r="B30" s="44" t="s">
         <v>225</v>
       </c>
@@ -8456,13 +9471,19 @@
       <c r="F30" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A31" s="125"/>
+    <row r="31" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A31" s="146"/>
       <c r="B31" s="44" t="s">
         <v>227</v>
       </c>
@@ -8483,8 +9504,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A32" s="125"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A32" s="146"/>
       <c r="B32" s="44" t="s">
         <v>229</v>
       </c>
@@ -8500,13 +9521,19 @@
       <c r="F32" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>842</v>
+      </c>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A33" s="125"/>
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A33" s="146"/>
       <c r="B33" s="44" t="s">
         <v>231</v>
       </c>
@@ -8527,8 +9554,8 @@
       <c r="I33" s="28"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" s="25" customFormat="1" ht="62.45">
-      <c r="A34" s="125"/>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A34" s="146"/>
       <c r="B34" s="44" t="s">
         <v>234</v>
       </c>
@@ -8549,8 +9576,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A35" s="125"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A35" s="146"/>
       <c r="B35" s="44" t="s">
         <v>236</v>
       </c>
@@ -8572,7 +9599,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="146" t="s">
         <v>238</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -8595,8 +9622,8 @@
       <c r="I36" s="28"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A37" s="125"/>
+    <row r="37" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A37" s="146"/>
       <c r="B37" s="44" t="s">
         <v>242</v>
       </c>
@@ -8617,8 +9644,8 @@
       <c r="I37" s="28"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A38" s="125"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A38" s="146"/>
       <c r="B38" s="44" t="s">
         <v>244</v>
       </c>
@@ -8640,7 +9667,7 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="146" t="s">
         <v>246</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -8663,8 +9690,8 @@
       <c r="I39" s="28"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A40" s="125"/>
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A40" s="146"/>
       <c r="B40" s="44" t="s">
         <v>250</v>
       </c>
@@ -8685,8 +9712,8 @@
       <c r="I40" s="28"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A41" s="125"/>
+    <row r="41" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A41" s="146"/>
       <c r="B41" s="44" t="s">
         <v>252</v>
       </c>
@@ -8707,8 +9734,8 @@
       <c r="I41" s="28"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A42" s="125"/>
+    <row r="42" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A42" s="146"/>
       <c r="B42" s="44" t="s">
         <v>254</v>
       </c>
@@ -8729,8 +9756,8 @@
       <c r="I42" s="28"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A43" s="125"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A43" s="146"/>
       <c r="B43" s="44" t="s">
         <v>256</v>
       </c>
@@ -8751,8 +9778,8 @@
       <c r="I43" s="28"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A44" s="125"/>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A44" s="146"/>
       <c r="B44" s="44" t="s">
         <v>258</v>
       </c>
@@ -8774,7 +9801,7 @@
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="125" t="s">
+      <c r="A45" s="146" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="44" t="s">
@@ -8797,8 +9824,8 @@
       <c r="I45" s="28"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A46" s="125"/>
+    <row r="46" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A46" s="146"/>
       <c r="B46" s="44" t="s">
         <v>264</v>
       </c>
@@ -8819,8 +9846,8 @@
       <c r="I46" s="28"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A47" s="125"/>
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A47" s="146"/>
       <c r="B47" s="44" t="s">
         <v>266</v>
       </c>
@@ -8841,8 +9868,8 @@
       <c r="I47" s="28"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A48" s="125"/>
+    <row r="48" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A48" s="146"/>
       <c r="B48" s="44" t="s">
         <v>268</v>
       </c>
@@ -8863,8 +9890,8 @@
       <c r="I48" s="28"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A49" s="125"/>
+    <row r="49" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A49" s="146"/>
       <c r="B49" s="44" t="s">
         <v>270</v>
       </c>
@@ -8885,8 +9912,8 @@
       <c r="I49" s="28"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A50" s="125"/>
+    <row r="50" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A50" s="146"/>
       <c r="B50" s="44" t="s">
         <v>273</v>
       </c>
@@ -8907,8 +9934,8 @@
       <c r="I50" s="28"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A51" s="125"/>
+    <row r="51" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A51" s="146"/>
       <c r="B51" s="44" t="s">
         <v>276</v>
       </c>
@@ -8930,7 +9957,7 @@
       <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" s="25" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="146" t="s">
         <v>279</v>
       </c>
       <c r="B52" s="44" t="s">
@@ -8953,8 +9980,8 @@
       <c r="I52" s="28"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A53" s="125"/>
+    <row r="53" spans="1:10" s="25" customFormat="1" ht="35" thickBot="1">
+      <c r="A53" s="146"/>
       <c r="B53" s="44" t="s">
         <v>283</v>
       </c>
@@ -8975,8 +10002,8 @@
       <c r="I53" s="28"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" s="25" customFormat="1" ht="31.15">
-      <c r="A54" s="125"/>
+    <row r="54" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A54" s="146"/>
       <c r="B54" s="44" t="s">
         <v>285</v>
       </c>
@@ -8992,13 +10019,19 @@
       <c r="F54" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="125" t="s">
+    <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A55" s="146" t="s">
         <v>287</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -9016,13 +10049,15 @@
       <c r="F55" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A56" s="125"/>
+    <row r="56" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A56" s="146"/>
       <c r="B56" s="44" t="s">
         <v>292</v>
       </c>
@@ -9038,13 +10073,19 @@
       <c r="F56" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="G56" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>780</v>
+      </c>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" s="25" customFormat="1" ht="46.9">
-      <c r="A57" s="125"/>
+    <row r="57" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A57" s="146"/>
       <c r="B57" s="44" t="s">
         <v>294</v>
       </c>
@@ -9060,13 +10101,21 @@
       <c r="F57" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="32"/>
-    </row>
-    <row r="58" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A58" s="125"/>
+      <c r="G57" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="25" customFormat="1" ht="86" thickBot="1">
+      <c r="A58" s="146"/>
       <c r="B58" s="44" t="s">
         <v>296</v>
       </c>
@@ -9080,23 +10129,29 @@
       <c r="F58" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="G58" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>712</v>
+      </c>
+      <c r="I58" s="120" t="s">
+        <v>713</v>
+      </c>
       <c r="J58" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9117,25 +10172,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="109" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
+    <col min="1" max="1" width="40.83203125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="70" style="25" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="7" max="7" width="20.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="60" t="s">
         <v>20</v>
       </c>
@@ -9167,7 +10224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42">
+    <row r="2" spans="1:10" ht="289">
       <c r="A2" s="1" t="s">
         <v>298</v>
       </c>
@@ -9184,13 +10241,17 @@
       <c r="F2" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="30" t="s">
+        <v>863</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:10" ht="174" customHeight="1">
+      <c r="A3" s="146" t="s">
         <v>301</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -9208,13 +10269,21 @@
       <c r="F3" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="46.9">
-      <c r="A4" s="125"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>304</v>
       </c>
@@ -9230,13 +10299,21 @@
       <c r="F4" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="255">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>306</v>
       </c>
@@ -9252,13 +10329,21 @@
       <c r="F5" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="62.45">
-      <c r="A6" s="125"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="85">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>308</v>
       </c>
@@ -9274,13 +10359,21 @@
       <c r="F6" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="146" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -9298,13 +10391,21 @@
       <c r="F7" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10" ht="109.15">
-      <c r="A8" s="125"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="102">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>313</v>
       </c>
@@ -9325,8 +10426,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="62.45">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="68">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>315</v>
       </c>
@@ -9345,8 +10446,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>317</v>
       </c>
@@ -9367,8 +10468,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="125" t="s">
+    <row r="11" spans="1:10" ht="155.5" customHeight="1">
+      <c r="A11" s="146" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -9386,13 +10487,21 @@
       <c r="F11" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.9">
-      <c r="A12" s="125"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="119">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>323</v>
       </c>
@@ -9408,35 +10517,45 @@
       <c r="F12" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="62.45">
-      <c r="A13" s="125"/>
-      <c r="B13" s="62" t="s">
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="146"/>
+      <c r="B13" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="134">
         <v>1</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="135">
         <v>16</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="30"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="31.15">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="85">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>327</v>
       </c>
@@ -9452,13 +10571,21 @@
       <c r="F14" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="93.6">
-      <c r="A15" s="125"/>
+      <c r="G14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="85">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>329</v>
       </c>
@@ -9480,7 +10607,7 @@
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="146" t="s">
         <v>331</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -9503,8 +10630,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="31.15">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="153">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>335</v>
       </c>
@@ -9518,13 +10645,21 @@
       <c r="F17" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" ht="46.9">
-      <c r="A18" s="125"/>
+      <c r="G17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>337</v>
       </c>
@@ -9538,13 +10673,15 @@
       <c r="F18" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="146" t="s">
         <v>339</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -9567,8 +10704,8 @@
       <c r="I19" s="28"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="46.9">
-      <c r="A20" s="125"/>
+    <row r="20" spans="1:10" ht="51">
+      <c r="A20" s="146"/>
       <c r="B20" s="62" t="s">
         <v>343</v>
       </c>
@@ -9589,7 +10726,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="46.9">
+    <row r="21" spans="1:10" ht="85">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -9606,9 +10743,13 @@
       <c r="F21" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="120" t="s">
+        <v>839</v>
+      </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1">
@@ -9628,6 +10769,7 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
@@ -9647,22 +10789,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="73" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="68.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="38.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="68.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.1640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="76" customFormat="1">
@@ -9698,7 +10841,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="77" t="s">
@@ -9714,13 +10857,21 @@
       <c r="F2" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="102">
+      <c r="A3" s="146"/>
       <c r="B3" s="77" t="s">
         <v>351</v>
       </c>
@@ -9734,13 +10885,21 @@
       <c r="F3" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="93.6">
-      <c r="A4" s="125"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" s="146"/>
       <c r="B4" s="77" t="s">
         <v>353</v>
       </c>
@@ -9754,13 +10913,19 @@
       <c r="F4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>824</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="146"/>
       <c r="B5" s="77" t="s">
         <v>355</v>
       </c>
@@ -9781,8 +10946,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="146"/>
       <c r="B6" s="77" t="s">
         <v>356</v>
       </c>
@@ -9802,7 +10967,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="146" t="s">
         <v>358</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -9818,13 +10983,15 @@
       <c r="F7" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="146"/>
       <c r="B8" s="77" t="s">
         <v>361</v>
       </c>
@@ -9844,7 +11011,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="146" t="s">
         <v>363</v>
       </c>
       <c r="B9" s="77" t="s">
@@ -9865,8 +11032,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="146"/>
       <c r="B10" s="77" t="s">
         <v>366</v>
       </c>
@@ -9880,13 +11047,15 @@
       <c r="F10" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="62.45">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="146"/>
       <c r="B11" s="77" t="s">
         <v>368</v>
       </c>
@@ -9911,7 +11080,7 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
@@ -9930,24 +11099,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="60.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="53.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="60.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="25" customWidth="1"/>
     <col min="10" max="10" width="29" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -9980,7 +11150,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -9996,13 +11166,15 @@
       <c r="F2" s="79" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="93.6">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="85">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>373</v>
       </c>
@@ -10016,13 +11188,21 @@
       <c r="F3" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="78">
-      <c r="A4" s="125"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>741</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>375</v>
       </c>
@@ -10036,13 +11216,21 @@
       <c r="F4" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="109.15">
-      <c r="A5" s="125"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="102">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>377</v>
       </c>
@@ -10056,13 +11244,21 @@
       <c r="F5" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>744</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>379</v>
       </c>
@@ -10076,13 +11272,15 @@
       <c r="F6" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="146" t="s">
         <v>381</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -10098,13 +11296,15 @@
       <c r="F7" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.15">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="136">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>383</v>
       </c>
@@ -10118,13 +11318,21 @@
       <c r="F8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.15">
-      <c r="A9" s="125"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>741</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>277</v>
       </c>
@@ -10138,13 +11346,17 @@
       <c r="F9" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="I9" s="30" t="s">
+        <v>754</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.45">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>386</v>
       </c>
@@ -10155,16 +11367,16 @@
         <v>95</v>
       </c>
       <c r="E10" s="67"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="129" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="46.9">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="102">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>190</v>
       </c>
@@ -10178,13 +11390,21 @@
       <c r="F11" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="62.45">
-      <c r="A12" s="125"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="153">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>193</v>
       </c>
@@ -10198,13 +11418,21 @@
       <c r="F12" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="62.45">
-      <c r="A13" s="125"/>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="102">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>390</v>
       </c>
@@ -10218,13 +11446,19 @@
       <c r="F13" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>763</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="62.45">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>196</v>
       </c>
@@ -10244,7 +11478,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="146" t="s">
         <v>393</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -10265,8 +11499,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="78">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" ht="68">
+      <c r="A16" s="146"/>
       <c r="B16" s="62" t="s">
         <v>396</v>
       </c>
@@ -10285,8 +11519,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="62.45">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="68">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>398</v>
       </c>
@@ -10305,8 +11539,8 @@
       <c r="I17" s="28"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="78">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" ht="119">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>400</v>
       </c>
@@ -10320,13 +11554,21 @@
       <c r="F18" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="93.6">
-      <c r="A19" s="125"/>
+      <c r="G18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="119">
+      <c r="A19" s="146"/>
       <c r="B19" s="62" t="s">
         <v>402</v>
       </c>
@@ -10340,13 +11582,21 @@
       <c r="F19" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="62.45">
-      <c r="A20" s="125"/>
+      <c r="G19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="68">
+      <c r="A20" s="146"/>
       <c r="B20" s="62" t="s">
         <v>404</v>
       </c>
@@ -10360,13 +11610,19 @@
       <c r="F20" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" ht="78">
-      <c r="A21" s="125"/>
+      <c r="I20" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="68">
+      <c r="A21" s="146"/>
       <c r="B21" s="62" t="s">
         <v>406</v>
       </c>
@@ -10385,8 +11641,8 @@
       <c r="I21" s="28"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="78">
-      <c r="A22" s="125"/>
+    <row r="22" spans="1:10" ht="85">
+      <c r="A22" s="146"/>
       <c r="B22" s="62" t="s">
         <v>408</v>
       </c>
@@ -10405,8 +11661,8 @@
       <c r="I22" s="28"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="31.15">
-      <c r="A23" s="125"/>
+    <row r="23" spans="1:10" ht="34">
+      <c r="A23" s="146"/>
       <c r="B23" s="62" t="s">
         <v>410</v>
       </c>
@@ -10425,8 +11681,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="46.9">
-      <c r="A24" s="125"/>
+    <row r="24" spans="1:10" ht="51">
+      <c r="A24" s="146"/>
       <c r="B24" s="62" t="s">
         <v>412</v>
       </c>
@@ -10446,7 +11702,7 @@
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="125" t="s">
+      <c r="A25" s="146" t="s">
         <v>414</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -10462,13 +11718,15 @@
       <c r="F25" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="31.15">
-      <c r="A26" s="125"/>
+    <row r="26" spans="1:10" ht="34">
+      <c r="A26" s="146"/>
       <c r="B26" s="62" t="s">
         <v>417</v>
       </c>
@@ -10487,8 +11745,8 @@
       <c r="I26" s="28"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="31.15">
-      <c r="A27" s="125"/>
+    <row r="27" spans="1:10" ht="34">
+      <c r="A27" s="146"/>
       <c r="B27" s="62" t="s">
         <v>419</v>
       </c>
@@ -10502,13 +11760,15 @@
       <c r="F27" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="G27" s="28"/>
+      <c r="G27" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="146" t="s">
         <v>421</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -10529,8 +11789,8 @@
       <c r="I28" s="28"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="62.45">
-      <c r="A29" s="125"/>
+    <row r="29" spans="1:10" ht="68">
+      <c r="A29" s="146"/>
       <c r="B29" s="62" t="s">
         <v>424</v>
       </c>
@@ -10549,8 +11809,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="46.9">
-      <c r="A30" s="125"/>
+    <row r="30" spans="1:10" ht="68">
+      <c r="A30" s="146"/>
       <c r="B30" s="62" t="s">
         <v>426</v>
       </c>
@@ -10564,13 +11824,19 @@
       <c r="F30" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="46.9">
-      <c r="A31" s="125"/>
+      <c r="I30" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="51">
+      <c r="A31" s="146"/>
       <c r="B31" s="62" t="s">
         <v>428</v>
       </c>
@@ -10603,6 +11869,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{B133EA5C-215F-4F82-B061-87267337713C}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{74A95890-29DB-4206-AA71-E1FFD6D5B8BA}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{C436AAA2-7F1E-4316-AE16-1309F049D81B}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -10616,25 +11887,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="97.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="18" style="25" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="35.33203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="97.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -10667,7 +11940,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>430</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -10680,16 +11953,20 @@
         <v>311</v>
       </c>
       <c r="E2" s="64"/>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="130" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="I2" s="50"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="31.15">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>433</v>
       </c>
@@ -10703,13 +11980,15 @@
       <c r="F3" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.9">
-      <c r="A4" s="125"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>206</v>
       </c>
@@ -10729,7 +12008,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="146" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -10750,8 +12029,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.9">
-      <c r="A6" s="125"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>439</v>
       </c>
@@ -10765,13 +12044,17 @@
       <c r="F6" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="30" t="s">
+        <v>781</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.15">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>441</v>
       </c>
@@ -10790,8 +12073,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.9">
-      <c r="A8" s="125"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>443</v>
       </c>
@@ -10810,8 +12093,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="46.9">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>445</v>
       </c>
@@ -10825,13 +12108,19 @@
       <c r="F9" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>762</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="46.9">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>447</v>
       </c>
@@ -10845,13 +12134,17 @@
       <c r="F10" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>715</v>
+      </c>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="31.15">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="34">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>449</v>
       </c>
@@ -10870,8 +12163,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="31.15">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" ht="34">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>451</v>
       </c>
@@ -10891,7 +12184,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="146" t="s">
         <v>453</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -10907,13 +12200,17 @@
       <c r="F13" s="80" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="I13" s="30" t="s">
+        <v>782</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>456</v>
       </c>
@@ -10927,13 +12224,17 @@
       <c r="F14" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="I14" s="30" t="s">
+        <v>782</v>
+      </c>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>458</v>
       </c>
@@ -10947,13 +12248,17 @@
       <c r="F15" s="80" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>727</v>
+      </c>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="146" t="s">
         <v>460</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -10969,13 +12274,19 @@
       <c r="F16" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="46.9">
-      <c r="A17" s="125"/>
+      <c r="I16" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="34">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>463</v>
       </c>
@@ -11020,25 +12331,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="59"/>
-    <col min="6" max="6" width="80.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="80.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="25" customWidth="1"/>
     <col min="8" max="8" width="31" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24" style="25" customWidth="1"/>
-    <col min="10" max="10" width="35.140625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="9" max="9" width="35" style="25" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="87" customFormat="1">
+    <row r="1" spans="1:10" s="87" customFormat="1" ht="22">
       <c r="A1" s="83" t="s">
         <v>20</v>
       </c>
@@ -11070,8 +12383,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="125" t="s">
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="146" t="s">
         <v>465</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11087,13 +12400,19 @@
       <c r="F2" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="G2" s="92"/>
+      <c r="G2" s="92" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+      <c r="I2" s="92" t="s">
+        <v>786</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>333</v>
       </c>
@@ -11107,13 +12426,19 @@
       <c r="F3" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="62.45">
-      <c r="A4" s="125"/>
+      <c r="I3" s="92" t="s">
+        <v>786</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>468</v>
       </c>
@@ -11127,13 +12452,19 @@
       <c r="F4" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="46.9">
-      <c r="A5" s="125"/>
+      <c r="I4" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>470</v>
       </c>
@@ -11147,13 +12478,19 @@
       <c r="F5" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="125" t="s">
+      <c r="I5" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A6" s="146" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -11169,13 +12506,19 @@
       <c r="F6" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:10" ht="46.9">
-      <c r="A7" s="125"/>
+      <c r="I6" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="35" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>474</v>
       </c>
@@ -11195,7 +12538,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="146" t="s">
         <v>476</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -11216,8 +12559,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="125"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>479</v>
       </c>
@@ -11238,8 +12581,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>481</v>
       </c>
@@ -11258,8 +12601,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="62.45">
-      <c r="A11" s="125"/>
+    <row r="11" spans="1:10" ht="51">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>483</v>
       </c>
@@ -11271,13 +12614,17 @@
       <c r="F11" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="131" t="s">
+        <v>56</v>
+      </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="I11" s="30" t="s">
+        <v>783</v>
+      </c>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="146" t="s">
         <v>485</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -11293,13 +12640,21 @@
       <c r="F12" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="46.9">
-      <c r="A13" s="125"/>
+      <c r="G12" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="103" thickBot="1">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>488</v>
       </c>
@@ -11313,13 +12668,19 @@
       <c r="F13" s="80" t="s">
         <v>489</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>785</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="120" thickBot="1">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>490</v>
       </c>
@@ -11333,10 +12694,18 @@
       <c r="F14" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
+      <c r="G14" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>834</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11364,24 +12733,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25"/>
-    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="1" max="1" width="30.6640625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="93" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.85546875" style="25"/>
+    <col min="7" max="7" width="12.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -11414,7 +12784,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="146" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11430,13 +12800,15 @@
       <c r="F2" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.9">
-      <c r="A3" s="125"/>
+    <row r="3" spans="1:10" ht="221">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>495</v>
       </c>
@@ -11450,13 +12822,21 @@
       <c r="F3" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.15">
-      <c r="A4" s="125"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>497</v>
       </c>
@@ -11475,8 +12855,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="31.15">
-      <c r="A5" s="125"/>
+    <row r="5" spans="1:10" ht="272">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>499</v>
       </c>
@@ -11490,13 +12870,21 @@
       <c r="F5" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.15">
-      <c r="A6" s="125"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="128" t="s">
+        <v>750</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>501</v>
       </c>
@@ -11515,8 +12903,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="125"/>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>503</v>
       </c>
@@ -11530,13 +12918,15 @@
       <c r="F7" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="146" t="s">
         <v>505</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -11552,13 +12942,21 @@
       <c r="F8" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.15">
-      <c r="A9" s="125"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>508</v>
       </c>
@@ -11577,8 +12975,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.15">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>510</v>
       </c>
@@ -11592,13 +12990,15 @@
       <c r="F10" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="138"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="146" t="s">
         <v>512</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -11614,13 +13014,15 @@
       <c r="F11" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>515</v>
       </c>
@@ -11639,8 +13041,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="46.9">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:10" ht="34">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>517</v>
       </c>
@@ -11659,8 +13061,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.9">
-      <c r="A14" s="125"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>519</v>
       </c>
@@ -11679,8 +13081,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.15">
-      <c r="A15" s="125"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>521</v>
       </c>
@@ -11694,13 +13096,15 @@
       <c r="F15" s="80" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="31.15">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="146"/>
       <c r="B16" s="62" t="s">
         <v>523</v>
       </c>
@@ -11719,8 +13123,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="46.9">
-      <c r="A17" s="125"/>
+    <row r="17" spans="1:10" ht="102">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>525</v>
       </c>
@@ -11734,13 +13138,19 @@
       <c r="F17" s="80" t="s">
         <v>526</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>717</v>
+      </c>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="31.15">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:10" ht="34">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>527</v>
       </c>
@@ -11771,6 +13181,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{4D56E73B-56B8-4CBA-B998-27CAE251A76F}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/Deliverables/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide.clemente/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1190497_isep_ipp_pt/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB44A6D-4231-F34F-A602-F9F1462B532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D87AF82-4FB9-46F4-80F5-5C9BEE7EF822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="API and Web Service" sheetId="14" r:id="rId14"/>
     <sheet name="Configuration" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,30 +52,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="712">
   <si>
     <t>Security Category</t>
   </si>
@@ -2249,505 +2227,12 @@
   <si>
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
   </si>
-  <si>
-    <t>Repo</t>
-  </si>
-  <si>
-    <t>Mention the dotnet secrets to have the database connection for example</t>
-  </si>
-  <si>
-    <t>SecureDataEncryptionHelper,SecureDataEncryptorConvertor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PasswordEncryptor and  SecureDataEncryptionHelper</t>
-  </si>
-  <si>
-    <t>SecureDataEncryptionHelper and SecureDataEncryptorConvertor</t>
-  </si>
-  <si>
-    <t>Used to store sensitive data safely by encrypting it with the Aes cipher before storing it in the database</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/.github/workflows/codeSecurityCheck.yml</t>
-  </si>
-  <si>
-    <t>We have a github action to automatically detect common vulnerability and coding errors on our client app code and server side code. This action runs when a new pull request to the master branch is created and every Monday and Friday at 1am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github Actions, in particular the codeql-action </t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/.github/workflows/build.yml</t>
-  </si>
-  <si>
-    <t>We have a pipeline to build, test and lint the client side and server side code. Runs when a pull request is made to the master branch. We will need another pipeline to do deployment when the pull request is closed</t>
-  </si>
-  <si>
-    <t>Github Action</t>
-  </si>
-  <si>
-    <t>128 bit hash https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
-  </si>
-  <si>
-    <t>https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
-  </si>
-  <si>
-    <t>Non-valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The only generated numbers are guids </t>
-  </si>
-  <si>
-    <t>Anti denial of service - request timeout filter based on ips</t>
-  </si>
-  <si>
-    <t>WS-Security is applyable to SOAP and not REST</t>
-  </si>
-  <si>
-    <t>The file upload by a user can at most have  5500000 bytes (5.5 megabytes). The max size is configurable and can be updated</t>
-  </si>
-  <si>
-    <t>The type of files uploaded by the user is restricted to only be of type mp3, m4A or wav</t>
-  </si>
-  <si>
-    <t>The path of the file is constructed within the method and the metadata is not directly used. This path is constructed with information not disponibilized to the user (for example userId)</t>
-  </si>
-  <si>
-    <t>Before storing the file in the server we execute a antivirus scanner (Clam AV) to ensure that the file does not have any virus. The file is only stored if Clam AV indicates the file is clean</t>
-  </si>
-  <si>
-    <t>File name is not directly used and is sanitized before the utilization with method IsValidFilename (validates the size, checks if there are invalid chars). The final file path is also modified to include a unique identifier generated in the CreateSong and not available for the user</t>
-  </si>
-  <si>
-    <t>File name is not directly used and is sanitized before the utilization with method IsValidFilename (validates the size, checks if there are invalid chars). The final file path is also modified to include a unique identifier generated in the CreateSong and not available for the user. On the download endpoint file path is not provided in the query param but it's retrieved from the database (path is encrypted in the database with the SecureDataEncryptionHelper)</t>
-  </si>
-  <si>
-    <t>We have a pipeline that  uses Sonarcloud to do  static code analysis where we could detect the use of dlls and libraries vulnerable to this type of issue. Additionaly we can use dependabot to also track problems like this</t>
-  </si>
-  <si>
-    <t>In the Program the file server middleware is configured to serve only audio files with the specified extensions (MP3, WAV, and M4A and Txt, with txt being used to confirm that Clam AV is working)</t>
-  </si>
-  <si>
-    <t>In the Program the file server middleware is configured to serve only audio files with the specified extensions (MP3, WAV, and M4A and txt, with txt onlt being specified to ensure that the Clam AV works properly)</t>
-  </si>
-  <si>
-    <t>Files are not directly stored within the web root folder and only authenticated users can access and upload files</t>
-  </si>
-  <si>
-    <t>To ensure this does not happen we validate the filename to ensure it does not contain invalid characters or exceed length limits, we replace  any invalid characters in the filename with hyphens to prevent path traversal and other injection attacks and we scan the uploaded file for viruses, ensuring the integrity of the files being saved.</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/tree/develop/Backend/StreamingPlatform/Dtos/Contract</t>
-  </si>
-  <si>
-    <t>We have DTO classes to map the objects provided in the requests to model objects and ensure they are properly validated</t>
-  </si>
-  <si>
-    <t>Aspnet core</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/tree/develop/Backend/StreamingPlatform/Models</t>
-  </si>
-  <si>
-    <t>We make use of the model binding annotations from Aspnet core to enforce validations rules in our model classes. This validations can be the type of characters or number of characters acepted on a specific parameter.</t>
-  </si>
-  <si>
-    <t>We have a rate limiter based on the IP or user id. This rate limiter blocks user from executing requests on a threshold above what is acepted by the application. Furthermore, information is logged on the middleware to ensure that admins can check which user made more users than expected</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Controllers/AuthController.cs</t>
-  </si>
-  <si>
-    <t>When sensitive information is returned then we do not allow users to cache information. This is done with the ResponseCache directive by setting no store as true which indicates to the client that the response should not be cached</t>
-  </si>
-  <si>
-    <t>Aspnet Core</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Program.cs</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Controllers/SongController.cs</t>
-  </si>
-  <si>
-    <t>For example for the SongController requests 415 Unsupported Media is returned when the user uploads a file that is not a mp3, m4a or wav file.</t>
-  </si>
-  <si>
-    <t>We make use of the model binding annotations from Aspnet core to enforce validations rules in our model classes. This validations can be the type of characters or number of characters acepted on a specific parameter. This was done for example for the Plan Name and User Name</t>
-  </si>
-  <si>
-    <t>We do not leverage SMTP or IMAP in our application for now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InputSanitizationMiddleware.cs </t>
-  </si>
-  <si>
-    <t>We have a middleware that was added to the our application builder that sanitizes the content provided to the user in the body to ensure. This middleware makes use of a sanitization library available for Aspnet Core.</t>
-  </si>
-  <si>
-    <t>Aspnet core and Ganss.Xss</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Services/SongService.cs</t>
-  </si>
-  <si>
-    <t>The code of the class provided validates on the CreateSong method that the uploaded file (music) for invalid characters and length using IsValidFilename. This helps prevent basic path traversal attacks where an attacker might try to inject malicious characters into the filename to access unintended locations on the server.</t>
-  </si>
-  <si>
-    <t>Dotnet secrets</t>
-  </si>
-  <si>
-    <t>Use of Dotnet secrets to store secrets like the sensitive data encryption key</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Secure DataEncryptionHelper uses Aes cipher with mode CBC and PCK#7 padding</t>
-  </si>
-  <si>
-    <t>Currently we do not have a functionality for users to upload SVG. We only allow users to upload audio files with the specified extensions (MP3, WAV, and M4A)  and Txt, with txt being used to confirm that Clam AV is working</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Dao/Repositories/GenericRepository.cs</t>
-  </si>
-  <si>
-    <t>For Database Queries we are using Entity Framework to make sure that queries are protected from database injection attacks.  This leverages LINQ and this abstraction generates the SQL for us and deals with escaping and parametize the inputs</t>
-  </si>
-  <si>
-    <t>Entity Framework</t>
-  </si>
-  <si>
-    <t>We do not allow the server to serve zip files and we also do not allow users to upload this type of files</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L36</t>
-  </si>
-  <si>
-    <t>Passwords are enforced by validation to have a minimum 12 characters of lenght</t>
-  </si>
-  <si>
-    <t>Passwords are allowed a maximum of 128 characters long</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L40</t>
-  </si>
-  <si>
-    <t>System.ComponentModel.DataAnnotations</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L47</t>
-  </si>
-  <si>
-    <t>With the help of regex, when receiving the password, multiple spaces are replaced with just one</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Controllers/AuthController.cs#L72</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Controllers/AuthController.cs#L90</t>
-  </si>
-  <si>
-    <t>Password are checked agains a dataset of breached passwords with the help of the haveibeenpwned api. https://haveibeenpwned.com/Passwords. Details on how we keep the password anonym can be checked in the haveibeenpwned api documentation.</t>
-  </si>
-  <si>
-    <t>Microsoft Identity Ensures all the security of the passwords</t>
-  </si>
-  <si>
-    <t>No default credentials are used</t>
-  </si>
-  <si>
-    <t>Identity uses secure password hashing techniques to store user passwords. It employs industry-standard algorithms like PBKDF2 with HMAC-SHA256.</t>
-  </si>
-  <si>
-    <t>All Unique Ids are generated using the industry standard UUIDv4</t>
-  </si>
-  <si>
-    <t>System is not world wide distributted</t>
-  </si>
-  <si>
-    <t>If an unexpected exception is thrown, a generic error message will be sent</t>
-  </si>
-  <si>
-    <t>All susceptible code is surrounded by a try catch block</t>
-  </si>
-  <si>
-    <t>No sensitive information is logged</t>
-  </si>
-  <si>
-    <t>The application logs both successfull and failed attempts to perform actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All relevant information for a review of the past events is logged </t>
-  </si>
-  <si>
-    <t>Github dependabot performs a check on all dependencies to allert for possible vulnerabillities.</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/16471a3c7012c1168a7479fbef5323acc7132191</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/16471a3c7012c1168a7479fbef5323acc7132191#diff-c8d0d0461876ffe23df30ee785a5e8e2be3b098b08ddf32d36b6ae59bc0147e9</t>
-  </si>
-  <si>
-    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality). Additionaly,  these cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks.</t>
-  </si>
-  <si>
-    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality).</t>
-  </si>
-  <si>
-    <t>In the AuthController Login method we are sending the access token and access token expiration date. These cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks.</t>
-  </si>
-  <si>
-    <t>In  the AuthController.cs class we have a login method where a new JWT token is generated for the user and the expiration date of this token is set. This token is sent in the cookies, with the cookies having the flags Secure and HttpOnly in order to ensure that they are not read and manipulated by the client</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Services/AuthService.cs</t>
-  </si>
-  <si>
-    <t>In the AuthService.cs, a new JWT Token is generated with JWT Security Token library with a key of 256 bits and the user claims and this ensure that the JWT session tokens possess at least 64 bits of entropy</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/5f694f46540edc6d70b22ebdb39a2419a873ce86</t>
-  </si>
-  <si>
-    <t>In the AuthController login method cookies use the __Host- prefix, which increases the security of your session tokens by ensuring they are only sent to the host that initially set them</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Controllers/AuthController.cs</t>
-  </si>
-  <si>
-    <t>In the logout method the server invalidates the JWT access token and the expiration date token by setting them to empty string and setting the expiration date to the previous day. The cookie is sent with the Http Only and Secure flags to ensure that it cannot be tempered by an attacker.</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Services/AuthService.cs</t>
-  </si>
-  <si>
-    <t>In the AuthService.cs GenerateJwtToken method the JWT token is generated by using te HMAC-SHA256 algorithm for signing, which is an approved cryptographic algorithm.</t>
-  </si>
-  <si>
-    <t>For Authentication on the API, in the AuthSerive a JWT token is generated based on the user name and user claims. This token is then on the AuthController used to set the cookies with the autorization token that is sent to all requests in order to ensure that the user has the necessary permissions for each functionality</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Services/SongService.cs</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Controllers/SongController.cs</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Program.cs</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/master/.github/workflows/sonarcloud.yml</t>
-  </si>
-  <si>
-    <t>ClamAV</t>
-  </si>
-  <si>
-    <t>Sonarcloud</t>
-  </si>
-  <si>
-    <t>Dvelopment Checklist
--Input Validation
-	Validate and sanitize all user inputs.
--Authentication and Authorization
-	Use strong passwords.
--Data Protection
-	Encrypt sensitive data in transit and at rest.
--Error Handling
-	Avoid exposing detailed error messages.
-	Log errors securely.
--Security Configuration
-	Disable unnecessary services.
-	Apply the principle of least privilege.
-	Regularly update dependencies.
--Access Control
-	Define and enforce user roles and permissions.
--Secure Communication
-	Use HTTPS for all communications.
--Security Testing
-	Conduct regular security testing and integrate it into the CI/CD pipeline.
--Secure Coding Practices
-	Follow OWASP Top Ten recommendations. (https://owasp.org/www-project-top-ten/)
--General Policy
-	Integrate security into every phase of development.
-	Security is a shared responsibility.</t>
-  </si>
-  <si>
-    <t>Microsoft.AspNetCore.StaticFiles and Microsoft.Extensions.FileProviders;</t>
-  </si>
-  <si>
-    <t>Aspnet core System.ComponentModel.DataAnnotations</t>
-  </si>
-  <si>
-    <t>Aspnet core and System.ComponentModel.DataAnnotations</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System.IdentityModel.Tokens.Jwt; Microsoft.IdentityModel.Tokens;System.Security.Claims; System.Security.Cryptography ; Microsoft.AspNetCore.Identity and icrosoft.IdentityModel.JsonWebTokens.JwtRegisteredClaimNames;</t>
-  </si>
-  <si>
-    <t>System.Security.Cryptography;</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/79ca3918aaf433cedabd9915a65306fa9aeea087</t>
-  </si>
-  <si>
-    <t>In the login.component.html and register.component.html on the password input fields there is a button that allows a user to temporarily unmask the field in order to see the password value. The password is only unmasked while the user is pressing the button</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/e799d99e08f390ba979999e297e23fe05ff57c07</t>
-  </si>
-  <si>
-    <t>In the login.component.html and register.component.html  we provide the autocomplete attribute for the username and password which will allow password managers to identify these elements.  Password can also be pasted as this is the default behaviour on a input field and has not be removed</t>
-  </si>
-  <si>
-    <t>All sensitive endpoint are protected with authorization using JWT tokens aswell as role enforcement</t>
-  </si>
-  <si>
-    <t>Microsoft.AspNetCore.Authorization
-Microsoft.AspNetCore.Identity</t>
-  </si>
-  <si>
-    <t>Endpoints related to changing user data are protected with authorization</t>
-  </si>
-  <si>
-    <t>Users are only given the required minimal roles to perform the actions that diferentiate them</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/5167c594e2ab07479cea282b6e39f668e44300a4/Backend/StreamingPlatform/Controllers/AuthController.cs#L67</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/6ba424d1aa0c25e723023cd012d7318ea841af34/Backend/StreamingPlatform/Controllers/SongController.cs#L22</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Client/streaming-service/package/src/app/pages/extra/password-stength-meter/password-strength.component.ts</t>
-  </si>
-  <si>
-    <t>We develop a component that it´s used in the Register component that allows an user to see what is the password strenght. This password strength is based in the rules applied by the system : minimum 12 chars, at least an uppercase letter, a lowercase letter, a special character and a number</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/master/.github/workflows/docker-image.yml</t>
-  </si>
-  <si>
-    <t>In the github action used to push the docker image to the docker hub we are generating the SBOM with the image</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> docker/build-push-action@v4</t>
-  </si>
-  <si>
-    <t>Aspnet Core Middlewares/Services</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/2f93db53f2146c83633f1fbbe5a40d61ba90f2d5/Backend/StreamingPlatform/Controllers/Middleware/ExceptionHandlerMiddleware.cs#L10</t>
-  </si>
-  <si>
-    <t>RequestDelegate</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/2f93db53f2146c83633f1fbbe5a40d61ba90f2d5/Backend/StreamingPlatform/Controllers/AuthController.cs#L37</t>
-  </si>
-  <si>
-    <t>Microsoft.Extensions.Logging</t>
-  </si>
-  <si>
-    <t>The built-in json library for dotnet, provides features to handle json data securely, such as input validation, type safety and escaping.</t>
-  </si>
-  <si>
-    <t>System.Text.Json</t>
-  </si>
-  <si>
-    <t>In order to perform account modifications, for example, changing password, the user must introduce again his old password, as well as having a valid session by means of a jwt token</t>
-  </si>
-  <si>
-    <t>Microsoft Identity</t>
-  </si>
-  <si>
-    <t>We are only using approved cryptographic algorithms given by the dotnet framework, such as HMAC-SHA256</t>
-  </si>
-  <si>
-    <t>We did not create any default accounts</t>
-  </si>
-  <si>
-    <t>The business logic flow is squencial as always the same for one user</t>
-  </si>
-  <si>
-    <t>The application processes logic at a normal rate</t>
-  </si>
-  <si>
-    <t>One user cannot abuse the system due to request timeouts based on ips</t>
-  </si>
-  <si>
-    <t>The application does not have any flow where the gap from checking to using the resource is relevant for this attacks. Data retrieved from the database, our only source of truth, is right away returned.</t>
-  </si>
-  <si>
-    <t>Most of these measures are already implemented in the dotnet framework at the time of compiling</t>
-  </si>
-  <si>
-    <t>Most if not all our external components come from long lived and trusted repositories, trusted by real big compannies</t>
-  </si>
-  <si>
-    <t>When pushed to product, the server in run in a production environment, disabling any features only present in development environment</t>
-  </si>
-  <si>
-    <t>We do not introduce any headers that might compromise detailed system information</t>
-  </si>
-  <si>
-    <t>Retrieved header from server: application/json; charset=utf-8</t>
-  </si>
-  <si>
-    <t>The pipeline builds, analyses and, if all goes right, publishes a docker image that will also be analysed.</t>
-  </si>
-  <si>
-    <t>In the Program.cs is defined from lines 168 to 176 a middleware that injects the nosniff header in all the responses provided by the server</t>
-  </si>
-  <si>
-    <t>In the Program.cs is defined from lines 168 to 176 the HST policies added to the middleware with include subdomains as true and max age of 182 days</t>
-  </si>
-  <si>
-    <t>WebApplicationBuilder services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microsoft.AspNetCore.Mvc.ConsumeAttribute</t>
-  </si>
-  <si>
-    <t>We make use of the Consume annotation from AspnetNetCore to indicate the content-type expected by the endpoint</t>
-  </si>
-  <si>
-    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/6d488201fdc0273704b83d64895ab76a7fa03975</t>
-  </si>
-  <si>
-    <t>In the Program.cs file method AddCors Policy (lines 169 to 184) we define the Cors Policy for the application restricting the requests to requests with origin from our frontend app. This is then applied to the application in line 130</t>
-  </si>
-  <si>
-    <t>Aspnet Core Application Builder and Aspnet Core Services</t>
-  </si>
-  <si>
-    <t>https://learn.microsoft.com/en-us/aspnet/core/security/authentication/identity-configuration?view=aspnetcore-8.0</t>
-  </si>
-  <si>
-    <t>We are using the default configuration from the Password Hasher which is 100000 iterations</t>
-  </si>
-  <si>
-    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality). Additionaly,  these cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks. Since the token is send as an HTTP only Cookie is never exposed in the url parameters</t>
-  </si>
-  <si>
-    <t>The backend service uses HTTPs</t>
-  </si>
-  <si>
-    <t>The backend service uses HTTPs which in turn uses the recommended version of tls</t>
-  </si>
-  <si>
-    <t>ASPT NET CORE</t>
-  </si>
-  <si>
-    <t>Code analysis do not report any of theses kinks of vulnerabillities</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2851,27 +2336,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2918,36 +2384,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF0F4F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFA4C1FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFC7EA8F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3574,7 +3010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3895,59 +3331,6 @@
     <xf numFmtId="10" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3956,6 +3339,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4217,49 +3603,49 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.51428571428571423</c:v>
+                  <c:v>0.45714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40740740740740738</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63157894736842102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60869565217391308</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>5.8394160583941604E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,21 +4180,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.83203125" style="4"/>
+    <col min="6" max="1024" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="22">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4217,7 @@
       </c>
       <c r="B2" s="9">
         <f>0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10">
         <f>COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
@@ -4839,7 +4225,7 @@
       </c>
       <c r="D2" s="123">
         <f>(B2/C2)</f>
-        <v>0.51428571428571423</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -4849,15 +4235,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" s="123">
         <f t="shared" ref="D3:D16" si="0">(B3/C3)</f>
-        <v>0.40740740740740738</v>
+        <v>0</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -4867,15 +4253,15 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="123">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -4885,7 +4271,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4893,7 +4279,7 @@
       </c>
       <c r="D5" s="123">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -4903,15 +4289,15 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="123">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -4921,15 +4307,15 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="123">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
@@ -4940,15 +4326,15 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="123">
         <f t="shared" si="0"/>
-        <v>0.72727272727272729</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -4958,15 +4344,15 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="123">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -4976,7 +4362,7 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF(Communication!G2:G9,"Valid")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4984,7 +4370,7 @@
       </c>
       <c r="D10" s="123">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -4994,15 +4380,15 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="123">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -5012,7 +4398,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -5020,7 +4406,7 @@
       </c>
       <c r="D12" s="123">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -5030,15 +4416,15 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="123">
         <f t="shared" si="0"/>
-        <v>0.92307692307692313</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -5048,15 +4434,15 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="123">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -5066,15 +4452,15 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="123">
         <f t="shared" si="0"/>
-        <v>0.60869565217391308</v>
+        <v>0</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -5084,15 +4470,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D16" s="123">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>5.8394160583941604E-2</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -5111,25 +4497,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="25"/>
-    <col min="3" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="88.83203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="25"/>
-    <col min="8" max="8" width="28.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="37.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="25"/>
+    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="88.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="25"/>
+    <col min="8" max="8" width="28.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5162,7 +4547,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>529</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5178,17 +4563,13 @@
       <c r="F2" s="79" t="s">
         <v>531</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
-        <v>864</v>
-      </c>
+      <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="35" thickBot="1">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="31.15">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>532</v>
       </c>
@@ -5207,8 +4588,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="52" thickBot="1">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:10" ht="31.15">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>534</v>
       </c>
@@ -5222,19 +4603,13 @@
       <c r="F4" s="80" t="s">
         <v>535</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="50" t="s">
-        <v>865</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A5" s="146" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A5" s="125" t="s">
         <v>536</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -5255,8 +4630,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="68">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" ht="62.45">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>539</v>
       </c>
@@ -5270,15 +4645,13 @@
       <c r="F6" s="80" t="s">
         <v>540</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" ht="31.15">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>541</v>
       </c>
@@ -5297,8 +4670,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="34">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="31.15">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>543</v>
       </c>
@@ -5317,8 +4690,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>545</v>
       </c>
@@ -5332,9 +4705,7 @@
       <c r="F9" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="37"/>
@@ -5363,25 +4734,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="25"/>
-    <col min="3" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="88.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="31.42578125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="25"/>
+    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="88.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="25"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="96" t="s">
         <v>20</v>
       </c>
@@ -5413,7 +4783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="153">
+    <row r="2" spans="1:10" ht="31.15">
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
@@ -5430,21 +4800,13 @@
       <c r="F2" s="79" t="s">
         <v>549</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>718</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>719</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>720</v>
-      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="125" t="s">
         <v>550</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -5465,8 +4827,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:10" ht="31.15">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>553</v>
       </c>
@@ -5480,15 +4842,13 @@
       <c r="F4" s="80" t="s">
         <v>554</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="68">
-      <c r="A5" s="146"/>
+    <row r="5" spans="1:10" ht="78">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>555</v>
       </c>
@@ -5502,17 +4862,13 @@
       <c r="F5" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
-        <v>867</v>
-      </c>
+      <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="51">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" ht="31.15">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>557</v>
       </c>
@@ -5528,13 +4884,11 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="30" t="s">
-        <v>867</v>
-      </c>
+      <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="51">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" ht="31.15">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>559</v>
       </c>
@@ -5548,17 +4902,13 @@
       <c r="F7" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="30" t="s">
-        <v>867</v>
-      </c>
+      <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="51">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="31.15">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>561</v>
       </c>
@@ -5572,17 +4922,13 @@
       <c r="F8" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="30" t="s">
-        <v>867</v>
-      </c>
+      <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="125" t="s">
         <v>563</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -5598,15 +4944,13 @@
       <c r="F9" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="51">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="62.45">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>566</v>
       </c>
@@ -5620,15 +4964,13 @@
       <c r="F10" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="85">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="93.6">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>568</v>
       </c>
@@ -5671,25 +5013,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="25"/>
-    <col min="3" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="71.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="25" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="25" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="25"/>
+    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="71.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" style="25" customWidth="1"/>
     <col min="10" max="10" width="37" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5722,7 +5063,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>570</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5738,17 +5079,13 @@
       <c r="F2" s="79" t="s">
         <v>572</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="49"/>
-      <c r="I2" s="50" t="s">
-        <v>843</v>
-      </c>
+      <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="46.9">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>573</v>
       </c>
@@ -5762,17 +5099,13 @@
       <c r="F3" s="80" t="s">
         <v>574</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="30" t="s">
-        <v>844</v>
-      </c>
+      <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:10" ht="31.15">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>575</v>
       </c>
@@ -5786,17 +5119,13 @@
       <c r="F4" s="80" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="30" t="s">
-        <v>845</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1">
-      <c r="A5" s="146"/>
+    <row r="5" spans="1:10" ht="46.9">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>577</v>
       </c>
@@ -5810,17 +5139,13 @@
       <c r="F5" s="80" t="s">
         <v>578</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
-        <v>728</v>
-      </c>
+      <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="52" thickBot="1">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" ht="46.9">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>579</v>
       </c>
@@ -5839,8 +5164,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="133.75" customHeight="1" thickBot="1">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" ht="36" customHeight="1">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>581</v>
       </c>
@@ -5854,17 +5179,13 @@
       <c r="F7" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="30" t="s">
-        <v>846</v>
-      </c>
+      <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="66.75" customHeight="1">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>583</v>
       </c>
@@ -5883,8 +5204,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="34">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="31.15">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>585</v>
       </c>
@@ -5926,25 +5247,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="78.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="31.83203125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="33.5703125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="78.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="45" thickBot="1">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5976,8 +5296,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="177.5" customHeight="1" thickBot="1">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A2" s="125" t="s">
         <v>587</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5993,19 +5313,13 @@
       <c r="F2" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>806</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>730</v>
-      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="86" thickBot="1">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="46.9">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>590</v>
       </c>
@@ -6019,19 +5333,13 @@
       <c r="F3" s="80" t="s">
         <v>591</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>767</v>
-      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="86" thickBot="1">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:10" ht="46.9">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>592</v>
       </c>
@@ -6045,18 +5353,12 @@
       <c r="F4" s="80" t="s">
         <v>593</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>806</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>730</v>
-      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="172.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="31.15">
       <c r="A5" s="1" t="s">
         <v>594</v>
       </c>
@@ -6073,19 +5375,13 @@
       <c r="F5" s="80" t="s">
         <v>596</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>806</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>731</v>
-      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A6" s="146" t="s">
+    <row r="6" spans="1:10" ht="48" customHeight="1">
+      <c r="A6" s="125" t="s">
         <v>597</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -6101,19 +5397,13 @@
       <c r="F6" s="80" t="s">
         <v>599</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>732</v>
-      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="171" thickBot="1">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" ht="31.15">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>600</v>
       </c>
@@ -6127,19 +5417,13 @@
       <c r="F7" s="80" t="s">
         <v>601</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>734</v>
-      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="171" thickBot="1">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="46.9">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>602</v>
       </c>
@@ -6153,19 +5437,13 @@
       <c r="F8" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="124" t="s">
-        <v>805</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>734</v>
-      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="290" thickBot="1">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="62.45">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>604</v>
       </c>
@@ -6179,19 +5457,13 @@
       <c r="F9" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>735</v>
-      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="222" thickBot="1">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="31.15">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>606</v>
       </c>
@@ -6205,21 +5477,13 @@
       <c r="F10" s="80" t="s">
         <v>607</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="137" thickBot="1">
-      <c r="A11" s="146"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" ht="46.9">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>608</v>
       </c>
@@ -6233,27 +5497,19 @@
       <c r="F11" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="148.25" customHeight="1" thickBot="1">
-      <c r="A12" s="146" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A12" s="125" t="s">
         <v>610</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>611</v>
       </c>
-      <c r="C12" s="127">
+      <c r="C12" s="66">
         <v>1</v>
       </c>
       <c r="D12" s="27">
@@ -6263,19 +5519,13 @@
       <c r="F12" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="124" t="s">
-        <v>805</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>739</v>
-      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="120" thickBot="1">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:10" ht="31.15">
+      <c r="A13" s="125"/>
       <c r="B13" s="62" t="s">
         <v>613</v>
       </c>
@@ -6289,21 +5539,13 @@
       <c r="F13" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="124" t="s">
-        <v>805</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>733</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="145.75" customHeight="1" thickBot="1">
-      <c r="A14" s="146" t="s">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" ht="79.5" customHeight="1">
+      <c r="A14" s="125" t="s">
         <v>615</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -6319,21 +5561,13 @@
       <c r="F14" s="80" t="s">
         <v>617</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="137" thickBot="1">
-      <c r="A15" s="146"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.15">
+      <c r="A15" s="125"/>
       <c r="B15" s="62" t="s">
         <v>618</v>
       </c>
@@ -6347,20 +5581,12 @@
       <c r="F15" s="80" t="s">
         <v>619</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>738</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="35" thickBot="1">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="46.9">
       <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
@@ -6378,8 +5604,8 @@
         <v>622</v>
       </c>
       <c r="G16" s="35"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="30"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="37"/>
     </row>
   </sheetData>
@@ -6395,11 +5621,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1" xr:uid="{4B7E7F4E-EBE1-4FB3-9181-092BB1513B5D}"/>
-    <hyperlink ref="H12" r:id="rId2" xr:uid="{6CFA0C7F-B6D0-4760-9AE6-30E1885DD60A}"/>
-    <hyperlink ref="H13" r:id="rId3" xr:uid="{EC3A836D-044F-4894-B022-1BF632DB3535}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -6413,25 +5634,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="108" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="72" customWidth="1"/>
-    <col min="2" max="5" width="8.83203125" style="25"/>
-    <col min="6" max="6" width="84.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="25" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="2" max="5" width="8.85546875" style="25"/>
+    <col min="6" max="6" width="84.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -6464,7 +5683,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>623</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -6485,8 +5704,8 @@
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>626</v>
       </c>
@@ -6507,8 +5726,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="357" thickBot="1">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:10" ht="31.15">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>628</v>
       </c>
@@ -6522,17 +5741,13 @@
       <c r="F4" s="80" t="s">
         <v>629</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="30" t="s">
-        <v>863</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1">
-      <c r="A5" s="146"/>
+    <row r="5" spans="1:10" ht="46.9">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>630</v>
       </c>
@@ -6546,15 +5761,13 @@
       <c r="F5" s="80" t="s">
         <v>631</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="102">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" ht="46.9">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>632</v>
       </c>
@@ -6568,19 +5781,13 @@
       <c r="F6" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>752</v>
-      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="125" t="s">
         <v>634</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -6601,8 +5808,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="119">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>637</v>
       </c>
@@ -6616,21 +5823,13 @@
       <c r="F8" s="80" t="s">
         <v>638</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>741</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="51">
-      <c r="A9" s="146"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="46.9">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>639</v>
       </c>
@@ -6649,8 +5848,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="17">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="15.6">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>641</v>
       </c>
@@ -6671,8 +5870,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="68">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="31.15">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>643</v>
       </c>
@@ -6686,19 +5885,13 @@
       <c r="F11" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="30" t="s">
-        <v>857</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="85">
-      <c r="A12" s="146"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="93.6">
+      <c r="A12" s="125"/>
       <c r="B12" s="62" t="s">
         <v>645</v>
       </c>
@@ -6718,7 +5911,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="125" t="s">
         <v>647</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -6734,15 +5927,13 @@
       <c r="F13" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="34">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="31.15">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>650</v>
       </c>
@@ -6756,17 +5947,13 @@
       <c r="F14" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="30" t="s">
-        <v>729</v>
-      </c>
+      <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="125" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -6782,15 +5969,13 @@
       <c r="F15" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="34">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:10" ht="31.15">
+      <c r="A16" s="125"/>
       <c r="B16" s="62" t="s">
         <v>655</v>
       </c>
@@ -6804,9 +5989,7 @@
       <c r="F16" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>56</v>
-      </c>
+      <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="37"/>
@@ -6837,26 +6020,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="25"/>
-    <col min="6" max="6" width="88.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="40.85546875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="25"/>
+    <col min="6" max="6" width="88.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="98" t="s">
         <v>20</v>
       </c>
@@ -6888,8 +6069,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="81.5" customHeight="1" thickBot="1">
-      <c r="A2" s="147" t="s">
+    <row r="2" spans="1:10" ht="48" customHeight="1">
+      <c r="A2" s="126" t="s">
         <v>657</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -6903,21 +6084,13 @@
       <c r="F2" s="103" t="s">
         <v>659</v>
       </c>
-      <c r="G2" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="125" t="s">
-        <v>721</v>
-      </c>
-      <c r="I2" s="125" t="s">
-        <v>722</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="147"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.9">
+      <c r="A3" s="126"/>
       <c r="B3" s="62" t="s">
         <v>660</v>
       </c>
@@ -6931,17 +6104,13 @@
       <c r="F3" s="109" t="s">
         <v>661</v>
       </c>
-      <c r="G3" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="110"/>
       <c r="H3" s="110"/>
-      <c r="I3" s="139" t="s">
-        <v>847</v>
-      </c>
+      <c r="I3" s="110"/>
       <c r="J3" s="111"/>
     </row>
-    <row r="4" spans="1:10" ht="35" thickBot="1">
-      <c r="A4" s="147"/>
+    <row r="4" spans="1:10" ht="31.15">
+      <c r="A4" s="126"/>
       <c r="B4" s="62" t="s">
         <v>662</v>
       </c>
@@ -6960,8 +6129,8 @@
       <c r="I4" s="110"/>
       <c r="J4" s="111"/>
     </row>
-    <row r="5" spans="1:10" ht="86" thickBot="1">
-      <c r="A5" s="147"/>
+    <row r="5" spans="1:10" ht="46.9">
+      <c r="A5" s="126"/>
       <c r="B5" s="62" t="s">
         <v>664</v>
       </c>
@@ -6973,19 +6142,13 @@
       <c r="F5" s="109" t="s">
         <v>665</v>
       </c>
-      <c r="G5" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="125" t="s">
-        <v>721</v>
-      </c>
-      <c r="I5" s="125" t="s">
-        <v>722</v>
-      </c>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="111"/>
     </row>
-    <row r="6" spans="1:10" ht="35" thickBot="1">
-      <c r="A6" s="147"/>
+    <row r="6" spans="1:10" ht="31.15">
+      <c r="A6" s="126"/>
       <c r="B6" s="62" t="s">
         <v>666</v>
       </c>
@@ -7002,8 +6165,8 @@
       <c r="I6" s="110"/>
       <c r="J6" s="111"/>
     </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A7" s="146" t="s">
+    <row r="7" spans="1:10" ht="48" customHeight="1">
+      <c r="A7" s="125" t="s">
         <v>668</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -7019,17 +6182,13 @@
       <c r="F7" s="109" t="s">
         <v>670</v>
       </c>
-      <c r="G7" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125" t="s">
-        <v>789</v>
-      </c>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
       <c r="J7" s="111"/>
     </row>
-    <row r="8" spans="1:10" ht="35" thickBot="1">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="31.15">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>671</v>
       </c>
@@ -7043,15 +6202,13 @@
       <c r="F8" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="G8" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G8" s="110"/>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
       <c r="J8" s="111"/>
     </row>
-    <row r="9" spans="1:10" ht="52" thickBot="1">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="46.9">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>673</v>
       </c>
@@ -7070,8 +6227,8 @@
       <c r="I9" s="110"/>
       <c r="J9" s="111"/>
     </row>
-    <row r="10" spans="1:10" ht="52" thickBot="1">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="46.9">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>675</v>
       </c>
@@ -7085,17 +6242,13 @@
       <c r="F10" s="109" t="s">
         <v>676</v>
       </c>
-      <c r="G10" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" s="110"/>
       <c r="H10" s="110"/>
-      <c r="I10" s="139" t="s">
-        <v>848</v>
-      </c>
+      <c r="I10" s="110"/>
       <c r="J10" s="111"/>
     </row>
-    <row r="11" spans="1:10" ht="52" thickBot="1">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="31.15">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>677</v>
       </c>
@@ -7107,21 +6260,13 @@
       <c r="F11" s="109" t="s">
         <v>678</v>
       </c>
-      <c r="G11" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="139" t="s">
-        <v>829</v>
-      </c>
-      <c r="I11" s="139" t="s">
-        <v>830</v>
-      </c>
-      <c r="J11" s="111" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="52" thickBot="1">
-      <c r="A12" s="146"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
+    </row>
+    <row r="12" spans="1:10" ht="46.9">
+      <c r="A12" s="125"/>
       <c r="B12" s="62" t="s">
         <v>679</v>
       </c>
@@ -7140,8 +6285,8 @@
       <c r="I12" s="110"/>
       <c r="J12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="146" t="s">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A13" s="125" t="s">
         <v>681</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -7164,8 +6309,8 @@
       <c r="I13" s="110"/>
       <c r="J13" s="111"/>
     </row>
-    <row r="14" spans="1:10" ht="52" thickBot="1">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="46.9">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>684</v>
       </c>
@@ -7179,19 +6324,13 @@
       <c r="F14" s="109" t="s">
         <v>685</v>
       </c>
-      <c r="G14" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G14" s="110"/>
       <c r="H14" s="110"/>
-      <c r="I14" s="139" t="s">
-        <v>849</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="35" thickBot="1">
-      <c r="A15" s="146"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="111"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.15">
+      <c r="A15" s="125"/>
       <c r="B15" s="62" t="s">
         <v>686</v>
       </c>
@@ -7205,17 +6344,13 @@
       <c r="F15" s="109" t="s">
         <v>687</v>
       </c>
-      <c r="G15" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G15" s="110"/>
       <c r="H15" s="110"/>
-      <c r="I15" s="139" t="s">
-        <v>850</v>
-      </c>
+      <c r="I15" s="110"/>
       <c r="J15" s="111"/>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A16" s="146" t="s">
+    <row r="16" spans="1:10" ht="48" customHeight="1">
+      <c r="A16" s="125" t="s">
         <v>688</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -7231,17 +6366,13 @@
       <c r="F16" s="109" t="s">
         <v>690</v>
       </c>
-      <c r="G16" s="110" t="s">
-        <v>26</v>
-      </c>
+      <c r="G16" s="110"/>
       <c r="H16" s="110"/>
-      <c r="I16" s="139" t="s">
-        <v>851</v>
-      </c>
+      <c r="I16" s="110"/>
       <c r="J16" s="111"/>
     </row>
-    <row r="17" spans="1:10" ht="35" thickBot="1">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:10" ht="31.15">
+      <c r="A17" s="125"/>
       <c r="B17" s="62" t="s">
         <v>691</v>
       </c>
@@ -7260,8 +6391,8 @@
       <c r="I17" s="110"/>
       <c r="J17" s="111"/>
     </row>
-    <row r="18" spans="1:10" ht="35" thickBot="1">
-      <c r="A18" s="146"/>
+    <row r="18" spans="1:10" ht="31.15">
+      <c r="A18" s="125"/>
       <c r="B18" s="62" t="s">
         <v>693</v>
       </c>
@@ -7280,8 +6411,8 @@
       <c r="I18" s="110"/>
       <c r="J18" s="111"/>
     </row>
-    <row r="19" spans="1:10" ht="52" thickBot="1">
-      <c r="A19" s="146"/>
+    <row r="19" spans="1:10" ht="15.6">
+      <c r="A19" s="125"/>
       <c r="B19" s="62" t="s">
         <v>695</v>
       </c>
@@ -7295,21 +6426,13 @@
       <c r="F19" s="109" t="s">
         <v>696</v>
       </c>
-      <c r="G19" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="140" t="s">
-        <v>750</v>
-      </c>
-      <c r="I19" s="139" t="s">
-        <v>853</v>
-      </c>
-      <c r="J19" s="141" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="69" thickBot="1">
-      <c r="A20" s="146"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.15">
+      <c r="A20" s="125"/>
       <c r="B20" s="62" t="s">
         <v>697</v>
       </c>
@@ -7323,21 +6446,13 @@
       <c r="F20" s="109" t="s">
         <v>698</v>
       </c>
-      <c r="G20" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="140" t="s">
-        <v>750</v>
-      </c>
-      <c r="I20" s="139" t="s">
-        <v>854</v>
-      </c>
-      <c r="J20" s="111" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="52" thickBot="1">
-      <c r="A21" s="146"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.15">
+      <c r="A21" s="125"/>
       <c r="B21" s="62" t="s">
         <v>699</v>
       </c>
@@ -7348,24 +6463,16 @@
         <v>116</v>
       </c>
       <c r="E21" s="108"/>
-      <c r="F21" s="144" t="s">
+      <c r="F21" s="109" t="s">
         <v>700</v>
       </c>
-      <c r="G21" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="139" t="s">
-        <v>750</v>
-      </c>
-      <c r="I21" s="139" t="s">
-        <v>853</v>
-      </c>
-      <c r="J21" s="141" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="52" thickBot="1">
-      <c r="A22" s="146"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" spans="1:10" ht="62.45">
+      <c r="A22" s="125"/>
       <c r="B22" s="62" t="s">
         <v>701</v>
       </c>
@@ -7376,7 +6483,7 @@
         <v>1021</v>
       </c>
       <c r="E22" s="108"/>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="109" t="s">
         <v>702</v>
       </c>
       <c r="G22" s="110"/>
@@ -7385,7 +6492,7 @@
       <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="125" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -7398,7 +6505,7 @@
         <v>749</v>
       </c>
       <c r="E23" s="108"/>
-      <c r="F23" s="142" t="s">
+      <c r="F23" s="109" t="s">
         <v>705</v>
       </c>
       <c r="G23" s="110"/>
@@ -7406,8 +6513,8 @@
       <c r="I23" s="110"/>
       <c r="J23" s="111"/>
     </row>
-    <row r="24" spans="1:10" ht="35" thickBot="1">
-      <c r="A24" s="146"/>
+    <row r="24" spans="1:10" ht="31.15">
+      <c r="A24" s="125"/>
       <c r="B24" s="62" t="s">
         <v>706</v>
       </c>
@@ -7426,8 +6533,8 @@
       <c r="I24" s="110"/>
       <c r="J24" s="111"/>
     </row>
-    <row r="25" spans="1:10" ht="86" thickBot="1">
-      <c r="A25" s="146"/>
+    <row r="25" spans="1:10" ht="46.9">
+      <c r="A25" s="125"/>
       <c r="B25" s="62" t="s">
         <v>708</v>
       </c>
@@ -7438,24 +6545,16 @@
         <v>346</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="144" t="s">
+      <c r="F25" s="109" t="s">
         <v>709</v>
       </c>
-      <c r="G25" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="139" t="s">
-        <v>858</v>
-      </c>
-      <c r="I25" s="139" t="s">
-        <v>859</v>
-      </c>
-      <c r="J25" s="141" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="35" thickBot="1">
-      <c r="A26" s="146"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.15">
+      <c r="A26" s="125"/>
       <c r="B26" s="62" t="s">
         <v>710</v>
       </c>
@@ -7469,9 +6568,7 @@
       <c r="F26" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="G26" s="118" t="s">
-        <v>56</v>
-      </c>
+      <c r="G26" s="118"/>
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
       <c r="J26" s="119"/>
@@ -7490,10 +6587,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H19" r:id="rId1" xr:uid="{D3B363A7-52E8-423D-BE60-D81DEF234F75}"/>
-    <hyperlink ref="H20" r:id="rId2" xr:uid="{7CBB8B2F-83D4-4EC6-B358-E06F47FCF245}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -7507,26 +6600,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="14"/>
-    <col min="3" max="3" width="10.6640625" style="14" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="14"/>
-    <col min="6" max="6" width="60.83203125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="14"/>
+    <col min="3" max="3" width="10.7109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="14"/>
+    <col min="6" max="6" width="60.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="14" customWidth="1"/>
     <col min="8" max="8" width="36" style="14" customWidth="1"/>
-    <col min="9" max="9" width="52.1640625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="41.6640625" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="14"/>
+    <col min="9" max="9" width="52.140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" style="14" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="45" thickBot="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="42.6" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -7559,7 +6651,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="124" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -7576,7 +6668,7 @@
       <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -7586,8 +6678,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="102">
-      <c r="A3" s="145"/>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="96.75">
+      <c r="A3" s="124"/>
       <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
@@ -7604,7 +6696,7 @@
       <c r="G3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="124" t="s">
+      <c r="H3" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="30" t="s">
@@ -7614,8 +6706,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="68">
-      <c r="A4" s="145"/>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="64.5">
+      <c r="A4" s="124"/>
       <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
@@ -7632,7 +6724,7 @@
       <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="124" t="s">
+      <c r="H4" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -7643,7 +6735,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A5" s="145"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
@@ -7660,7 +6752,7 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -7671,7 +6763,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="196.5" customHeight="1" thickBot="1">
-      <c r="A6" s="145"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -7688,7 +6780,7 @@
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I6" s="30" t="s">
@@ -7699,7 +6791,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="A7" s="145"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
@@ -7726,8 +6818,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="409.6" thickBot="1">
-      <c r="A8" s="145"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="47.45" thickBot="1">
+      <c r="A8" s="124"/>
       <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
@@ -7741,17 +6833,13 @@
       <c r="F8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G8" s="28"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>811</v>
-      </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="84" customHeight="1" thickBot="1">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="124" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -7775,7 +6863,7 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="213.75" customHeight="1">
-      <c r="A10" s="145"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
@@ -7792,7 +6880,7 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="124" t="s">
+      <c r="H10" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="30" t="s">
@@ -7803,7 +6891,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="25" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
@@ -7820,14 +6908,14 @@
       <c r="G11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="124" t="s">
+      <c r="H11" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="68">
-      <c r="A12" s="145"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A12" s="124"/>
       <c r="B12" s="18" t="s">
         <v>62</v>
       </c>
@@ -7846,7 +6934,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="44">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="42">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -7869,7 +6957,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="124" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7890,8 +6978,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="17">
-      <c r="A15" s="145"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="15.6">
+      <c r="A15" s="124"/>
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
@@ -7916,8 +7004,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="18" thickBot="1">
-      <c r="A16" s="145"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="16.149999999999999" thickBot="1">
+      <c r="A16" s="124"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
@@ -7942,8 +7030,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="153">
-      <c r="A17" s="145"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="146.25">
+      <c r="A17" s="124"/>
       <c r="B17" s="18" t="s">
         <v>73</v>
       </c>
@@ -7960,7 +7048,7 @@
       <c r="G17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="124" t="s">
+      <c r="H17" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="30" t="s">
@@ -7970,8 +7058,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="102">
-      <c r="A18" s="145"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="96.75">
+      <c r="A18" s="124"/>
       <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
@@ -7988,7 +7076,7 @@
       <c r="G18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="124" t="s">
+      <c r="H18" s="127" t="s">
         <v>33</v>
       </c>
       <c r="I18" s="30" t="s">
@@ -7999,7 +7087,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="124" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -8022,8 +7110,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
-      <c r="A20" s="145"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="94.15" thickBot="1">
+      <c r="A20" s="124"/>
       <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
@@ -8049,7 +7137,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="207.75" customHeight="1" thickBot="1">
-      <c r="A21" s="145"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="18" t="s">
         <v>85</v>
       </c>
@@ -8074,8 +7162,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="188" thickBot="1">
-      <c r="A22" s="145"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="203.45" thickBot="1">
+      <c r="A22" s="124"/>
       <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
@@ -8101,7 +7189,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="124" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -8122,8 +7210,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A24" s="145"/>
+    <row r="24" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A24" s="124"/>
       <c r="B24" s="18" t="s">
         <v>94</v>
       </c>
@@ -8142,8 +7230,8 @@
       <c r="I24" s="28"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="35" thickBot="1">
-      <c r="A25" s="145"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="31.9" thickBot="1">
+      <c r="A25" s="124"/>
       <c r="B25" s="18" t="s">
         <v>96</v>
       </c>
@@ -8163,7 +7251,7 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1" ht="190.5" customHeight="1" thickBot="1">
-      <c r="A26" s="145"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="18" t="s">
         <v>98</v>
       </c>
@@ -8187,7 +7275,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="25" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="124" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -8212,8 +7300,8 @@
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="68">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A28" s="124"/>
       <c r="B28" s="18" t="s">
         <v>106</v>
       </c>
@@ -8231,7 +7319,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="124" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -8250,8 +7338,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="68">
-      <c r="A30" s="145"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="78">
+      <c r="A30" s="124"/>
       <c r="B30" s="18" t="s">
         <v>111</v>
       </c>
@@ -8269,7 +7357,7 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="145" t="s">
+      <c r="A31" s="124" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -8290,8 +7378,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
-      <c r="A32" s="145"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
+      <c r="A32" s="124"/>
       <c r="B32" s="18" t="s">
         <v>116</v>
       </c>
@@ -8310,7 +7398,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="109.9" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
@@ -8339,7 +7427,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A34" s="145" t="s">
+      <c r="A34" s="124" t="s">
         <v>123</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -8360,8 +7448,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A35" s="145"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A35" s="124"/>
       <c r="B35" s="18" t="s">
         <v>126</v>
       </c>
@@ -8380,8 +7468,8 @@
       <c r="I35" s="28"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A36" s="145"/>
+    <row r="36" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A36" s="124"/>
       <c r="B36" s="18" t="s">
         <v>128</v>
       </c>
@@ -8401,7 +7489,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="124" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -8430,8 +7518,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="102">
-      <c r="A38" s="145"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A38" s="124"/>
       <c r="B38" s="18" t="s">
         <v>133</v>
       </c>
@@ -8450,7 +7538,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" s="25" customFormat="1" ht="22">
+    <row r="39" spans="1:10" s="25" customFormat="1">
       <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
@@ -8474,8 +7562,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="59" customHeight="1">
-      <c r="A40" s="145" t="s">
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="58.9" customHeight="1">
+      <c r="A40" s="124" t="s">
         <v>136</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -8497,7 +7585,7 @@
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" s="25" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A41" s="145"/>
+      <c r="A41" s="124"/>
       <c r="B41" s="18" t="s">
         <v>139</v>
       </c>
@@ -8525,7 +7613,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1" thickBot="1">
-      <c r="A42" s="145"/>
+      <c r="A42" s="124"/>
       <c r="B42" s="18" t="s">
         <v>142</v>
       </c>
@@ -8550,8 +7638,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
-      <c r="A43" s="145"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
+      <c r="A43" s="124"/>
       <c r="B43" s="18" t="s">
         <v>146</v>
       </c>
@@ -8563,19 +7651,13 @@
       <c r="F43" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="30" t="s">
-        <v>852</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
-      <c r="A44" s="145"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="109.9" thickBot="1">
+      <c r="A44" s="124"/>
       <c r="B44" s="18" t="s">
         <v>148</v>
       </c>
@@ -8598,8 +7680,8 @@
       </c>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
-      <c r="A45" s="145"/>
+    <row r="45" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
+      <c r="A45" s="124"/>
       <c r="B45" s="18" t="s">
         <v>151</v>
       </c>
@@ -8629,29 +7711,29 @@
     <row r="46" spans="1:10">
       <c r="G46" s="14">
         <f>COUNTIF(G2:G45,"")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="G47" s="14">
         <f>COUNTIF(G2:G45,"*")</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J47" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8683,27 +7765,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="38"/>
-    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="39"/>
+    <col min="1" max="1" width="34.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="38"/>
+    <col min="3" max="3" width="14.85546875" style="39" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="39"/>
     <col min="6" max="6" width="73" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="63.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="39.83203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="14"/>
+    <col min="7" max="7" width="25.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="29" style="14" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="23" thickBot="1">
+    <row r="1" spans="1:10" s="43" customFormat="1">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -8735,8 +7815,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="125" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -8754,21 +7834,13 @@
       <c r="F2" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>768</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>769</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A3" s="146"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A3" s="125"/>
       <c r="B3" s="44" t="s">
         <v>158</v>
       </c>
@@ -8784,21 +7856,13 @@
       <c r="F3" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A4" s="146"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A4" s="125"/>
       <c r="B4" s="44" t="s">
         <v>160</v>
       </c>
@@ -8814,21 +7878,13 @@
       <c r="F4" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A5" s="146"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A5" s="125"/>
       <c r="B5" s="44" t="s">
         <v>162</v>
       </c>
@@ -8844,15 +7900,13 @@
       <c r="F5" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="15.6">
+      <c r="A6" s="125"/>
       <c r="B6" s="44" t="s">
         <v>164</v>
       </c>
@@ -8868,17 +7922,13 @@
       <c r="F6" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>776</v>
-      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A7" s="125"/>
       <c r="B7" s="44" t="s">
         <v>166</v>
       </c>
@@ -8894,17 +7944,13 @@
       <c r="F7" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>776</v>
-      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="137" thickBot="1">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="140.44999999999999">
+      <c r="A8" s="125"/>
       <c r="B8" s="44" t="s">
         <v>168</v>
       </c>
@@ -8920,19 +7966,13 @@
       <c r="F8" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>778</v>
-      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A9" s="125"/>
       <c r="B9" s="44" t="s">
         <v>170</v>
       </c>
@@ -8948,19 +7988,13 @@
       <c r="F9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>828</v>
-      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A10" s="125"/>
       <c r="B10" s="44" t="s">
         <v>172</v>
       </c>
@@ -8976,15 +8010,13 @@
       <c r="F10" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" s="28"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="38" customHeight="1" thickBot="1">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A11" s="125"/>
       <c r="B11" s="44" t="s">
         <v>174</v>
       </c>
@@ -9000,15 +8032,13 @@
       <c r="F11" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="137" thickBot="1">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A12" s="125"/>
       <c r="B12" s="44" t="s">
         <v>176</v>
       </c>
@@ -9024,19 +8054,13 @@
       <c r="F12" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>820</v>
-      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A13" s="125"/>
       <c r="B13" s="44" t="s">
         <v>178</v>
       </c>
@@ -9052,19 +8076,13 @@
       <c r="F13" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>818</v>
-      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="A14" s="146" t="s">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1">
+      <c r="A14" s="125" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -9083,15 +8101,12 @@
         <v>183</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="30" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">E13:H14</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="85">
-      <c r="A15" s="146"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A15" s="125"/>
       <c r="B15" s="44" t="s">
         <v>184</v>
       </c>
@@ -9107,19 +8122,13 @@
       <c r="F15" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="85">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A16" s="125"/>
       <c r="B16" s="44" t="s">
         <v>187</v>
       </c>
@@ -9138,8 +8147,8 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A17" s="125"/>
       <c r="B17" s="44" t="s">
         <v>189</v>
       </c>
@@ -9160,8 +8169,8 @@
       <c r="I17" s="30"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A18" s="146"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A18" s="125"/>
       <c r="B18" s="44" t="s">
         <v>192</v>
       </c>
@@ -9182,8 +8191,8 @@
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A19" s="146"/>
+    <row r="19" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A19" s="125"/>
       <c r="B19" s="44" t="s">
         <v>195</v>
       </c>
@@ -9204,8 +8213,8 @@
       <c r="I19" s="30"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A20" s="146"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A20" s="125"/>
       <c r="B20" s="44" t="s">
         <v>198</v>
       </c>
@@ -9227,7 +8236,7 @@
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="125" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -9245,15 +8254,13 @@
       <c r="F21" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A22" s="146"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A22" s="125"/>
       <c r="B22" s="44" t="s">
         <v>205</v>
       </c>
@@ -9269,15 +8276,13 @@
       <c r="F22" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>726</v>
-      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A23" s="146"/>
+    <row r="23" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A23" s="125"/>
       <c r="B23" s="44" t="s">
         <v>208</v>
       </c>
@@ -9299,7 +8304,7 @@
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="125" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -9317,19 +8322,13 @@
       <c r="F24" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>725</v>
-      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="86" thickBot="1">
-      <c r="A25" s="146"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A25" s="125"/>
       <c r="B25" s="44" t="s">
         <v>214</v>
       </c>
@@ -9345,19 +8344,13 @@
       <c r="F25" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>724</v>
-      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1" ht="130.75" customHeight="1" thickBot="1">
-      <c r="A26" s="146"/>
+    <row r="26" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A26" s="125"/>
       <c r="B26" s="44" t="s">
         <v>216</v>
       </c>
@@ -9373,19 +8366,13 @@
       <c r="F26" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="I26" s="143" t="s">
-        <v>862</v>
-      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
-      <c r="A27" s="146"/>
+    <row r="27" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A27" s="125"/>
       <c r="B27" s="44" t="s">
         <v>218</v>
       </c>
@@ -9401,15 +8388,13 @@
       <c r="F27" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G27" s="28"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="102">
-      <c r="A28" s="146"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="109.15">
+      <c r="A28" s="125"/>
       <c r="B28" s="44" t="s">
         <v>220</v>
       </c>
@@ -9431,7 +8416,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="125" t="s">
         <v>222</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -9454,8 +8439,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A30" s="146"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A30" s="125"/>
       <c r="B30" s="44" t="s">
         <v>225</v>
       </c>
@@ -9471,19 +8456,13 @@
       <c r="F30" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A31" s="146"/>
+    <row r="31" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A31" s="125"/>
       <c r="B31" s="44" t="s">
         <v>227</v>
       </c>
@@ -9504,8 +8483,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A32" s="146"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A32" s="125"/>
       <c r="B32" s="44" t="s">
         <v>229</v>
       </c>
@@ -9521,19 +8500,13 @@
       <c r="F32" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>842</v>
-      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A33" s="146"/>
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A33" s="125"/>
       <c r="B33" s="44" t="s">
         <v>231</v>
       </c>
@@ -9554,8 +8527,8 @@
       <c r="I33" s="28"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" s="25" customFormat="1" ht="68">
-      <c r="A34" s="146"/>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="62.45">
+      <c r="A34" s="125"/>
       <c r="B34" s="44" t="s">
         <v>234</v>
       </c>
@@ -9576,8 +8549,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A35" s="146"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A35" s="125"/>
       <c r="B35" s="44" t="s">
         <v>236</v>
       </c>
@@ -9599,7 +8572,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="125" t="s">
         <v>238</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -9622,8 +8595,8 @@
       <c r="I36" s="28"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A37" s="146"/>
+    <row r="37" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A37" s="125"/>
       <c r="B37" s="44" t="s">
         <v>242</v>
       </c>
@@ -9644,8 +8617,8 @@
       <c r="I37" s="28"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A38" s="146"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A38" s="125"/>
       <c r="B38" s="44" t="s">
         <v>244</v>
       </c>
@@ -9667,7 +8640,7 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="146" t="s">
+      <c r="A39" s="125" t="s">
         <v>246</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -9690,8 +8663,8 @@
       <c r="I39" s="28"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A40" s="146"/>
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A40" s="125"/>
       <c r="B40" s="44" t="s">
         <v>250</v>
       </c>
@@ -9712,8 +8685,8 @@
       <c r="I40" s="28"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A41" s="146"/>
+    <row r="41" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A41" s="125"/>
       <c r="B41" s="44" t="s">
         <v>252</v>
       </c>
@@ -9734,8 +8707,8 @@
       <c r="I41" s="28"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A42" s="146"/>
+    <row r="42" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A42" s="125"/>
       <c r="B42" s="44" t="s">
         <v>254</v>
       </c>
@@ -9756,8 +8729,8 @@
       <c r="I42" s="28"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A43" s="146"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A43" s="125"/>
       <c r="B43" s="44" t="s">
         <v>256</v>
       </c>
@@ -9778,8 +8751,8 @@
       <c r="I43" s="28"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A44" s="146"/>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A44" s="125"/>
       <c r="B44" s="44" t="s">
         <v>258</v>
       </c>
@@ -9801,7 +8774,7 @@
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="125" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="44" t="s">
@@ -9824,8 +8797,8 @@
       <c r="I45" s="28"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A46" s="146"/>
+    <row r="46" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A46" s="125"/>
       <c r="B46" s="44" t="s">
         <v>264</v>
       </c>
@@ -9846,8 +8819,8 @@
       <c r="I46" s="28"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A47" s="146"/>
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A47" s="125"/>
       <c r="B47" s="44" t="s">
         <v>266</v>
       </c>
@@ -9868,8 +8841,8 @@
       <c r="I47" s="28"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A48" s="146"/>
+    <row r="48" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A48" s="125"/>
       <c r="B48" s="44" t="s">
         <v>268</v>
       </c>
@@ -9890,8 +8863,8 @@
       <c r="I48" s="28"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A49" s="146"/>
+    <row r="49" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A49" s="125"/>
       <c r="B49" s="44" t="s">
         <v>270</v>
       </c>
@@ -9912,8 +8885,8 @@
       <c r="I49" s="28"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" s="25" customFormat="1" ht="51">
-      <c r="A50" s="146"/>
+    <row r="50" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A50" s="125"/>
       <c r="B50" s="44" t="s">
         <v>273</v>
       </c>
@@ -9934,8 +8907,8 @@
       <c r="I50" s="28"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" s="25" customFormat="1" ht="34">
-      <c r="A51" s="146"/>
+    <row r="51" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A51" s="125"/>
       <c r="B51" s="44" t="s">
         <v>276</v>
       </c>
@@ -9957,7 +8930,7 @@
       <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" s="25" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="125" t="s">
         <v>279</v>
       </c>
       <c r="B52" s="44" t="s">
@@ -9980,8 +8953,8 @@
       <c r="I52" s="28"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" s="25" customFormat="1" ht="35" thickBot="1">
-      <c r="A53" s="146"/>
+    <row r="53" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A53" s="125"/>
       <c r="B53" s="44" t="s">
         <v>283</v>
       </c>
@@ -10002,8 +8975,8 @@
       <c r="I53" s="28"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
-      <c r="A54" s="146"/>
+    <row r="54" spans="1:10" s="25" customFormat="1" ht="31.15">
+      <c r="A54" s="125"/>
       <c r="B54" s="44" t="s">
         <v>285</v>
       </c>
@@ -10019,19 +8992,13 @@
       <c r="F54" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" s="30" t="s">
-        <v>841</v>
-      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A55" s="146" t="s">
+    <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A55" s="125" t="s">
         <v>287</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -10049,15 +9016,13 @@
       <c r="F55" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G55" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
-      <c r="A56" s="146"/>
+    <row r="56" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A56" s="125"/>
       <c r="B56" s="44" t="s">
         <v>292</v>
       </c>
@@ -10073,19 +9038,13 @@
       <c r="F56" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="G56" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>780</v>
-      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
-      <c r="A57" s="146"/>
+    <row r="57" spans="1:10" s="25" customFormat="1" ht="46.9">
+      <c r="A57" s="125"/>
       <c r="B57" s="44" t="s">
         <v>294</v>
       </c>
@@ -10101,21 +9060,13 @@
       <c r="F57" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="G57" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I57" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="25" customFormat="1" ht="86" thickBot="1">
-      <c r="A58" s="146"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="1:10" s="25" customFormat="1" ht="93.6">
+      <c r="A58" s="125"/>
       <c r="B58" s="44" t="s">
         <v>296</v>
       </c>
@@ -10129,29 +9080,23 @@
       <c r="F58" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="G58" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="I58" s="120" t="s">
-        <v>713</v>
-      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
       <c r="J58" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -10172,27 +9117,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="59"/>
+    <col min="1" max="1" width="40.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="59"/>
     <col min="6" max="6" width="70" style="25" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.83203125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="7" max="7" width="20.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="60" t="s">
         <v>20</v>
       </c>
@@ -10224,7 +9167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="289">
+    <row r="2" spans="1:10" ht="42">
       <c r="A2" s="1" t="s">
         <v>298</v>
       </c>
@@ -10241,17 +9184,13 @@
       <c r="F2" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="49"/>
-      <c r="I2" s="30" t="s">
-        <v>863</v>
-      </c>
+      <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="174" customHeight="1">
-      <c r="A3" s="146" t="s">
+    <row r="3" spans="1:10" ht="63.75" customHeight="1">
+      <c r="A3" s="125" t="s">
         <v>301</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -10269,21 +9208,13 @@
       <c r="F3" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="102">
-      <c r="A4" s="146"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.9">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>304</v>
       </c>
@@ -10299,21 +9230,13 @@
       <c r="F4" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="255">
-      <c r="A5" s="146"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="46.9">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>306</v>
       </c>
@@ -10329,21 +9252,13 @@
       <c r="F5" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="85">
-      <c r="A6" s="146"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" ht="62.45">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>308</v>
       </c>
@@ -10359,21 +9274,13 @@
       <c r="F6" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>816</v>
-      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="125" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -10391,21 +9298,13 @@
       <c r="F7" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>800</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>801</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="102">
-      <c r="A8" s="146"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="109.15">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>313</v>
       </c>
@@ -10426,8 +9325,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="68">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="62.45">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>315</v>
       </c>
@@ -10446,8 +9345,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="31.15">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>317</v>
       </c>
@@ -10468,8 +9367,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="155.5" customHeight="1">
-      <c r="A11" s="146" t="s">
+    <row r="11" spans="1:10" ht="48" customHeight="1">
+      <c r="A11" s="125" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -10487,21 +9386,13 @@
       <c r="F11" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="119">
-      <c r="A12" s="146"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="46.9">
+      <c r="A12" s="125"/>
       <c r="B12" s="62" t="s">
         <v>323</v>
       </c>
@@ -10517,45 +9408,35 @@
       <c r="F12" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="51">
-      <c r="A13" s="146"/>
-      <c r="B13" s="133" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="62.45">
+      <c r="A13" s="125"/>
+      <c r="B13" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="134">
-        <v>1</v>
-      </c>
-      <c r="D13" s="135">
+      <c r="C13" s="66">
+        <v>1</v>
+      </c>
+      <c r="D13" s="53">
         <v>16</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="30"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="85">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="31.15">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>327</v>
       </c>
@@ -10571,21 +9452,13 @@
       <c r="F14" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="85">
-      <c r="A15" s="146"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:10" ht="93.6">
+      <c r="A15" s="125"/>
       <c r="B15" s="62" t="s">
         <v>329</v>
       </c>
@@ -10607,7 +9480,7 @@
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="125" t="s">
         <v>331</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -10630,8 +9503,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="153">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:10" ht="31.15">
+      <c r="A17" s="125"/>
       <c r="B17" s="62" t="s">
         <v>335</v>
       </c>
@@ -10645,21 +9518,13 @@
       <c r="F17" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="51">
-      <c r="A18" s="146"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" ht="46.9">
+      <c r="A18" s="125"/>
       <c r="B18" s="62" t="s">
         <v>337</v>
       </c>
@@ -10673,15 +9538,13 @@
       <c r="F18" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="125" t="s">
         <v>339</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -10704,8 +9567,8 @@
       <c r="I19" s="28"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="51">
-      <c r="A20" s="146"/>
+    <row r="20" spans="1:10" ht="46.9">
+      <c r="A20" s="125"/>
       <c r="B20" s="62" t="s">
         <v>343</v>
       </c>
@@ -10726,7 +9589,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="85">
+    <row r="21" spans="1:10" ht="46.9">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -10743,13 +9606,9 @@
       <c r="F21" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>26</v>
-      </c>
+      <c r="G21" s="35"/>
       <c r="H21" s="35"/>
-      <c r="I21" s="120" t="s">
-        <v>839</v>
-      </c>
+      <c r="I21" s="35"/>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1">
@@ -10769,7 +9628,6 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
@@ -10789,23 +9647,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="68.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.1640625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="38.42578125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="68.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="76" customFormat="1">
@@ -10841,7 +9698,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="77" t="s">
@@ -10857,21 +9714,13 @@
       <c r="F2" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>821</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="102">
-      <c r="A3" s="146"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.9">
+      <c r="A3" s="125"/>
       <c r="B3" s="77" t="s">
         <v>351</v>
       </c>
@@ -10885,21 +9734,13 @@
       <c r="F3" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="102">
-      <c r="A4" s="146"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="93.6">
+      <c r="A4" s="125"/>
       <c r="B4" s="77" t="s">
         <v>353</v>
       </c>
@@ -10913,19 +9754,13 @@
       <c r="F4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>824</v>
-      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" s="146"/>
+    <row r="5" spans="1:10" ht="15.6">
+      <c r="A5" s="125"/>
       <c r="B5" s="77" t="s">
         <v>355</v>
       </c>
@@ -10946,8 +9781,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="34">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" ht="46.9">
+      <c r="A6" s="125"/>
       <c r="B6" s="77" t="s">
         <v>356</v>
       </c>
@@ -10967,7 +9802,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="125" t="s">
         <v>358</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -10983,15 +9818,13 @@
       <c r="F7" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="51">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="46.9">
+      <c r="A8" s="125"/>
       <c r="B8" s="77" t="s">
         <v>361</v>
       </c>
@@ -11011,7 +9844,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="125" t="s">
         <v>363</v>
       </c>
       <c r="B9" s="77" t="s">
@@ -11032,8 +9865,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="51">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="62.45">
+      <c r="A10" s="125"/>
       <c r="B10" s="77" t="s">
         <v>366</v>
       </c>
@@ -11047,15 +9880,13 @@
       <c r="F10" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="68">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="62.45">
+      <c r="A11" s="125"/>
       <c r="B11" s="77" t="s">
         <v>368</v>
       </c>
@@ -11080,7 +9911,7 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
@@ -11099,25 +9930,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30:J30"/>
+    <sheetView topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="60.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="41.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="60.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="29" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -11150,7 +9980,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11166,15 +9996,13 @@
       <c r="F2" s="79" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="85">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="93.6">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>373</v>
       </c>
@@ -11188,21 +10016,13 @@
       <c r="F3" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="124" t="s">
-        <v>741</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="102">
-      <c r="A4" s="146"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="78">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>375</v>
       </c>
@@ -11216,21 +10036,13 @@
       <c r="F4" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="102">
-      <c r="A5" s="146"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="109.15">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>377</v>
       </c>
@@ -11244,21 +10056,13 @@
       <c r="F5" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="124" t="s">
-        <v>744</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="51">
-      <c r="A6" s="146"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" ht="46.9">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>379</v>
       </c>
@@ -11272,15 +10076,13 @@
       <c r="F6" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="125" t="s">
         <v>381</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -11296,15 +10098,13 @@
       <c r="F7" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="136">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="31.15">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>383</v>
       </c>
@@ -11318,21 +10118,13 @@
       <c r="F8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="124" t="s">
-        <v>741</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34">
-      <c r="A9" s="146"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.15">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>277</v>
       </c>
@@ -11346,17 +10138,13 @@
       <c r="F9" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="30" t="s">
-        <v>754</v>
-      </c>
+      <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="51">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="62.45">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>386</v>
       </c>
@@ -11367,16 +10155,16 @@
         <v>95</v>
       </c>
       <c r="E10" s="67"/>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="102">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="46.9">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>190</v>
       </c>
@@ -11390,21 +10178,13 @@
       <c r="F11" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>755</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="153">
-      <c r="A12" s="146"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" ht="62.45">
+      <c r="A12" s="125"/>
       <c r="B12" s="62" t="s">
         <v>193</v>
       </c>
@@ -11418,21 +10198,13 @@
       <c r="F12" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>759</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="102">
-      <c r="A13" s="146"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="62.45">
+      <c r="A13" s="125"/>
       <c r="B13" s="62" t="s">
         <v>390</v>
       </c>
@@ -11446,19 +10218,13 @@
       <c r="F13" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>763</v>
-      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="51">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="62.45">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>196</v>
       </c>
@@ -11478,7 +10244,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="125" t="s">
         <v>393</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -11499,8 +10265,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="68">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:10" ht="78">
+      <c r="A16" s="125"/>
       <c r="B16" s="62" t="s">
         <v>396</v>
       </c>
@@ -11519,8 +10285,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="68">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:10" ht="62.45">
+      <c r="A17" s="125"/>
       <c r="B17" s="62" t="s">
         <v>398</v>
       </c>
@@ -11539,8 +10305,8 @@
       <c r="I17" s="28"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="119">
-      <c r="A18" s="146"/>
+    <row r="18" spans="1:10" ht="78">
+      <c r="A18" s="125"/>
       <c r="B18" s="62" t="s">
         <v>400</v>
       </c>
@@ -11554,21 +10320,13 @@
       <c r="F18" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="119">
-      <c r="A19" s="146"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" ht="93.6">
+      <c r="A19" s="125"/>
       <c r="B19" s="62" t="s">
         <v>402</v>
       </c>
@@ -11582,21 +10340,13 @@
       <c r="F19" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="68">
-      <c r="A20" s="146"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" ht="62.45">
+      <c r="A20" s="125"/>
       <c r="B20" s="62" t="s">
         <v>404</v>
       </c>
@@ -11610,19 +10360,13 @@
       <c r="F20" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="30" t="s">
-        <v>837</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="68">
-      <c r="A21" s="146"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" ht="78">
+      <c r="A21" s="125"/>
       <c r="B21" s="62" t="s">
         <v>406</v>
       </c>
@@ -11641,8 +10385,8 @@
       <c r="I21" s="28"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="85">
-      <c r="A22" s="146"/>
+    <row r="22" spans="1:10" ht="78">
+      <c r="A22" s="125"/>
       <c r="B22" s="62" t="s">
         <v>408</v>
       </c>
@@ -11661,8 +10405,8 @@
       <c r="I22" s="28"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="34">
-      <c r="A23" s="146"/>
+    <row r="23" spans="1:10" ht="31.15">
+      <c r="A23" s="125"/>
       <c r="B23" s="62" t="s">
         <v>410</v>
       </c>
@@ -11681,8 +10425,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="51">
-      <c r="A24" s="146"/>
+    <row r="24" spans="1:10" ht="46.9">
+      <c r="A24" s="125"/>
       <c r="B24" s="62" t="s">
         <v>412</v>
       </c>
@@ -11702,7 +10446,7 @@
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="125" t="s">
         <v>414</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -11718,15 +10462,13 @@
       <c r="F25" s="80" t="s">
         <v>416</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="34">
-      <c r="A26" s="146"/>
+    <row r="26" spans="1:10" ht="31.15">
+      <c r="A26" s="125"/>
       <c r="B26" s="62" t="s">
         <v>417</v>
       </c>
@@ -11745,8 +10487,8 @@
       <c r="I26" s="28"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="34">
-      <c r="A27" s="146"/>
+    <row r="27" spans="1:10" ht="31.15">
+      <c r="A27" s="125"/>
       <c r="B27" s="62" t="s">
         <v>419</v>
       </c>
@@ -11760,15 +10502,13 @@
       <c r="F27" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="125" t="s">
         <v>421</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -11789,8 +10529,8 @@
       <c r="I28" s="28"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="68">
-      <c r="A29" s="146"/>
+    <row r="29" spans="1:10" ht="62.45">
+      <c r="A29" s="125"/>
       <c r="B29" s="62" t="s">
         <v>424</v>
       </c>
@@ -11809,8 +10549,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="68">
-      <c r="A30" s="146"/>
+    <row r="30" spans="1:10" ht="46.9">
+      <c r="A30" s="125"/>
       <c r="B30" s="62" t="s">
         <v>426</v>
       </c>
@@ -11824,19 +10564,13 @@
       <c r="F30" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="30" t="s">
-        <v>837</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="51">
-      <c r="A31" s="146"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="32"/>
+    </row>
+    <row r="31" spans="1:10" ht="46.9">
+      <c r="A31" s="125"/>
       <c r="B31" s="62" t="s">
         <v>428</v>
       </c>
@@ -11869,11 +10603,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{B133EA5C-215F-4F82-B061-87267337713C}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{74A95890-29DB-4206-AA71-E1FFD6D5B8BA}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{C436AAA2-7F1E-4316-AE16-1309F049D81B}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -11887,27 +10616,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="97.1640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="1" max="1" width="35.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="97.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="18" style="25" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -11940,7 +10667,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>430</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11953,20 +10680,16 @@
         <v>311</v>
       </c>
       <c r="E2" s="64"/>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>714</v>
-      </c>
-      <c r="I2" s="50"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="34">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="31.15">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>433</v>
       </c>
@@ -11980,15 +10703,13 @@
       <c r="F3" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="34">
-      <c r="A4" s="146"/>
+    <row r="4" spans="1:10" ht="46.9">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>206</v>
       </c>
@@ -12008,7 +10729,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="125" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -12029,8 +10750,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="68">
-      <c r="A6" s="146"/>
+    <row r="6" spans="1:10" ht="46.9">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>439</v>
       </c>
@@ -12044,17 +10765,13 @@
       <c r="F6" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="30" t="s">
-        <v>781</v>
-      </c>
+      <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="34">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" ht="31.15">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>441</v>
       </c>
@@ -12073,8 +10790,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="51">
-      <c r="A8" s="146"/>
+    <row r="8" spans="1:10" ht="46.9">
+      <c r="A8" s="125"/>
       <c r="B8" s="62" t="s">
         <v>443</v>
       </c>
@@ -12093,8 +10810,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="51">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="46.9">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>445</v>
       </c>
@@ -12108,19 +10825,13 @@
       <c r="F9" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>715</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>762</v>
-      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="46.9">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>447</v>
       </c>
@@ -12134,17 +10845,13 @@
       <c r="F10" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>715</v>
-      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="34">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="31.15">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>449</v>
       </c>
@@ -12163,8 +10870,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="34">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:10" ht="31.15">
+      <c r="A12" s="125"/>
       <c r="B12" s="62" t="s">
         <v>451</v>
       </c>
@@ -12184,7 +10891,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="125" t="s">
         <v>453</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -12200,17 +10907,13 @@
       <c r="F13" s="80" t="s">
         <v>455</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G13" s="28"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="30" t="s">
-        <v>782</v>
-      </c>
+      <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="51">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="46.9">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>456</v>
       </c>
@@ -12224,17 +10927,13 @@
       <c r="F14" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G14" s="28"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="30" t="s">
-        <v>782</v>
-      </c>
+      <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="34">
-      <c r="A15" s="146"/>
+    <row r="15" spans="1:10" ht="31.15">
+      <c r="A15" s="125"/>
       <c r="B15" s="62" t="s">
         <v>458</v>
       </c>
@@ -12248,17 +10947,13 @@
       <c r="F15" s="80" t="s">
         <v>459</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="28" t="s">
-        <v>727</v>
-      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="125" t="s">
         <v>460</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -12274,19 +10969,13 @@
       <c r="F16" s="80" t="s">
         <v>462</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="34">
-      <c r="A17" s="146"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:10" ht="46.9">
+      <c r="A17" s="125"/>
       <c r="B17" s="62" t="s">
         <v>463</v>
       </c>
@@ -12331,27 +11020,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.83203125" style="59"/>
-    <col min="6" max="6" width="80.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="80.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
     <col min="8" max="8" width="31" style="25" customWidth="1"/>
-    <col min="9" max="9" width="35" style="25" customWidth="1"/>
-    <col min="10" max="10" width="35.1640625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="9" max="9" width="24" style="25" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="87" customFormat="1" ht="22">
+    <row r="1" spans="1:10" s="87" customFormat="1">
       <c r="A1" s="83" t="s">
         <v>20</v>
       </c>
@@ -12383,8 +11070,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:10" ht="48" customHeight="1">
+      <c r="A2" s="125" t="s">
         <v>465</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -12400,19 +11087,13 @@
       <c r="F2" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="G2" s="92" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="92"/>
       <c r="H2" s="92"/>
-      <c r="I2" s="92" t="s">
-        <v>786</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="52" thickBot="1">
-      <c r="A3" s="146"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.9">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>333</v>
       </c>
@@ -12426,19 +11107,13 @@
       <c r="F3" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="92" t="s">
-        <v>786</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="52" thickBot="1">
-      <c r="A4" s="146"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="62.45">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>468</v>
       </c>
@@ -12452,19 +11127,13 @@
       <c r="F4" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G4" s="28"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="J4" s="93" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1">
-      <c r="A5" s="146"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" ht="46.9">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>470</v>
       </c>
@@ -12478,19 +11147,13 @@
       <c r="F5" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A6" s="146" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" ht="48" customHeight="1">
+      <c r="A6" s="125" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -12506,19 +11169,13 @@
       <c r="F6" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="30" t="s">
-        <v>787</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="35" thickBot="1">
-      <c r="A7" s="146"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" ht="46.9">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>474</v>
       </c>
@@ -12538,7 +11195,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="125" t="s">
         <v>476</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -12559,8 +11216,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="146"/>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>479</v>
       </c>
@@ -12581,8 +11238,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="31.15">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>481</v>
       </c>
@@ -12601,8 +11258,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="51">
-      <c r="A11" s="146"/>
+    <row r="11" spans="1:10" ht="62.45">
+      <c r="A11" s="125"/>
       <c r="B11" s="62" t="s">
         <v>483</v>
       </c>
@@ -12614,17 +11271,13 @@
       <c r="F11" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="G11" s="131" t="s">
-        <v>56</v>
-      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="30" t="s">
-        <v>783</v>
-      </c>
+      <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="125" t="s">
         <v>485</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -12640,21 +11293,13 @@
       <c r="F12" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="103" thickBot="1">
-      <c r="A13" s="146"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="46.9">
+      <c r="A13" s="125"/>
       <c r="B13" s="62" t="s">
         <v>488</v>
       </c>
@@ -12668,19 +11313,13 @@
       <c r="F13" s="80" t="s">
         <v>489</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>835</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>785</v>
-      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="120" thickBot="1">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="46.9">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>490</v>
       </c>
@@ -12694,18 +11333,10 @@
       <c r="F14" s="81" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>834</v>
-      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12733,25 +11364,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="25"/>
-    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="1" max="1" width="30.7109375" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="25"/>
+    <col min="3" max="5" width="8.85546875" style="59"/>
     <col min="6" max="6" width="93" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.83203125" style="25"/>
+    <col min="7" max="7" width="12.42578125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -12784,7 +11414,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="125" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -12800,15 +11430,13 @@
       <c r="F2" s="79" t="s">
         <v>494</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="221">
-      <c r="A3" s="146"/>
+    <row r="3" spans="1:10" ht="46.9">
+      <c r="A3" s="125"/>
       <c r="B3" s="62" t="s">
         <v>495</v>
       </c>
@@ -12822,21 +11450,13 @@
       <c r="F3" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34">
-      <c r="A4" s="146"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="31.15">
+      <c r="A4" s="125"/>
       <c r="B4" s="62" t="s">
         <v>497</v>
       </c>
@@ -12855,8 +11475,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="272">
-      <c r="A5" s="146"/>
+    <row r="5" spans="1:10" ht="31.15">
+      <c r="A5" s="125"/>
       <c r="B5" s="62" t="s">
         <v>499</v>
       </c>
@@ -12870,21 +11490,13 @@
       <c r="F5" s="80" t="s">
         <v>500</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="128" t="s">
-        <v>750</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="146"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.15">
+      <c r="A6" s="125"/>
       <c r="B6" s="62" t="s">
         <v>501</v>
       </c>
@@ -12903,8 +11515,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="146"/>
+    <row r="7" spans="1:10" ht="15.6">
+      <c r="A7" s="125"/>
       <c r="B7" s="62" t="s">
         <v>503</v>
       </c>
@@ -12918,15 +11530,13 @@
       <c r="F7" s="80" t="s">
         <v>504</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="125" t="s">
         <v>505</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -12942,21 +11552,13 @@
       <c r="F8" s="80" t="s">
         <v>507</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34">
-      <c r="A9" s="146"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.15">
+      <c r="A9" s="125"/>
       <c r="B9" s="62" t="s">
         <v>508</v>
       </c>
@@ -12975,8 +11577,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="34">
-      <c r="A10" s="146"/>
+    <row r="10" spans="1:10" ht="31.15">
+      <c r="A10" s="125"/>
       <c r="B10" s="62" t="s">
         <v>510</v>
       </c>
@@ -12990,15 +11592,13 @@
       <c r="F10" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="138"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="125" t="s">
         <v>512</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -13014,15 +11614,13 @@
       <c r="F11" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="146"/>
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="125"/>
       <c r="B12" s="62" t="s">
         <v>515</v>
       </c>
@@ -13041,8 +11639,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="34">
-      <c r="A13" s="146"/>
+    <row r="13" spans="1:10" ht="46.9">
+      <c r="A13" s="125"/>
       <c r="B13" s="62" t="s">
         <v>517</v>
       </c>
@@ -13061,8 +11659,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="51">
-      <c r="A14" s="146"/>
+    <row r="14" spans="1:10" ht="46.9">
+      <c r="A14" s="125"/>
       <c r="B14" s="62" t="s">
         <v>519</v>
       </c>
@@ -13081,8 +11679,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="34">
-      <c r="A15" s="146"/>
+    <row r="15" spans="1:10" ht="31.15">
+      <c r="A15" s="125"/>
       <c r="B15" s="62" t="s">
         <v>521</v>
       </c>
@@ -13096,15 +11694,13 @@
       <c r="F15" s="80" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="34">
-      <c r="A16" s="146"/>
+    <row r="16" spans="1:10" ht="31.15">
+      <c r="A16" s="125"/>
       <c r="B16" s="62" t="s">
         <v>523</v>
       </c>
@@ -13123,8 +11719,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="102">
-      <c r="A17" s="146"/>
+    <row r="17" spans="1:10" ht="46.9">
+      <c r="A17" s="125"/>
       <c r="B17" s="62" t="s">
         <v>525</v>
       </c>
@@ -13138,19 +11734,13 @@
       <c r="F17" s="80" t="s">
         <v>526</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>717</v>
-      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="34">
-      <c r="A18" s="146"/>
+    <row r="18" spans="1:10" ht="31.15">
+      <c r="A18" s="125"/>
       <c r="B18" s="62" t="s">
         <v>527</v>
       </c>
@@ -13181,9 +11771,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{4D56E73B-56B8-4CBA-B998-27CAE251A76F}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/Deliverables/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEI\MEI\desofs2024_M1A_1201461_1190497_1191053_1191061\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide.clemente/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D7C824-35B7-4D8F-92FC-F063D1A0B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BB44A6D-4231-F34F-A602-F9F1462B532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" tabRatio="500" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="API and Web Service" sheetId="14" r:id="rId14"/>
     <sheet name="Configuration" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,8 +52,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="868">
   <si>
     <t>Security Category</t>
   </si>
@@ -2237,18 +2259,9 @@
     <t>SecureDataEncryptionHelper,SecureDataEncryptorConvertor</t>
   </si>
   <si>
-    <t>Mention the classes used to ensure data is encrypted before being store (for example user address)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> PasswordEncryptor and  SecureDataEncryptionHelper</t>
   </si>
   <si>
-    <t>PasswordEncryptor uses a Sha256 with salt, pepper and multiple iterations. Secure DataEncryptionHelper uses Aes cipher with mode CBC and PCK#7 padding</t>
-  </si>
-  <si>
-    <t>Use of Dotnet secrets to store secrets like the password pepper and sensitive data encryption key</t>
-  </si>
-  <si>
     <t>SecureDataEncryptionHelper and SecureDataEncryptorConvertor</t>
   </si>
   <si>
@@ -2279,15 +2292,9 @@
     <t>https://github.com/aspnet/Identity/blob/a8ba99bc5b11c5c48fc31b9b0532c0d6791efdc8/src/Microsoft.AspNetCore.Identity/PasswordHasher.cs</t>
   </si>
   <si>
-    <t>1000 iterations</t>
-  </si>
-  <si>
     <t>Non-valid</t>
   </si>
   <si>
-    <t>We have a rate limiter based on the IP or user id</t>
-  </si>
-  <si>
     <t xml:space="preserve">The only generated numbers are guids </t>
   </si>
   <si>
@@ -2295,13 +2302,452 @@
   </si>
   <si>
     <t>WS-Security is applyable to SOAP and not REST</t>
+  </si>
+  <si>
+    <t>The file upload by a user can at most have  5500000 bytes (5.5 megabytes). The max size is configurable and can be updated</t>
+  </si>
+  <si>
+    <t>The type of files uploaded by the user is restricted to only be of type mp3, m4A or wav</t>
+  </si>
+  <si>
+    <t>The path of the file is constructed within the method and the metadata is not directly used. This path is constructed with information not disponibilized to the user (for example userId)</t>
+  </si>
+  <si>
+    <t>Before storing the file in the server we execute a antivirus scanner (Clam AV) to ensure that the file does not have any virus. The file is only stored if Clam AV indicates the file is clean</t>
+  </si>
+  <si>
+    <t>File name is not directly used and is sanitized before the utilization with method IsValidFilename (validates the size, checks if there are invalid chars). The final file path is also modified to include a unique identifier generated in the CreateSong and not available for the user</t>
+  </si>
+  <si>
+    <t>File name is not directly used and is sanitized before the utilization with method IsValidFilename (validates the size, checks if there are invalid chars). The final file path is also modified to include a unique identifier generated in the CreateSong and not available for the user. On the download endpoint file path is not provided in the query param but it's retrieved from the database (path is encrypted in the database with the SecureDataEncryptionHelper)</t>
+  </si>
+  <si>
+    <t>We have a pipeline that  uses Sonarcloud to do  static code analysis where we could detect the use of dlls and libraries vulnerable to this type of issue. Additionaly we can use dependabot to also track problems like this</t>
+  </si>
+  <si>
+    <t>In the Program the file server middleware is configured to serve only audio files with the specified extensions (MP3, WAV, and M4A and Txt, with txt being used to confirm that Clam AV is working)</t>
+  </si>
+  <si>
+    <t>In the Program the file server middleware is configured to serve only audio files with the specified extensions (MP3, WAV, and M4A and txt, with txt onlt being specified to ensure that the Clam AV works properly)</t>
+  </si>
+  <si>
+    <t>Files are not directly stored within the web root folder and only authenticated users can access and upload files</t>
+  </si>
+  <si>
+    <t>To ensure this does not happen we validate the filename to ensure it does not contain invalid characters or exceed length limits, we replace  any invalid characters in the filename with hyphens to prevent path traversal and other injection attacks and we scan the uploaded file for viruses, ensuring the integrity of the files being saved.</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/tree/develop/Backend/StreamingPlatform/Dtos/Contract</t>
+  </si>
+  <si>
+    <t>We have DTO classes to map the objects provided in the requests to model objects and ensure they are properly validated</t>
+  </si>
+  <si>
+    <t>Aspnet core</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/tree/develop/Backend/StreamingPlatform/Models</t>
+  </si>
+  <si>
+    <t>We make use of the model binding annotations from Aspnet core to enforce validations rules in our model classes. This validations can be the type of characters or number of characters acepted on a specific parameter.</t>
+  </si>
+  <si>
+    <t>We have a rate limiter based on the IP or user id. This rate limiter blocks user from executing requests on a threshold above what is acepted by the application. Furthermore, information is logged on the middleware to ensure that admins can check which user made more users than expected</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Controllers/AuthController.cs</t>
+  </si>
+  <si>
+    <t>When sensitive information is returned then we do not allow users to cache information. This is done with the ResponseCache directive by setting no store as true which indicates to the client that the response should not be cached</t>
+  </si>
+  <si>
+    <t>Aspnet Core</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Program.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Controllers/SongController.cs</t>
+  </si>
+  <si>
+    <t>For example for the SongController requests 415 Unsupported Media is returned when the user uploads a file that is not a mp3, m4a or wav file.</t>
+  </si>
+  <si>
+    <t>We make use of the model binding annotations from Aspnet core to enforce validations rules in our model classes. This validations can be the type of characters or number of characters acepted on a specific parameter. This was done for example for the Plan Name and User Name</t>
+  </si>
+  <si>
+    <t>We do not leverage SMTP or IMAP in our application for now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InputSanitizationMiddleware.cs </t>
+  </si>
+  <si>
+    <t>We have a middleware that was added to the our application builder that sanitizes the content provided to the user in the body to ensure. This middleware makes use of a sanitization library available for Aspnet Core.</t>
+  </si>
+  <si>
+    <t>Aspnet core and Ganss.Xss</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Services/SongService.cs</t>
+  </si>
+  <si>
+    <t>The code of the class provided validates on the CreateSong method that the uploaded file (music) for invalid characters and length using IsValidFilename. This helps prevent basic path traversal attacks where an attacker might try to inject malicious characters into the filename to access unintended locations on the server.</t>
+  </si>
+  <si>
+    <t>Dotnet secrets</t>
+  </si>
+  <si>
+    <t>Use of Dotnet secrets to store secrets like the sensitive data encryption key</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secure DataEncryptionHelper uses Aes cipher with mode CBC and PCK#7 padding</t>
+  </si>
+  <si>
+    <t>Currently we do not have a functionality for users to upload SVG. We only allow users to upload audio files with the specified extensions (MP3, WAV, and M4A)  and Txt, with txt being used to confirm that Clam AV is working</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Dao/Repositories/GenericRepository.cs</t>
+  </si>
+  <si>
+    <t>For Database Queries we are using Entity Framework to make sure that queries are protected from database injection attacks.  This leverages LINQ and this abstraction generates the SQL for us and deals with escaping and parametize the inputs</t>
+  </si>
+  <si>
+    <t>Entity Framework</t>
+  </si>
+  <si>
+    <t>We do not allow the server to serve zip files and we also do not allow users to upload this type of files</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L36</t>
+  </si>
+  <si>
+    <t>Passwords are enforced by validation to have a minimum 12 characters of lenght</t>
+  </si>
+  <si>
+    <t>Passwords are allowed a maximum of 128 characters long</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L40</t>
+  </si>
+  <si>
+    <t>System.ComponentModel.DataAnnotations</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Dtos/Contract/NewUserContract.cs#L47</t>
+  </si>
+  <si>
+    <t>With the help of regex, when receiving the password, multiple spaces are replaced with just one</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Controllers/AuthController.cs#L72</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ef65834191597ff439d0049a771e399e064994d8/Backend/StreamingPlatform/Controllers/AuthController.cs#L90</t>
+  </si>
+  <si>
+    <t>Password are checked agains a dataset of breached passwords with the help of the haveibeenpwned api. https://haveibeenpwned.com/Passwords. Details on how we keep the password anonym can be checked in the haveibeenpwned api documentation.</t>
+  </si>
+  <si>
+    <t>Microsoft Identity Ensures all the security of the passwords</t>
+  </si>
+  <si>
+    <t>No default credentials are used</t>
+  </si>
+  <si>
+    <t>Identity uses secure password hashing techniques to store user passwords. It employs industry-standard algorithms like PBKDF2 with HMAC-SHA256.</t>
+  </si>
+  <si>
+    <t>All Unique Ids are generated using the industry standard UUIDv4</t>
+  </si>
+  <si>
+    <t>System is not world wide distributted</t>
+  </si>
+  <si>
+    <t>If an unexpected exception is thrown, a generic error message will be sent</t>
+  </si>
+  <si>
+    <t>All susceptible code is surrounded by a try catch block</t>
+  </si>
+  <si>
+    <t>No sensitive information is logged</t>
+  </si>
+  <si>
+    <t>The application logs both successfull and failed attempts to perform actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All relevant information for a review of the past events is logged </t>
+  </si>
+  <si>
+    <t>Github dependabot performs a check on all dependencies to allert for possible vulnerabillities.</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/16471a3c7012c1168a7479fbef5323acc7132191</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/16471a3c7012c1168a7479fbef5323acc7132191#diff-c8d0d0461876ffe23df30ee785a5e8e2be3b098b08ddf32d36b6ae59bc0147e9</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality). Additionaly,  these cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks.</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality).</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. These cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks.</t>
+  </si>
+  <si>
+    <t>In  the AuthController.cs class we have a login method where a new JWT token is generated for the user and the expiration date of this token is set. This token is sent in the cookies, with the cookies having the flags Secure and HttpOnly in order to ensure that they are not read and manipulated by the client</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Backend/StreamingPlatform/Services/AuthService.cs</t>
+  </si>
+  <si>
+    <t>In the AuthService.cs, a new JWT Token is generated with JWT Security Token library with a key of 256 bits and the user claims and this ensure that the JWT session tokens possess at least 64 bits of entropy</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/5f694f46540edc6d70b22ebdb39a2419a873ce86</t>
+  </si>
+  <si>
+    <t>In the AuthController login method cookies use the __Host- prefix, which increases the security of your session tokens by ensuring they are only sent to the host that initially set them</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Controllers/AuthController.cs</t>
+  </si>
+  <si>
+    <t>In the logout method the server invalidates the JWT access token and the expiration date token by setting them to empty string and setting the expiration date to the previous day. The cookie is sent with the Http Only and Secure flags to ensure that it cannot be tempered by an attacker.</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Services/AuthService.cs</t>
+  </si>
+  <si>
+    <t>In the AuthService.cs GenerateJwtToken method the JWT token is generated by using te HMAC-SHA256 algorithm for signing, which is an approved cryptographic algorithm.</t>
+  </si>
+  <si>
+    <t>For Authentication on the API, in the AuthSerive a JWT token is generated based on the user name and user claims. This token is then on the AuthController used to set the cookies with the autorization token that is sent to all requests in order to ensure that the user has the necessary permissions for each functionality</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Services/SongService.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Controllers/SongController.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/ft/create-client-side/Backend/StreamingPlatform/Program.cs</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/master/.github/workflows/sonarcloud.yml</t>
+  </si>
+  <si>
+    <t>ClamAV</t>
+  </si>
+  <si>
+    <t>Sonarcloud</t>
+  </si>
+  <si>
+    <t>Dvelopment Checklist
+-Input Validation
+	Validate and sanitize all user inputs.
+-Authentication and Authorization
+	Use strong passwords.
+-Data Protection
+	Encrypt sensitive data in transit and at rest.
+-Error Handling
+	Avoid exposing detailed error messages.
+	Log errors securely.
+-Security Configuration
+	Disable unnecessary services.
+	Apply the principle of least privilege.
+	Regularly update dependencies.
+-Access Control
+	Define and enforce user roles and permissions.
+-Secure Communication
+	Use HTTPS for all communications.
+-Security Testing
+	Conduct regular security testing and integrate it into the CI/CD pipeline.
+-Secure Coding Practices
+	Follow OWASP Top Ten recommendations. (https://owasp.org/www-project-top-ten/)
+-General Policy
+	Integrate security into every phase of development.
+	Security is a shared responsibility.</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.StaticFiles and Microsoft.Extensions.FileProviders;</t>
+  </si>
+  <si>
+    <t>Aspnet core System.ComponentModel.DataAnnotations</t>
+  </si>
+  <si>
+    <t>Aspnet core and System.ComponentModel.DataAnnotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System.IdentityModel.Tokens.Jwt; Microsoft.IdentityModel.Tokens;System.Security.Claims; System.Security.Cryptography ; Microsoft.AspNetCore.Identity and icrosoft.IdentityModel.JsonWebTokens.JwtRegisteredClaimNames;</t>
+  </si>
+  <si>
+    <t>System.Security.Cryptography;</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/79ca3918aaf433cedabd9915a65306fa9aeea087</t>
+  </si>
+  <si>
+    <t>In the login.component.html and register.component.html on the password input fields there is a button that allows a user to temporarily unmask the field in order to see the password value. The password is only unmasked while the user is pressing the button</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/e799d99e08f390ba979999e297e23fe05ff57c07</t>
+  </si>
+  <si>
+    <t>In the login.component.html and register.component.html  we provide the autocomplete attribute for the username and password which will allow password managers to identify these elements.  Password can also be pasted as this is the default behaviour on a input field and has not be removed</t>
+  </si>
+  <si>
+    <t>All sensitive endpoint are protected with authorization using JWT tokens aswell as role enforcement</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.Authorization
+Microsoft.AspNetCore.Identity</t>
+  </si>
+  <si>
+    <t>Endpoints related to changing user data are protected with authorization</t>
+  </si>
+  <si>
+    <t>Users are only given the required minimal roles to perform the actions that diferentiate them</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/5167c594e2ab07479cea282b6e39f668e44300a4/Backend/StreamingPlatform/Controllers/AuthController.cs#L67</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/6ba424d1aa0c25e723023cd012d7318ea841af34/Backend/StreamingPlatform/Controllers/SongController.cs#L22</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/develop/Client/streaming-service/package/src/app/pages/extra/password-stength-meter/password-strength.component.ts</t>
+  </si>
+  <si>
+    <t>We develop a component that it´s used in the Register component that allows an user to see what is the password strenght. This password strength is based in the rules applied by the system : minimum 12 chars, at least an uppercase letter, a lowercase letter, a special character and a number</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/master/.github/workflows/docker-image.yml</t>
+  </si>
+  <si>
+    <t>In the github action used to push the docker image to the docker hub we are generating the SBOM with the image</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> docker/build-push-action@v4</t>
+  </si>
+  <si>
+    <t>Aspnet Core Middlewares/Services</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/2f93db53f2146c83633f1fbbe5a40d61ba90f2d5/Backend/StreamingPlatform/Controllers/Middleware/ExceptionHandlerMiddleware.cs#L10</t>
+  </si>
+  <si>
+    <t>RequestDelegate</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/blob/2f93db53f2146c83633f1fbbe5a40d61ba90f2d5/Backend/StreamingPlatform/Controllers/AuthController.cs#L37</t>
+  </si>
+  <si>
+    <t>Microsoft.Extensions.Logging</t>
+  </si>
+  <si>
+    <t>The built-in json library for dotnet, provides features to handle json data securely, such as input validation, type safety and escaping.</t>
+  </si>
+  <si>
+    <t>System.Text.Json</t>
+  </si>
+  <si>
+    <t>In order to perform account modifications, for example, changing password, the user must introduce again his old password, as well as having a valid session by means of a jwt token</t>
+  </si>
+  <si>
+    <t>Microsoft Identity</t>
+  </si>
+  <si>
+    <t>We are only using approved cryptographic algorithms given by the dotnet framework, such as HMAC-SHA256</t>
+  </si>
+  <si>
+    <t>We did not create any default accounts</t>
+  </si>
+  <si>
+    <t>The business logic flow is squencial as always the same for one user</t>
+  </si>
+  <si>
+    <t>The application processes logic at a normal rate</t>
+  </si>
+  <si>
+    <t>One user cannot abuse the system due to request timeouts based on ips</t>
+  </si>
+  <si>
+    <t>The application does not have any flow where the gap from checking to using the resource is relevant for this attacks. Data retrieved from the database, our only source of truth, is right away returned.</t>
+  </si>
+  <si>
+    <t>Most of these measures are already implemented in the dotnet framework at the time of compiling</t>
+  </si>
+  <si>
+    <t>Most if not all our external components come from long lived and trusted repositories, trusted by real big compannies</t>
+  </si>
+  <si>
+    <t>When pushed to product, the server in run in a production environment, disabling any features only present in development environment</t>
+  </si>
+  <si>
+    <t>We do not introduce any headers that might compromise detailed system information</t>
+  </si>
+  <si>
+    <t>Retrieved header from server: application/json; charset=utf-8</t>
+  </si>
+  <si>
+    <t>The pipeline builds, analyses and, if all goes right, publishes a docker image that will also be analysed.</t>
+  </si>
+  <si>
+    <t>In the Program.cs is defined from lines 168 to 176 a middleware that injects the nosniff header in all the responses provided by the server</t>
+  </si>
+  <si>
+    <t>In the Program.cs is defined from lines 168 to 176 the HST policies added to the middleware with include subdomains as true and max age of 182 days</t>
+  </si>
+  <si>
+    <t>WebApplicationBuilder services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft.AspNetCore.Mvc.ConsumeAttribute</t>
+  </si>
+  <si>
+    <t>We make use of the Consume annotation from AspnetNetCore to indicate the content-type expected by the endpoint</t>
+  </si>
+  <si>
+    <t>https://github.com/50sara50/desofs2024_M1A_1201461_1190497_1191053_1191061/commit/6d488201fdc0273704b83d64895ab76a7fa03975</t>
+  </si>
+  <si>
+    <t>In the Program.cs file method AddCors Policy (lines 169 to 184) we define the Cors Policy for the application restricting the requests to requests with origin from our frontend app. This is then applied to the application in line 130</t>
+  </si>
+  <si>
+    <t>Aspnet Core Application Builder and Aspnet Core Services</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/aspnet/core/security/authentication/identity-configuration?view=aspnetcore-8.0</t>
+  </si>
+  <si>
+    <t>We are using the default configuration from the Password Hasher which is 100000 iterations</t>
+  </si>
+  <si>
+    <t>In the AuthController Login method we are sending the access token and access token expiration date. In order to ensure that these cookies are only sent over HTTPS, which ensures that an attacker eavesdropping on the communication channel from the browser to the server will not be able to read the cookie (HTTPS provides authentication, data integrity and confidentiality). Additionaly,  these cookies are sent to the client with the Http Only flag, to ensure that the  JavaScript will not be able to read the cookies, which helps prevent against XSS attacks. Since the token is send as an HTTP only Cookie is never exposed in the url parameters</t>
+  </si>
+  <si>
+    <t>The backend service uses HTTPs</t>
+  </si>
+  <si>
+    <t>The backend service uses HTTPs which in turn uses the recommended version of tls</t>
+  </si>
+  <si>
+    <t>ASPT NET CORE</t>
+  </si>
+  <si>
+    <t>Code analysis do not report any of theses kinks of vulnerabillities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2412,8 +2858,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2465,6 +2923,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFA4C1FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC7EA8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3092,7 +3574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3420,7 +3902,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3432,7 +3959,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3519,7 +4046,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3613,7 +4140,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3690,49 +4217,49 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.45714285714285713</c:v>
+                  <c:v>0.51428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32727272727272727</c:v>
+                  <c:v>0.40740740740740738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.63157894736842102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.375</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>0.60869565217391308</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32954545454545453</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +4319,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74048637"/>
@@ -3843,7 +4370,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17923522"/>
@@ -3880,7 +4407,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3946,10 +4473,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4271,21 +4794,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="163" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A21" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.77734375" style="4"/>
+    <col min="6" max="1024" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4831,7 @@
       </c>
       <c r="B2" s="9">
         <f>0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10">
         <f>COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
@@ -4316,7 +4839,7 @@
       </c>
       <c r="D2" s="123">
         <f>(B2/C2)</f>
-        <v>0.45714285714285713</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -4326,15 +4849,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="123">
         <f t="shared" ref="D3:D16" si="0">(B3/C3)</f>
-        <v>0.32727272727272727</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -4344,15 +4867,15 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="123">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -4362,7 +4885,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4370,7 +4893,7 @@
       </c>
       <c r="D5" s="123">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -4380,15 +4903,15 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="123">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -4417,15 +4940,15 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="123">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -4435,7 +4958,7 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
@@ -4443,7 +4966,7 @@
       </c>
       <c r="D9" s="123">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -4471,7 +4994,7 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4479,7 +5002,7 @@
       </c>
       <c r="D11" s="123">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -4489,7 +5012,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4497,7 +5020,7 @@
       </c>
       <c r="D12" s="123">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -4507,15 +5030,15 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="123">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="E13" s="11"/>
     </row>
@@ -4525,15 +5048,15 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="123">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -4543,15 +5066,15 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="123">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="E15" s="11"/>
     </row>
@@ -4561,15 +5084,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D16" s="123">
         <f t="shared" si="0"/>
-        <v>0.32954545454545453</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -4588,24 +5111,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="158" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="25"/>
-    <col min="3" max="5" width="8.77734375" style="59"/>
-    <col min="6" max="6" width="88.77734375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" style="25"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="88.83203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="25"/>
     <col min="8" max="8" width="28.33203125" style="25" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="25" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -4638,7 +5162,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>529</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -4658,11 +5182,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="50" t="s">
+        <v>864</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="35" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>532</v>
       </c>
@@ -4681,8 +5207,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="129"/>
+    <row r="4" spans="1:10" ht="52" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>534</v>
       </c>
@@ -4700,11 +5226,15 @@
         <v>26</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="I4" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A5" s="146" t="s">
         <v>536</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -4725,8 +5255,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>539</v>
       </c>
@@ -4747,8 +5277,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>541</v>
       </c>
@@ -4767,8 +5297,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>543</v>
       </c>
@@ -4787,8 +5317,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>545</v>
       </c>
@@ -4833,24 +5363,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="188" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="25"/>
-    <col min="3" max="5" width="8.77734375" style="59"/>
-    <col min="6" max="6" width="88.44140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="88.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="25" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="96" t="s">
         <v>20</v>
       </c>
@@ -4882,7 +5413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="156">
+    <row r="2" spans="1:10" ht="153">
       <c r="A2" s="1" t="s">
         <v>547</v>
       </c>
@@ -4903,17 +5434,17 @@
         <v>26</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="146" t="s">
         <v>550</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -4934,8 +5465,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="129"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>553</v>
       </c>
@@ -4956,8 +5487,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="78">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:10" ht="68">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>555</v>
       </c>
@@ -4971,13 +5502,17 @@
       <c r="F5" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>557</v>
       </c>
@@ -4993,11 +5528,13 @@
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" ht="51">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>559</v>
       </c>
@@ -5015,11 +5552,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>561</v>
       </c>
@@ -5037,11 +5576,13 @@
         <v>26</v>
       </c>
       <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="146" t="s">
         <v>563</v>
       </c>
       <c r="B9" s="62" t="s">
@@ -5064,8 +5605,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>566</v>
       </c>
@@ -5086,8 +5627,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="93.6">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="85">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>568</v>
       </c>
@@ -5130,24 +5671,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="179" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="75" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="25"/>
-    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="1" max="1" width="23.83203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="71.33203125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="25" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="25" customWidth="1"/>
     <col min="10" max="10" width="37" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5180,7 +5722,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>570</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5200,11 +5742,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="50" t="s">
+        <v>843</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>573</v>
       </c>
@@ -5218,13 +5762,17 @@
       <c r="F3" s="80" t="s">
         <v>574</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="I3" s="30" t="s">
+        <v>844</v>
+      </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="129"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>575</v>
       </c>
@@ -5238,13 +5786,17 @@
       <c r="F4" s="80" t="s">
         <v>576</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="30" t="s">
+        <v>845</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>577</v>
       </c>
@@ -5263,12 +5815,12 @@
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="30" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" ht="52" thickBot="1">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>579</v>
       </c>
@@ -5287,8 +5839,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" ht="133.75" customHeight="1" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>581</v>
       </c>
@@ -5302,13 +5854,17 @@
       <c r="F7" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="30" t="s">
+        <v>846</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="66.75" customHeight="1" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>583</v>
       </c>
@@ -5327,8 +5883,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>585</v>
       </c>
@@ -5370,24 +5926,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="54" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" style="72" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="72" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="78.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="31.77734375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="7" max="7" width="18.83203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="45" thickBot="1">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5419,8 +5976,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:10" ht="177.5" customHeight="1" thickBot="1">
+      <c r="A2" s="146" t="s">
         <v>587</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5439,12 +5996,16 @@
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>730</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="86" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>590</v>
       </c>
@@ -5461,12 +6022,16 @@
       <c r="G3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="129"/>
+    <row r="4" spans="1:10" ht="86" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>592</v>
       </c>
@@ -5480,12 +6045,18 @@
       <c r="F4" s="80" t="s">
         <v>593</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>730</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="31.2">
+    <row r="5" spans="1:10" ht="172.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>594</v>
       </c>
@@ -5505,12 +6076,16 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>731</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="129" t="s">
+    <row r="6" spans="1:10" ht="96" customHeight="1" thickBot="1">
+      <c r="A6" s="146" t="s">
         <v>597</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -5529,12 +6104,16 @@
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>732</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" ht="171" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>600</v>
       </c>
@@ -5548,13 +6127,19 @@
       <c r="F7" s="80" t="s">
         <v>601</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>734</v>
+      </c>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="171" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>602</v>
       </c>
@@ -5568,13 +6153,19 @@
       <c r="F8" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>734</v>
+      </c>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="290" thickBot="1">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>604</v>
       </c>
@@ -5588,13 +6179,19 @@
       <c r="F9" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>735</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="222" thickBot="1">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>606</v>
       </c>
@@ -5608,13 +6205,21 @@
       <c r="F10" s="80" t="s">
         <v>607</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="129"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="137" thickBot="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>608</v>
       </c>
@@ -5628,19 +6233,27 @@
       <c r="F11" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="148.25" customHeight="1" thickBot="1">
+      <c r="A12" s="146" t="s">
         <v>610</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>611</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="127">
         <v>1</v>
       </c>
       <c r="D12" s="27">
@@ -5650,13 +6263,19 @@
       <c r="F12" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>739</v>
+      </c>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="31.2">
-      <c r="A13" s="129"/>
+    <row r="13" spans="1:10" ht="120" thickBot="1">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>613</v>
       </c>
@@ -5673,12 +6292,18 @@
       <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="H13" s="124" t="s">
+        <v>805</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="145.75" customHeight="1" thickBot="1">
+      <c r="A14" s="146" t="s">
         <v>615</v>
       </c>
       <c r="B14" s="62" t="s">
@@ -5695,14 +6320,20 @@
         <v>617</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="129"/>
+        <v>56</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="137" thickBot="1">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>618</v>
       </c>
@@ -5719,11 +6350,17 @@
       <c r="G15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:10" ht="46.8">
+      <c r="H15" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="35" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
@@ -5741,8 +6378,8 @@
         <v>622</v>
       </c>
       <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="37"/>
     </row>
   </sheetData>
@@ -5758,6 +6395,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{4B7E7F4E-EBE1-4FB3-9181-092BB1513B5D}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{6CFA0C7F-B6D0-4760-9AE6-30E1885DD60A}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{EC3A836D-044F-4894-B022-1BF632DB3535}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -5771,23 +6413,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="D1" zoomScale="108" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="72" customWidth="1"/>
-    <col min="2" max="5" width="8.77734375" style="25"/>
-    <col min="6" max="6" width="84.44140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.44140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="37.77734375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="2" max="5" width="8.83203125" style="25"/>
+    <col min="6" max="6" width="84.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -5820,7 +6464,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>623</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -5841,8 +6485,8 @@
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="18" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>626</v>
       </c>
@@ -5863,8 +6507,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="129"/>
+    <row r="4" spans="1:10" ht="357" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>628</v>
       </c>
@@ -5878,13 +6522,17 @@
       <c r="F4" s="80" t="s">
         <v>629</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="30" t="s">
+        <v>863</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>630</v>
       </c>
@@ -5905,8 +6553,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" ht="102">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>632</v>
       </c>
@@ -5923,12 +6571,16 @@
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>752</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>634</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -5949,8 +6601,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="119">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>637</v>
       </c>
@@ -5967,12 +6619,18 @@
       <c r="G8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="129"/>
+      <c r="H8" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>639</v>
       </c>
@@ -5991,8 +6649,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>641</v>
       </c>
@@ -6013,8 +6671,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>643</v>
       </c>
@@ -6032,11 +6690,15 @@
         <v>26</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="129"/>
+      <c r="I11" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="85">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>645</v>
       </c>
@@ -6056,7 +6718,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="146" t="s">
         <v>647</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -6072,13 +6734,15 @@
       <c r="F13" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>650</v>
       </c>
@@ -6097,12 +6761,12 @@
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="30" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="146" t="s">
         <v>652</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -6125,8 +6789,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="129"/>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="146"/>
       <c r="B16" s="62" t="s">
         <v>655</v>
       </c>
@@ -6141,7 +6805,7 @@
         <v>656</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>730</v>
+        <v>56</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -6173,24 +6837,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" style="25"/>
+    <col min="1" max="1" width="40.83203125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="25"/>
     <col min="6" max="6" width="88.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="25" customWidth="1"/>
     <col min="8" max="8" width="42.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="9" max="9" width="43.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="98" t="s">
         <v>20</v>
       </c>
@@ -6222,8 +6888,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="81.45" customHeight="1">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:10" ht="81.5" customHeight="1" thickBot="1">
+      <c r="A2" s="147" t="s">
         <v>657</v>
       </c>
       <c r="B2" s="99" t="s">
@@ -6241,17 +6907,17 @@
         <v>26</v>
       </c>
       <c r="H2" s="125" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I2" s="125" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="J2" s="105" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="130"/>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="147"/>
       <c r="B3" s="62" t="s">
         <v>660</v>
       </c>
@@ -6265,13 +6931,17 @@
       <c r="F3" s="109" t="s">
         <v>661</v>
       </c>
-      <c r="G3" s="110"/>
+      <c r="G3" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="I3" s="139" t="s">
+        <v>847</v>
+      </c>
       <c r="J3" s="111"/>
     </row>
-    <row r="4" spans="1:10" ht="31.8" thickBot="1">
-      <c r="A4" s="130"/>
+    <row r="4" spans="1:10" ht="35" thickBot="1">
+      <c r="A4" s="147"/>
       <c r="B4" s="62" t="s">
         <v>662</v>
       </c>
@@ -6290,8 +6960,8 @@
       <c r="I4" s="110"/>
       <c r="J4" s="111"/>
     </row>
-    <row r="5" spans="1:10" ht="78.599999999999994" thickBot="1">
-      <c r="A5" s="130"/>
+    <row r="5" spans="1:10" ht="86" thickBot="1">
+      <c r="A5" s="147"/>
       <c r="B5" s="62" t="s">
         <v>664</v>
       </c>
@@ -6307,15 +6977,15 @@
         <v>26</v>
       </c>
       <c r="H5" s="125" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I5" s="125" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="J5" s="111"/>
     </row>
-    <row r="6" spans="1:10" ht="31.8" thickBot="1">
-      <c r="A6" s="130"/>
+    <row r="6" spans="1:10" ht="35" thickBot="1">
+      <c r="A6" s="147"/>
       <c r="B6" s="62" t="s">
         <v>666</v>
       </c>
@@ -6333,7 +7003,7 @@
       <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>668</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -6353,11 +7023,13 @@
         <v>26</v>
       </c>
       <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
+      <c r="I7" s="125" t="s">
+        <v>789</v>
+      </c>
       <c r="J7" s="111"/>
     </row>
-    <row r="8" spans="1:10" ht="31.8" thickBot="1">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="35" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>671</v>
       </c>
@@ -6378,8 +7050,8 @@
       <c r="I8" s="110"/>
       <c r="J8" s="111"/>
     </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="52" thickBot="1">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>673</v>
       </c>
@@ -6398,8 +7070,8 @@
       <c r="I9" s="110"/>
       <c r="J9" s="111"/>
     </row>
-    <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="52" thickBot="1">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>675</v>
       </c>
@@ -6413,13 +7085,17 @@
       <c r="F10" s="109" t="s">
         <v>676</v>
       </c>
-      <c r="G10" s="110"/>
+      <c r="G10" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="I10" s="139" t="s">
+        <v>848</v>
+      </c>
       <c r="J10" s="111"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="52" thickBot="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>677</v>
       </c>
@@ -6431,13 +7107,21 @@
       <c r="F11" s="109" t="s">
         <v>678</v>
       </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="129"/>
+      <c r="G11" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="139" t="s">
+        <v>829</v>
+      </c>
+      <c r="I11" s="139" t="s">
+        <v>830</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="52" thickBot="1">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>679</v>
       </c>
@@ -6456,8 +7140,8 @@
       <c r="I12" s="110"/>
       <c r="J12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="129" t="s">
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="146" t="s">
         <v>681</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -6480,8 +7164,8 @@
       <c r="I13" s="110"/>
       <c r="J13" s="111"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="52" thickBot="1">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>684</v>
       </c>
@@ -6495,13 +7179,19 @@
       <c r="F14" s="109" t="s">
         <v>685</v>
       </c>
-      <c r="G14" s="110"/>
+      <c r="G14" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="129"/>
+      <c r="I14" s="139" t="s">
+        <v>849</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="35" thickBot="1">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>686</v>
       </c>
@@ -6515,13 +7205,17 @@
       <c r="F15" s="109" t="s">
         <v>687</v>
       </c>
-      <c r="G15" s="110"/>
+      <c r="G15" s="110" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="I15" s="139" t="s">
+        <v>850</v>
+      </c>
       <c r="J15" s="111"/>
     </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="129" t="s">
+    <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A16" s="146" t="s">
         <v>688</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -6541,11 +7235,13 @@
         <v>26</v>
       </c>
       <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="I16" s="139" t="s">
+        <v>851</v>
+      </c>
       <c r="J16" s="111"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="129"/>
+    <row r="17" spans="1:10" ht="35" thickBot="1">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>691</v>
       </c>
@@ -6564,8 +7260,8 @@
       <c r="I17" s="110"/>
       <c r="J17" s="111"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="129"/>
+    <row r="18" spans="1:10" ht="35" thickBot="1">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>693</v>
       </c>
@@ -6584,8 +7280,8 @@
       <c r="I18" s="110"/>
       <c r="J18" s="111"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="129"/>
+    <row r="19" spans="1:10" ht="52" thickBot="1">
+      <c r="A19" s="146"/>
       <c r="B19" s="62" t="s">
         <v>695</v>
       </c>
@@ -6599,13 +7295,21 @@
       <c r="F19" s="109" t="s">
         <v>696</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.2">
-      <c r="A20" s="129"/>
+      <c r="G19" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="140" t="s">
+        <v>750</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>853</v>
+      </c>
+      <c r="J19" s="141" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="69" thickBot="1">
+      <c r="A20" s="146"/>
       <c r="B20" s="62" t="s">
         <v>697</v>
       </c>
@@ -6619,13 +7323,21 @@
       <c r="F20" s="109" t="s">
         <v>698</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.2">
-      <c r="A21" s="129"/>
+      <c r="G20" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="140" t="s">
+        <v>750</v>
+      </c>
+      <c r="I20" s="139" t="s">
+        <v>854</v>
+      </c>
+      <c r="J20" s="111" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="52" thickBot="1">
+      <c r="A21" s="146"/>
       <c r="B21" s="62" t="s">
         <v>699</v>
       </c>
@@ -6636,16 +7348,24 @@
         <v>116</v>
       </c>
       <c r="E21" s="108"/>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="144" t="s">
         <v>700</v>
       </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="1:10" ht="62.4">
-      <c r="A22" s="129"/>
+      <c r="G21" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="139" t="s">
+        <v>750</v>
+      </c>
+      <c r="I21" s="139" t="s">
+        <v>853</v>
+      </c>
+      <c r="J21" s="141" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52" thickBot="1">
+      <c r="A22" s="146"/>
       <c r="B22" s="62" t="s">
         <v>701</v>
       </c>
@@ -6656,7 +7376,7 @@
         <v>1021</v>
       </c>
       <c r="E22" s="108"/>
-      <c r="F22" s="109" t="s">
+      <c r="F22" s="142" t="s">
         <v>702</v>
       </c>
       <c r="G22" s="110"/>
@@ -6665,7 +7385,7 @@
       <c r="J22" s="111"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="146" t="s">
         <v>703</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -6678,7 +7398,7 @@
         <v>749</v>
       </c>
       <c r="E23" s="108"/>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="142" t="s">
         <v>705</v>
       </c>
       <c r="G23" s="110"/>
@@ -6686,8 +7406,8 @@
       <c r="I23" s="110"/>
       <c r="J23" s="111"/>
     </row>
-    <row r="24" spans="1:10" ht="31.2">
-      <c r="A24" s="129"/>
+    <row r="24" spans="1:10" ht="35" thickBot="1">
+      <c r="A24" s="146"/>
       <c r="B24" s="62" t="s">
         <v>706</v>
       </c>
@@ -6706,8 +7426,8 @@
       <c r="I24" s="110"/>
       <c r="J24" s="111"/>
     </row>
-    <row r="25" spans="1:10" ht="46.8">
-      <c r="A25" s="129"/>
+    <row r="25" spans="1:10" ht="86" thickBot="1">
+      <c r="A25" s="146"/>
       <c r="B25" s="62" t="s">
         <v>708</v>
       </c>
@@ -6718,16 +7438,24 @@
         <v>346</v>
       </c>
       <c r="E25" s="108"/>
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="144" t="s">
         <v>709</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="129"/>
+      <c r="G25" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>858</v>
+      </c>
+      <c r="I25" s="139" t="s">
+        <v>859</v>
+      </c>
+      <c r="J25" s="141" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="35" thickBot="1">
+      <c r="A26" s="146"/>
       <c r="B26" s="62" t="s">
         <v>710</v>
       </c>
@@ -6742,7 +7470,7 @@
         <v>711</v>
       </c>
       <c r="G26" s="118" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H26" s="118"/>
       <c r="I26" s="118"/>
@@ -6762,6 +7490,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H19" r:id="rId1" xr:uid="{D3B363A7-52E8-423D-BE60-D81DEF234F75}"/>
+    <hyperlink ref="H20" r:id="rId2" xr:uid="{7CBB8B2F-83D4-4EC6-B358-E06F47FCF245}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -6775,25 +7507,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="136" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="14"/>
+    <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="14"/>
     <col min="3" max="3" width="10.6640625" style="14" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="14"/>
-    <col min="6" max="6" width="60.77734375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="14" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="14"/>
+    <col min="6" max="6" width="60.83203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="14" customWidth="1"/>
     <col min="8" max="8" width="36" style="14" customWidth="1"/>
-    <col min="9" max="9" width="52.109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="52.1640625" style="14" customWidth="1"/>
     <col min="10" max="10" width="41.6640625" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="14"/>
+    <col min="11" max="1024" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="42.6" thickBot="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="45" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -6826,7 +7559,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="25" customFormat="1" ht="201" customHeight="1" thickBot="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="145" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -6853,8 +7586,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A3" s="128"/>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A3" s="145"/>
       <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
@@ -6881,8 +7614,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A4" s="128"/>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A4" s="145"/>
       <c r="B4" s="18" t="s">
         <v>39</v>
       </c>
@@ -6910,7 +7643,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A5" s="128"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="18" t="s">
         <v>42</v>
       </c>
@@ -6938,7 +7671,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="25" customFormat="1" ht="196.5" customHeight="1" thickBot="1">
-      <c r="A6" s="128"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="18" t="s">
         <v>45</v>
       </c>
@@ -6966,7 +7699,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="A7" s="128"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
@@ -6993,8 +7726,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A8" s="128"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="409.6" thickBot="1">
+      <c r="A8" s="145"/>
       <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
@@ -7008,13 +7741,17 @@
       <c r="F8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30" t="s">
+        <v>811</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="84" customHeight="1" thickBot="1">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="145" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -7038,7 +7775,7 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="213.75" customHeight="1">
-      <c r="A10" s="128"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
@@ -7066,7 +7803,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="25" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A11" s="128"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="18" t="s">
         <v>60</v>
       </c>
@@ -7089,8 +7826,8 @@
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A12" s="128"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A12" s="145"/>
       <c r="B12" s="18" t="s">
         <v>62</v>
       </c>
@@ -7109,7 +7846,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="42">
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="44">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -7132,7 +7869,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="145" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -7153,8 +7890,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="15.6">
-      <c r="A15" s="128"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="17">
+      <c r="A15" s="145"/>
       <c r="B15" s="18" t="s">
         <v>69</v>
       </c>
@@ -7179,8 +7916,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A16" s="128"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="18" thickBot="1">
+      <c r="A16" s="145"/>
       <c r="B16" s="18" t="s">
         <v>71</v>
       </c>
@@ -7205,8 +7942,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="140.4">
-      <c r="A17" s="128"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="153">
+      <c r="A17" s="145"/>
       <c r="B17" s="18" t="s">
         <v>73</v>
       </c>
@@ -7233,8 +7970,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A18" s="128"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A18" s="145"/>
       <c r="B18" s="18" t="s">
         <v>76</v>
       </c>
@@ -7262,7 +7999,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="145" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -7285,8 +8022,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="94.2" thickBot="1">
-      <c r="A20" s="128"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
+      <c r="A20" s="145"/>
       <c r="B20" s="18" t="s">
         <v>82</v>
       </c>
@@ -7312,7 +8049,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="207.75" customHeight="1" thickBot="1">
-      <c r="A21" s="128"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="18" t="s">
         <v>85</v>
       </c>
@@ -7337,8 +8074,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="187.8" thickBot="1">
-      <c r="A22" s="128"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="188" thickBot="1">
+      <c r="A22" s="145"/>
       <c r="B22" s="18" t="s">
         <v>88</v>
       </c>
@@ -7364,7 +8101,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="145" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -7385,8 +8122,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A24" s="128"/>
+    <row r="24" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A24" s="145"/>
       <c r="B24" s="18" t="s">
         <v>94</v>
       </c>
@@ -7405,8 +8142,8 @@
       <c r="I24" s="28"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="31.8" thickBot="1">
-      <c r="A25" s="128"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="35" thickBot="1">
+      <c r="A25" s="145"/>
       <c r="B25" s="18" t="s">
         <v>96</v>
       </c>
@@ -7426,7 +8163,7 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1" ht="190.5" customHeight="1" thickBot="1">
-      <c r="A26" s="128"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="18" t="s">
         <v>98</v>
       </c>
@@ -7450,7 +8187,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="25" customFormat="1" ht="66.75" customHeight="1" thickBot="1">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="145" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -7475,8 +8212,8 @@
       </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A28" s="128"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A28" s="145"/>
       <c r="B28" s="18" t="s">
         <v>106</v>
       </c>
@@ -7494,7 +8231,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="145" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -7513,8 +8250,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="78">
-      <c r="A30" s="128"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A30" s="145"/>
       <c r="B30" s="18" t="s">
         <v>111</v>
       </c>
@@ -7532,7 +8269,7 @@
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="145" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="18" t="s">
@@ -7553,8 +8290,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A32" s="128"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+      <c r="A32" s="145"/>
       <c r="B32" s="18" t="s">
         <v>116</v>
       </c>
@@ -7573,7 +8310,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="109.8" thickBot="1">
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>118</v>
       </c>
@@ -7602,7 +8339,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A34" s="128" t="s">
+      <c r="A34" s="145" t="s">
         <v>123</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -7623,8 +8360,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A35" s="128"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A35" s="145"/>
       <c r="B35" s="18" t="s">
         <v>126</v>
       </c>
@@ -7643,8 +8380,8 @@
       <c r="I35" s="28"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A36" s="128"/>
+    <row r="36" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A36" s="145"/>
       <c r="B36" s="18" t="s">
         <v>128</v>
       </c>
@@ -7664,7 +8401,7 @@
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="145" t="s">
         <v>130</v>
       </c>
       <c r="B37" s="18" t="s">
@@ -7693,8 +8430,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A38" s="128"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A38" s="145"/>
       <c r="B38" s="18" t="s">
         <v>133</v>
       </c>
@@ -7713,7 +8450,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="1:10" s="25" customFormat="1">
+    <row r="39" spans="1:10" s="25" customFormat="1" ht="22">
       <c r="A39" s="2" t="s">
         <v>135</v>
       </c>
@@ -7737,8 +8474,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="58.95" customHeight="1">
-      <c r="A40" s="128" t="s">
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="59" customHeight="1">
+      <c r="A40" s="145" t="s">
         <v>136</v>
       </c>
       <c r="B40" s="18" t="s">
@@ -7760,7 +8497,7 @@
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" s="25" customFormat="1" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A41" s="128"/>
+      <c r="A41" s="145"/>
       <c r="B41" s="18" t="s">
         <v>139</v>
       </c>
@@ -7788,7 +8525,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1" thickBot="1">
-      <c r="A42" s="128"/>
+      <c r="A42" s="145"/>
       <c r="B42" s="18" t="s">
         <v>142</v>
       </c>
@@ -7813,8 +8550,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A43" s="128"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+      <c r="A43" s="145"/>
       <c r="B43" s="18" t="s">
         <v>146</v>
       </c>
@@ -7826,13 +8563,19 @@
       <c r="F43" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="32"/>
-    </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="109.8" thickBot="1">
-      <c r="A44" s="128"/>
+      <c r="I43" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="103" thickBot="1">
+      <c r="A44" s="145"/>
       <c r="B44" s="18" t="s">
         <v>148</v>
       </c>
@@ -7855,8 +8598,8 @@
       </c>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" s="25" customFormat="1" ht="63" thickBot="1">
-      <c r="A45" s="128"/>
+    <row r="45" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A45" s="145"/>
       <c r="B45" s="18" t="s">
         <v>151</v>
       </c>
@@ -7886,13 +8629,13 @@
     <row r="46" spans="1:10">
       <c r="G46" s="14">
         <f>COUNTIF(G2:G45,"")</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="G47" s="14">
         <f>COUNTIF(G2:G45,"*")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J47" s="122"/>
     </row>
@@ -7940,25 +8683,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" zoomScale="189" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="38"/>
-    <col min="3" max="3" width="14.77734375" style="39" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="39"/>
+    <col min="2" max="2" width="8.83203125" style="38"/>
+    <col min="3" max="3" width="14.83203125" style="39" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="39"/>
     <col min="6" max="6" width="73" style="14" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="29" style="14" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="14"/>
+    <col min="7" max="7" width="25.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="63.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="39.83203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" style="14" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="23" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -7990,8 +8735,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="146" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="44" t="s">
@@ -8012,12 +8757,18 @@
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A3" s="129"/>
+      <c r="H2" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>769</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A3" s="146"/>
       <c r="B3" s="44" t="s">
         <v>158</v>
       </c>
@@ -8036,12 +8787,18 @@
       <c r="G3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A4" s="129"/>
+      <c r="H3" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A4" s="146"/>
       <c r="B4" s="44" t="s">
         <v>160</v>
       </c>
@@ -8060,12 +8817,18 @@
       <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A5" s="129"/>
+      <c r="H4" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A5" s="146"/>
       <c r="B5" s="44" t="s">
         <v>162</v>
       </c>
@@ -8088,8 +8851,8 @@
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="15.6">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A6" s="146"/>
       <c r="B6" s="44" t="s">
         <v>164</v>
       </c>
@@ -8108,12 +8871,14 @@
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="30" t="s">
+        <v>776</v>
+      </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="44" t="s">
         <v>166</v>
       </c>
@@ -8132,12 +8897,14 @@
       <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="30" t="s">
+        <v>776</v>
+      </c>
       <c r="I7" s="30"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="140.4">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="137" thickBot="1">
+      <c r="A8" s="146"/>
       <c r="B8" s="44" t="s">
         <v>168</v>
       </c>
@@ -8156,12 +8923,16 @@
       <c r="G8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>778</v>
+      </c>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
+      <c r="A9" s="146"/>
       <c r="B9" s="44" t="s">
         <v>170</v>
       </c>
@@ -8177,13 +8948,19 @@
       <c r="F9" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="G9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>828</v>
+      </c>
       <c r="J9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+      <c r="A10" s="146"/>
       <c r="B10" s="44" t="s">
         <v>172</v>
       </c>
@@ -8206,8 +8983,8 @@
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
     </row>
-    <row r="11" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" s="25" customFormat="1" ht="38" customHeight="1" thickBot="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="44" t="s">
         <v>174</v>
       </c>
@@ -8230,8 +9007,8 @@
       <c r="I11" s="30"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A12" s="129"/>
+    <row r="12" spans="1:10" s="25" customFormat="1" ht="137" thickBot="1">
+      <c r="A12" s="146"/>
       <c r="B12" s="44" t="s">
         <v>176</v>
       </c>
@@ -8247,13 +9024,19 @@
       <c r="F12" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>820</v>
+      </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A13" s="129"/>
+    <row r="13" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
+      <c r="A13" s="146"/>
       <c r="B13" s="44" t="s">
         <v>178</v>
       </c>
@@ -8269,13 +9052,19 @@
       <c r="F13" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>818</v>
+      </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="129" t="s">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="111" customHeight="1" thickBot="1">
+      <c r="A14" s="146" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="44" t="s">
@@ -8294,12 +9083,15 @@
         <v>183</v>
       </c>
       <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="30" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">E13:H14</f>
+        <v>0</v>
+      </c>
       <c r="I14" s="30"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="78">
-      <c r="A15" s="129"/>
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="85">
+      <c r="A15" s="146"/>
       <c r="B15" s="44" t="s">
         <v>184</v>
       </c>
@@ -8315,13 +9107,19 @@
       <c r="F15" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="G15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A16" s="129"/>
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="85">
+      <c r="A16" s="146"/>
       <c r="B16" s="44" t="s">
         <v>187</v>
       </c>
@@ -8340,8 +9138,8 @@
       <c r="I16" s="30"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A17" s="129"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A17" s="146"/>
       <c r="B17" s="44" t="s">
         <v>189</v>
       </c>
@@ -8362,8 +9160,8 @@
       <c r="I17" s="30"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A18" s="129"/>
+    <row r="18" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A18" s="146"/>
       <c r="B18" s="44" t="s">
         <v>192</v>
       </c>
@@ -8384,8 +9182,8 @@
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
     </row>
-    <row r="19" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A19" s="129"/>
+    <row r="19" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A19" s="146"/>
       <c r="B19" s="44" t="s">
         <v>195</v>
       </c>
@@ -8406,8 +9204,8 @@
       <c r="I19" s="30"/>
       <c r="J19" s="31"/>
     </row>
-    <row r="20" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A20" s="129"/>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A20" s="146"/>
       <c r="B20" s="44" t="s">
         <v>198</v>
       </c>
@@ -8429,7 +9227,7 @@
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="146" t="s">
         <v>201</v>
       </c>
       <c r="B21" s="44" t="s">
@@ -8454,8 +9252,8 @@
       <c r="I21" s="30"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A22" s="129"/>
+    <row r="22" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A22" s="146"/>
       <c r="B22" s="44" t="s">
         <v>205</v>
       </c>
@@ -8472,14 +9270,14 @@
         <v>207</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A23" s="129"/>
+    <row r="23" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A23" s="146"/>
       <c r="B23" s="44" t="s">
         <v>208</v>
       </c>
@@ -8501,7 +9299,7 @@
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="146" t="s">
         <v>211</v>
       </c>
       <c r="B24" s="44" t="s">
@@ -8522,14 +9320,16 @@
       <c r="G24" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="I24" s="30" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J24" s="31"/>
     </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="93.6">
-      <c r="A25" s="129"/>
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="86" thickBot="1">
+      <c r="A25" s="146"/>
       <c r="B25" s="44" t="s">
         <v>214</v>
       </c>
@@ -8548,14 +9348,16 @@
       <c r="G25" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="I25" s="30" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J25" s="31"/>
     </row>
-    <row r="26" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A26" s="129"/>
+    <row r="26" spans="1:10" s="25" customFormat="1" ht="130.75" customHeight="1" thickBot="1">
+      <c r="A26" s="146"/>
       <c r="B26" s="44" t="s">
         <v>216</v>
       </c>
@@ -8574,14 +9376,16 @@
       <c r="G26" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
-        <v>729</v>
+      <c r="H26" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="I26" s="143" t="s">
+        <v>862</v>
       </c>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A27" s="129"/>
+    <row r="27" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A27" s="146"/>
       <c r="B27" s="44" t="s">
         <v>218</v>
       </c>
@@ -8604,8 +9408,8 @@
       <c r="I27" s="30"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" spans="1:10" s="25" customFormat="1" ht="109.2">
-      <c r="A28" s="129"/>
+    <row r="28" spans="1:10" s="25" customFormat="1" ht="102">
+      <c r="A28" s="146"/>
       <c r="B28" s="44" t="s">
         <v>220</v>
       </c>
@@ -8627,7 +9431,7 @@
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="146" t="s">
         <v>222</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -8650,8 +9454,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A30" s="129"/>
+    <row r="30" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A30" s="146"/>
       <c r="B30" s="44" t="s">
         <v>225</v>
       </c>
@@ -8670,12 +9474,16 @@
       <c r="G30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="H30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A31" s="129"/>
+    <row r="31" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A31" s="146"/>
       <c r="B31" s="44" t="s">
         <v>227</v>
       </c>
@@ -8696,8 +9504,8 @@
       <c r="I31" s="28"/>
       <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A32" s="129"/>
+    <row r="32" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A32" s="146"/>
       <c r="B32" s="44" t="s">
         <v>229</v>
       </c>
@@ -8716,12 +9524,16 @@
       <c r="G32" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="H32" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>842</v>
+      </c>
       <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A33" s="129"/>
+    <row r="33" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A33" s="146"/>
       <c r="B33" s="44" t="s">
         <v>231</v>
       </c>
@@ -8742,8 +9554,8 @@
       <c r="I33" s="28"/>
       <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="1:10" s="25" customFormat="1" ht="62.4">
-      <c r="A34" s="129"/>
+    <row r="34" spans="1:10" s="25" customFormat="1" ht="68">
+      <c r="A34" s="146"/>
       <c r="B34" s="44" t="s">
         <v>234</v>
       </c>
@@ -8764,8 +9576,8 @@
       <c r="I34" s="28"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A35" s="129"/>
+    <row r="35" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A35" s="146"/>
       <c r="B35" s="44" t="s">
         <v>236</v>
       </c>
@@ -8787,7 +9599,7 @@
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="146" t="s">
         <v>238</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -8810,8 +9622,8 @@
       <c r="I36" s="28"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A37" s="129"/>
+    <row r="37" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A37" s="146"/>
       <c r="B37" s="44" t="s">
         <v>242</v>
       </c>
@@ -8832,8 +9644,8 @@
       <c r="I37" s="28"/>
       <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A38" s="129"/>
+    <row r="38" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A38" s="146"/>
       <c r="B38" s="44" t="s">
         <v>244</v>
       </c>
@@ -8855,7 +9667,7 @@
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="146" t="s">
         <v>246</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -8878,8 +9690,8 @@
       <c r="I39" s="28"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A40" s="129"/>
+    <row r="40" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A40" s="146"/>
       <c r="B40" s="44" t="s">
         <v>250</v>
       </c>
@@ -8900,8 +9712,8 @@
       <c r="I40" s="28"/>
       <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A41" s="129"/>
+    <row r="41" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A41" s="146"/>
       <c r="B41" s="44" t="s">
         <v>252</v>
       </c>
@@ -8922,8 +9734,8 @@
       <c r="I41" s="28"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A42" s="129"/>
+    <row r="42" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A42" s="146"/>
       <c r="B42" s="44" t="s">
         <v>254</v>
       </c>
@@ -8944,8 +9756,8 @@
       <c r="I42" s="28"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A43" s="129"/>
+    <row r="43" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A43" s="146"/>
       <c r="B43" s="44" t="s">
         <v>256</v>
       </c>
@@ -8966,8 +9778,8 @@
       <c r="I43" s="28"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A44" s="129"/>
+    <row r="44" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A44" s="146"/>
       <c r="B44" s="44" t="s">
         <v>258</v>
       </c>
@@ -8989,7 +9801,7 @@
       <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="146" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="44" t="s">
@@ -9012,8 +9824,8 @@
       <c r="I45" s="28"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A46" s="129"/>
+    <row r="46" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A46" s="146"/>
       <c r="B46" s="44" t="s">
         <v>264</v>
       </c>
@@ -9034,8 +9846,8 @@
       <c r="I46" s="28"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A47" s="129"/>
+    <row r="47" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A47" s="146"/>
       <c r="B47" s="44" t="s">
         <v>266</v>
       </c>
@@ -9056,8 +9868,8 @@
       <c r="I47" s="28"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A48" s="129"/>
+    <row r="48" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A48" s="146"/>
       <c r="B48" s="44" t="s">
         <v>268</v>
       </c>
@@ -9078,8 +9890,8 @@
       <c r="I48" s="28"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A49" s="129"/>
+    <row r="49" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A49" s="146"/>
       <c r="B49" s="44" t="s">
         <v>270</v>
       </c>
@@ -9100,8 +9912,8 @@
       <c r="I49" s="28"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A50" s="129"/>
+    <row r="50" spans="1:10" s="25" customFormat="1" ht="51">
+      <c r="A50" s="146"/>
       <c r="B50" s="44" t="s">
         <v>273</v>
       </c>
@@ -9122,8 +9934,8 @@
       <c r="I50" s="28"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A51" s="129"/>
+    <row r="51" spans="1:10" s="25" customFormat="1" ht="34">
+      <c r="A51" s="146"/>
       <c r="B51" s="44" t="s">
         <v>276</v>
       </c>
@@ -9145,7 +9957,7 @@
       <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:10" s="25" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="146" t="s">
         <v>279</v>
       </c>
       <c r="B52" s="44" t="s">
@@ -9168,8 +9980,8 @@
       <c r="I52" s="28"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A53" s="129"/>
+    <row r="53" spans="1:10" s="25" customFormat="1" ht="35" thickBot="1">
+      <c r="A53" s="146"/>
       <c r="B53" s="44" t="s">
         <v>283</v>
       </c>
@@ -9190,8 +10002,8 @@
       <c r="I53" s="28"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" s="25" customFormat="1" ht="31.2">
-      <c r="A54" s="129"/>
+    <row r="54" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A54" s="146"/>
       <c r="B54" s="44" t="s">
         <v>285</v>
       </c>
@@ -9210,12 +10022,16 @@
       <c r="G54" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="H54" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="129" t="s">
+    <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A55" s="146" t="s">
         <v>287</v>
       </c>
       <c r="B55" s="44" t="s">
@@ -9233,13 +10049,15 @@
       <c r="F55" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G55" s="28"/>
+      <c r="G55" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A56" s="129"/>
+    <row r="56" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A56" s="146"/>
       <c r="B56" s="44" t="s">
         <v>292</v>
       </c>
@@ -9258,12 +10076,16 @@
       <c r="G56" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="H56" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>780</v>
+      </c>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" s="25" customFormat="1" ht="46.8">
-      <c r="A57" s="129"/>
+    <row r="57" spans="1:10" s="25" customFormat="1" ht="52" thickBot="1">
+      <c r="A57" s="146"/>
       <c r="B57" s="44" t="s">
         <v>294</v>
       </c>
@@ -9282,12 +10104,18 @@
       <c r="G57" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="32"/>
-    </row>
-    <row r="58" spans="1:10" s="25" customFormat="1" ht="78">
-      <c r="A58" s="129"/>
+      <c r="H57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="25" customFormat="1" ht="86" thickBot="1">
+      <c r="A58" s="146"/>
       <c r="B58" s="44" t="s">
         <v>296</v>
       </c>
@@ -9344,25 +10172,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="109" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="59"/>
+    <col min="1" max="1" width="40.83203125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="70" style="25" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="25" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.77734375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="10" max="10" width="42.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="60" t="s">
         <v>20</v>
       </c>
@@ -9394,7 +10224,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42">
+    <row r="2" spans="1:10" ht="289">
       <c r="A2" s="1" t="s">
         <v>298</v>
       </c>
@@ -9411,13 +10241,17 @@
       <c r="F2" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="30" t="s">
+        <v>863</v>
+      </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:10" ht="174" customHeight="1">
+      <c r="A3" s="146" t="s">
         <v>301</v>
       </c>
       <c r="B3" s="62" t="s">
@@ -9435,13 +10269,21 @@
       <c r="F3" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="129"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>304</v>
       </c>
@@ -9457,13 +10299,21 @@
       <c r="F4" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="129"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="255">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>306</v>
       </c>
@@ -9479,13 +10329,21 @@
       <c r="F5" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="129"/>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="85">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>308</v>
       </c>
@@ -9501,13 +10359,21 @@
       <c r="F6" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>310</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -9525,13 +10391,21 @@
       <c r="F7" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10" ht="109.2">
-      <c r="A8" s="129"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>800</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="102">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>313</v>
       </c>
@@ -9552,8 +10426,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="68">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>315</v>
       </c>
@@ -9572,8 +10446,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>317</v>
       </c>
@@ -9594,8 +10468,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="129" t="s">
+    <row r="11" spans="1:10" ht="155.5" customHeight="1">
+      <c r="A11" s="146" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -9613,13 +10487,21 @@
       <c r="F11" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="129"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="119">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>323</v>
       </c>
@@ -9635,35 +10517,45 @@
       <c r="F12" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="129"/>
-      <c r="B13" s="62" t="s">
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="146"/>
+      <c r="B13" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="134">
         <v>1</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="135">
         <v>16</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="136" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="137" t="s">
         <v>326</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="G13" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="30"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="85">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>327</v>
       </c>
@@ -9679,13 +10571,21 @@
       <c r="F14" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="1:10" ht="78">
-      <c r="A15" s="129"/>
+      <c r="G14" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="85">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>329</v>
       </c>
@@ -9707,7 +10607,7 @@
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="146" t="s">
         <v>331</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -9730,8 +10630,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="129"/>
+    <row r="17" spans="1:10" ht="153">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>335</v>
       </c>
@@ -9745,13 +10645,21 @@
       <c r="F17" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" ht="46.8">
-      <c r="A18" s="129"/>
+      <c r="G17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>337</v>
       </c>
@@ -9765,13 +10673,15 @@
       <c r="F18" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="146" t="s">
         <v>339</v>
       </c>
       <c r="B19" s="62" t="s">
@@ -9794,8 +10704,8 @@
       <c r="I19" s="28"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="46.8">
-      <c r="A20" s="129"/>
+    <row r="20" spans="1:10" ht="51">
+      <c r="A20" s="146"/>
       <c r="B20" s="62" t="s">
         <v>343</v>
       </c>
@@ -9816,7 +10726,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="46.8">
+    <row r="21" spans="1:10" ht="85">
       <c r="A21" s="1" t="s">
         <v>345</v>
       </c>
@@ -9833,9 +10743,13 @@
       <c r="F21" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="120" t="s">
+        <v>839</v>
+      </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" s="25" customFormat="1">
@@ -9855,6 +10769,7 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A20"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
@@ -9874,22 +10789,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="72" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="72" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="59"/>
+    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="68.6640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="25" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" style="25" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="10" max="10" width="42.1640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="76" customFormat="1">
@@ -9925,7 +10841,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>348</v>
       </c>
       <c r="B2" s="77" t="s">
@@ -9944,12 +10860,18 @@
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="129"/>
+      <c r="H2" s="50" t="s">
+        <v>825</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="102">
+      <c r="A3" s="146"/>
       <c r="B3" s="77" t="s">
         <v>351</v>
       </c>
@@ -9963,13 +10885,21 @@
       <c r="F3" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="93.6">
-      <c r="A4" s="129"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" s="146"/>
       <c r="B4" s="77" t="s">
         <v>353</v>
       </c>
@@ -9983,13 +10913,19 @@
       <c r="F4" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>824</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="146"/>
       <c r="B5" s="77" t="s">
         <v>355</v>
       </c>
@@ -10010,8 +10946,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="146"/>
       <c r="B6" s="77" t="s">
         <v>356</v>
       </c>
@@ -10031,7 +10967,7 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>358</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -10047,13 +10983,15 @@
       <c r="F7" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="146"/>
       <c r="B8" s="77" t="s">
         <v>361</v>
       </c>
@@ -10073,7 +11011,7 @@
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="146" t="s">
         <v>363</v>
       </c>
       <c r="B9" s="77" t="s">
@@ -10094,8 +11032,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="146"/>
       <c r="B10" s="77" t="s">
         <v>366</v>
       </c>
@@ -10109,13 +11047,15 @@
       <c r="F10" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="146"/>
       <c r="B11" s="77" t="s">
         <v>368</v>
       </c>
@@ -10140,7 +11080,7 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Valid,Non-valid,Not Applicable"</formula1>
       <formula2>0</formula2>
@@ -10159,24 +11099,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="136" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30:J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="25" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="1" max="1" width="53.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="25" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="60.6640625" style="25" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="25" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" style="25" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" style="25" customWidth="1"/>
     <col min="10" max="10" width="29" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -10209,7 +11150,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>370</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -10232,8 +11173,8 @@
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="93.6">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="85">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>373</v>
       </c>
@@ -10247,13 +11188,21 @@
       <c r="F3" s="80" t="s">
         <v>374</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="78">
-      <c r="A4" s="129"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>741</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>375</v>
       </c>
@@ -10267,13 +11216,21 @@
       <c r="F4" s="80" t="s">
         <v>376</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="109.2">
-      <c r="A5" s="129"/>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="102">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>377</v>
       </c>
@@ -10290,12 +11247,18 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="129"/>
+      <c r="H5" s="124" t="s">
+        <v>744</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>379</v>
       </c>
@@ -10309,13 +11272,15 @@
       <c r="F6" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="146" t="s">
         <v>381</v>
       </c>
       <c r="B7" s="62" t="s">
@@ -10331,13 +11296,15 @@
       <c r="F7" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="136">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>383</v>
       </c>
@@ -10351,13 +11318,21 @@
       <c r="F8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="129"/>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="124" t="s">
+        <v>741</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>277</v>
       </c>
@@ -10371,13 +11346,17 @@
       <c r="F9" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="I9" s="30" t="s">
+        <v>754</v>
+      </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>386</v>
       </c>
@@ -10388,16 +11367,16 @@
         <v>95</v>
       </c>
       <c r="E10" s="67"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="129" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="102">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>190</v>
       </c>
@@ -10411,13 +11390,21 @@
       <c r="F11" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="1:10" ht="62.4">
-      <c r="A12" s="129"/>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>755</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="153">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>193</v>
       </c>
@@ -10431,13 +11418,21 @@
       <c r="F12" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="129"/>
+      <c r="G12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="102">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>390</v>
       </c>
@@ -10451,13 +11446,19 @@
       <c r="F13" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>763</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="62.4">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>196</v>
       </c>
@@ -10477,7 +11478,7 @@
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="146" t="s">
         <v>393</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -10498,8 +11499,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="62.4">
-      <c r="A16" s="129"/>
+    <row r="16" spans="1:10" ht="68">
+      <c r="A16" s="146"/>
       <c r="B16" s="62" t="s">
         <v>396</v>
       </c>
@@ -10518,8 +11519,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="62.4">
-      <c r="A17" s="129"/>
+    <row r="17" spans="1:10" ht="68">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>398</v>
       </c>
@@ -10538,8 +11539,8 @@
       <c r="I17" s="28"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="78">
-      <c r="A18" s="129"/>
+    <row r="18" spans="1:10" ht="119">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>400</v>
       </c>
@@ -10553,13 +11554,21 @@
       <c r="F18" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="78">
-      <c r="A19" s="129"/>
+      <c r="G18" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="119">
+      <c r="A19" s="146"/>
       <c r="B19" s="62" t="s">
         <v>402</v>
       </c>
@@ -10573,13 +11582,21 @@
       <c r="F19" s="80" t="s">
         <v>403</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" ht="62.4">
-      <c r="A20" s="129"/>
+      <c r="G19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="68">
+      <c r="A20" s="146"/>
       <c r="B20" s="62" t="s">
         <v>404</v>
       </c>
@@ -10593,13 +11610,19 @@
       <c r="F20" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" ht="78">
-      <c r="A21" s="129"/>
+      <c r="I20" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="68">
+      <c r="A21" s="146"/>
       <c r="B21" s="62" t="s">
         <v>406</v>
       </c>
@@ -10618,8 +11641,8 @@
       <c r="I21" s="28"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="78">
-      <c r="A22" s="129"/>
+    <row r="22" spans="1:10" ht="85">
+      <c r="A22" s="146"/>
       <c r="B22" s="62" t="s">
         <v>408</v>
       </c>
@@ -10638,8 +11661,8 @@
       <c r="I22" s="28"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" ht="31.2">
-      <c r="A23" s="129"/>
+    <row r="23" spans="1:10" ht="34">
+      <c r="A23" s="146"/>
       <c r="B23" s="62" t="s">
         <v>410</v>
       </c>
@@ -10658,8 +11681,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="46.8">
-      <c r="A24" s="129"/>
+    <row r="24" spans="1:10" ht="51">
+      <c r="A24" s="146"/>
       <c r="B24" s="62" t="s">
         <v>412</v>
       </c>
@@ -10679,7 +11702,7 @@
       <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="146" t="s">
         <v>414</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -10702,8 +11725,8 @@
       <c r="I25" s="28"/>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="129"/>
+    <row r="26" spans="1:10" ht="34">
+      <c r="A26" s="146"/>
       <c r="B26" s="62" t="s">
         <v>417</v>
       </c>
@@ -10722,8 +11745,8 @@
       <c r="I26" s="28"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" ht="31.2">
-      <c r="A27" s="129"/>
+    <row r="27" spans="1:10" ht="34">
+      <c r="A27" s="146"/>
       <c r="B27" s="62" t="s">
         <v>419</v>
       </c>
@@ -10745,7 +11768,7 @@
       <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="146" t="s">
         <v>421</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -10766,8 +11789,8 @@
       <c r="I28" s="28"/>
       <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="1:10" ht="62.4">
-      <c r="A29" s="129"/>
+    <row r="29" spans="1:10" ht="68">
+      <c r="A29" s="146"/>
       <c r="B29" s="62" t="s">
         <v>424</v>
       </c>
@@ -10786,8 +11809,8 @@
       <c r="I29" s="28"/>
       <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="1:10" ht="46.8">
-      <c r="A30" s="129"/>
+    <row r="30" spans="1:10" ht="68">
+      <c r="A30" s="146"/>
       <c r="B30" s="62" t="s">
         <v>426</v>
       </c>
@@ -10801,13 +11824,19 @@
       <c r="F30" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" ht="46.8">
-      <c r="A31" s="129"/>
+      <c r="I30" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="51">
+      <c r="A31" s="146"/>
       <c r="B31" s="62" t="s">
         <v>428</v>
       </c>
@@ -10840,6 +11869,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{B133EA5C-215F-4F82-B061-87267337713C}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{74A95890-29DB-4206-AA71-E1FFD6D5B8BA}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{C436AAA2-7F1E-4316-AE16-1309F049D81B}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -10853,25 +11887,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="132" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="72" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="59"/>
-    <col min="6" max="6" width="97.109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
+    <col min="6" max="6" width="97.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="25" customWidth="1"/>
     <col min="9" max="9" width="34.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
@@ -10904,7 +11940,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>430</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -10917,7 +11953,7 @@
         <v>311</v>
       </c>
       <c r="E2" s="64"/>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="130" t="s">
         <v>432</v>
       </c>
       <c r="G2" s="49" t="s">
@@ -10926,13 +11962,11 @@
       <c r="H2" s="50" t="s">
         <v>714</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>715</v>
-      </c>
+      <c r="I2" s="50"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>433</v>
       </c>
@@ -10953,8 +11987,8 @@
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="129"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>206</v>
       </c>
@@ -10974,7 +12008,7 @@
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="146" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="62" t="s">
@@ -10995,8 +12029,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="129"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>439</v>
       </c>
@@ -11014,11 +12048,13 @@
         <v>26</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="30" t="s">
+        <v>781</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>441</v>
       </c>
@@ -11037,8 +12073,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="129"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="146"/>
       <c r="B8" s="62" t="s">
         <v>443</v>
       </c>
@@ -11057,8 +12093,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="93.6">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>445</v>
       </c>
@@ -11076,15 +12112,15 @@
         <v>26</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>447</v>
       </c>
@@ -11102,13 +12138,13 @@
         <v>26</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="34">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>449</v>
       </c>
@@ -11127,8 +12163,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="31.2">
-      <c r="A12" s="129"/>
+    <row r="12" spans="1:10" ht="34">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>451</v>
       </c>
@@ -11148,7 +12184,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="146" t="s">
         <v>453</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -11168,11 +12204,13 @@
         <v>26</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="I13" s="30" t="s">
+        <v>782</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>456</v>
       </c>
@@ -11190,11 +12228,13 @@
         <v>26</v>
       </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="I14" s="30" t="s">
+        <v>782</v>
+      </c>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="129"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>458</v>
       </c>
@@ -11213,12 +12253,12 @@
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="146" t="s">
         <v>460</v>
       </c>
       <c r="B16" s="62" t="s">
@@ -11239,12 +12279,14 @@
       </c>
       <c r="H16" s="28"/>
       <c r="I16" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="129"/>
+        <v>761</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="34">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>463</v>
       </c>
@@ -11289,25 +12331,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" zoomScale="125" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="F1" zoomScale="75" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="72" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="72" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="59" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="59"/>
+    <col min="3" max="3" width="15.1640625" style="59" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="80.33203125" style="25" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="25" customWidth="1"/>
     <col min="8" max="8" width="31" style="25" customWidth="1"/>
-    <col min="9" max="9" width="24" style="25" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="9" max="9" width="35" style="25" customWidth="1"/>
+    <col min="10" max="10" width="35.1640625" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="87" customFormat="1">
+    <row r="1" spans="1:10" s="87" customFormat="1" ht="22">
       <c r="A1" s="83" t="s">
         <v>20</v>
       </c>
@@ -11339,8 +12383,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A2" s="146" t="s">
         <v>465</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11360,11 +12404,15 @@
         <v>26</v>
       </c>
       <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="129"/>
+      <c r="I2" s="92" t="s">
+        <v>786</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="52" thickBot="1">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>333</v>
       </c>
@@ -11382,11 +12430,15 @@
         <v>26</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="62.4">
-      <c r="A4" s="129"/>
+      <c r="I3" s="92" t="s">
+        <v>786</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52" thickBot="1">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>468</v>
       </c>
@@ -11404,11 +12456,15 @@
         <v>26</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="129"/>
+      <c r="I4" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="52" thickBot="1">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>470</v>
       </c>
@@ -11426,11 +12482,15 @@
         <v>26</v>
       </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="I5" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
+      <c r="A6" s="146" t="s">
         <v>472</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -11450,11 +12510,15 @@
         <v>26</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:10" ht="46.8">
-      <c r="A7" s="129"/>
+      <c r="I6" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="J6" s="93" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="35" thickBot="1">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>474</v>
       </c>
@@ -11474,7 +12538,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="146" t="s">
         <v>476</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -11495,8 +12559,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="129"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>479</v>
       </c>
@@ -11517,8 +12581,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>481</v>
       </c>
@@ -11537,8 +12601,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="129"/>
+    <row r="11" spans="1:10" ht="51">
+      <c r="A11" s="146"/>
       <c r="B11" s="62" t="s">
         <v>483</v>
       </c>
@@ -11550,15 +12614,17 @@
       <c r="F11" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="G11" s="126" t="s">
-        <v>26</v>
+      <c r="G11" s="131" t="s">
+        <v>56</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="I11" s="30" t="s">
+        <v>783</v>
+      </c>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="146" t="s">
         <v>485</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -11574,15 +12640,21 @@
       <c r="F12" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="127" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="129"/>
+      <c r="G12" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="103" thickBot="1">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>488</v>
       </c>
@@ -11599,12 +12671,16 @@
       <c r="G13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="H13" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>785</v>
+      </c>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="120" thickBot="1">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>490</v>
       </c>
@@ -11621,9 +12697,15 @@
       <c r="G14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="37"/>
+      <c r="H14" s="30" t="s">
+        <v>833</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>834</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11651,24 +12733,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="157" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="25"/>
-    <col min="3" max="5" width="8.77734375" style="59"/>
+    <col min="2" max="2" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="59"/>
     <col min="6" max="6" width="93" style="25" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="35.77734375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="25" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" style="25" customWidth="1"/>
-    <col min="11" max="1024" width="8.77734375" style="25"/>
+    <col min="10" max="10" width="30.83203125" style="25" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="43" customFormat="1" ht="44">
       <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
@@ -11701,7 +12784,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="146" t="s">
         <v>492</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -11724,8 +12807,8 @@
       <c r="I2" s="49"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="129"/>
+    <row r="3" spans="1:10" ht="221">
+      <c r="A3" s="146"/>
       <c r="B3" s="62" t="s">
         <v>495</v>
       </c>
@@ -11739,13 +12822,21 @@
       <c r="F3" s="80" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="129"/>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="146"/>
       <c r="B4" s="62" t="s">
         <v>497</v>
       </c>
@@ -11764,8 +12855,8 @@
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="129"/>
+    <row r="5" spans="1:10" ht="272">
+      <c r="A5" s="146"/>
       <c r="B5" s="62" t="s">
         <v>499</v>
       </c>
@@ -11782,14 +12873,18 @@
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="128" t="s">
+        <v>750</v>
+      </c>
       <c r="I5" s="30" t="s">
-        <v>731</v>
-      </c>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="129"/>
+        <v>746</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="146"/>
       <c r="B6" s="62" t="s">
         <v>501</v>
       </c>
@@ -11808,8 +12903,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="129"/>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="146"/>
       <c r="B7" s="62" t="s">
         <v>503</v>
       </c>
@@ -11831,7 +12926,7 @@
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="146" t="s">
         <v>505</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -11850,12 +12945,18 @@
       <c r="G8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="129"/>
+      <c r="H8" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="146"/>
       <c r="B9" s="62" t="s">
         <v>508</v>
       </c>
@@ -11874,8 +12975,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="129"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="146"/>
       <c r="B10" s="62" t="s">
         <v>510</v>
       </c>
@@ -11889,13 +12990,15 @@
       <c r="F10" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="32"/>
+      <c r="G10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="138"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="146" t="s">
         <v>512</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -11918,8 +13021,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="129"/>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="146"/>
       <c r="B12" s="62" t="s">
         <v>515</v>
       </c>
@@ -11938,8 +13041,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="129"/>
+    <row r="13" spans="1:10" ht="34">
+      <c r="A13" s="146"/>
       <c r="B13" s="62" t="s">
         <v>517</v>
       </c>
@@ -11958,8 +13061,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="146"/>
       <c r="B14" s="62" t="s">
         <v>519</v>
       </c>
@@ -11978,8 +13081,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="129"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="146"/>
       <c r="B15" s="62" t="s">
         <v>521</v>
       </c>
@@ -12000,8 +13103,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="129"/>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="146"/>
       <c r="B16" s="62" t="s">
         <v>523</v>
       </c>
@@ -12020,8 +13123,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" ht="109.2">
-      <c r="A17" s="129"/>
+    <row r="17" spans="1:10" ht="102">
+      <c r="A17" s="146"/>
       <c r="B17" s="62" t="s">
         <v>525</v>
       </c>
@@ -12039,15 +13142,15 @@
         <v>26</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="129"/>
+    <row r="18" spans="1:10" ht="34">
+      <c r="A18" s="146"/>
       <c r="B18" s="62" t="s">
         <v>527</v>
       </c>
@@ -12078,6 +13181,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{4D56E73B-56B8-4CBA-B998-27CAE251A76F}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
